--- a/docs/project_management/project_plan.xlsx
+++ b/docs/project_management/project_plan.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="30">
   <si>
     <t>Mon</t>
   </si>
@@ -98,6 +98,12 @@
   </si>
   <si>
     <t>Finish Report</t>
+  </si>
+  <si>
+    <t>Hours</t>
+  </si>
+  <si>
+    <t>Approx</t>
   </si>
 </sst>
 </file>
@@ -197,34 +203,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -250,6 +235,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -259,11 +254,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -274,9 +272,26 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -579,1542 +594,1919 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K126"/>
+  <dimension ref="B1:K128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="N106" sqref="N106"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.140625" customWidth="1"/>
     <col min="2" max="2" width="5.5703125" customWidth="1"/>
-    <col min="3" max="3" width="3.140625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="3.140625" style="6" customWidth="1"/>
     <col min="4" max="4" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.28515625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" style="4" customWidth="1"/>
     <col min="6" max="6" width="15.42578125" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" style="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="18"/>
-      <c r="E1" s="18"/>
-    </row>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="G1" s="30"/>
+    </row>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
-      <c r="C2" s="14"/>
+      <c r="C2" s="7"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="5" t="s">
         <v>25</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="3" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="5" t="s">
+      <c r="G2" s="31" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="14">
+      <c r="C3" s="7">
         <v>18</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="25"/>
+      <c r="E3" s="23"/>
       <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B4" s="5"/>
-      <c r="C4" s="14">
+      <c r="G3" s="31"/>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="16"/>
+      <c r="C4" s="7">
         <v>19</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="26"/>
+      <c r="E4" s="24"/>
       <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B5" s="5"/>
-      <c r="C5" s="14">
+      <c r="G4" s="31"/>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="16"/>
+      <c r="C5" s="7">
         <v>20</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="26"/>
+      <c r="E5" s="24"/>
       <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B6" s="5"/>
-      <c r="C6" s="14">
+      <c r="G5" s="31"/>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="16"/>
+      <c r="C6" s="7">
         <v>21</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="27"/>
+      <c r="E6" s="25"/>
       <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B7" s="5"/>
-      <c r="C7" s="14">
+      <c r="G6" s="31"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="16"/>
+      <c r="C7" s="7">
         <v>22</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="20" t="s">
         <v>10</v>
       </c>
       <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B8" s="5"/>
-      <c r="C8" s="14">
+      <c r="G7" s="31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="16"/>
+      <c r="C8" s="7">
         <v>23</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="10"/>
+      <c r="E8" s="22"/>
       <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B9" s="5"/>
-      <c r="C9" s="14">
+      <c r="G8" s="31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="16"/>
+      <c r="C9" s="7">
         <v>24</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="24"/>
+      <c r="E9" s="13"/>
       <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="5"/>
-      <c r="C10" s="14">
+      <c r="G9" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="16"/>
+      <c r="C10" s="7">
         <v>25</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="20" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B11" s="5"/>
-      <c r="C11" s="14">
+      <c r="G10" s="31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="16"/>
+      <c r="C11" s="7">
         <v>26</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="9"/>
+      <c r="E11" s="21"/>
       <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B12" s="5"/>
-      <c r="C12" s="14">
+      <c r="G11" s="31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="16"/>
+      <c r="C12" s="7">
         <v>27</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="9"/>
+      <c r="E12" s="21"/>
       <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B13" s="5"/>
-      <c r="C13" s="14">
+      <c r="G12" s="31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="16"/>
+      <c r="C13" s="7">
         <v>28</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="9"/>
+      <c r="E13" s="21"/>
       <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="5"/>
-      <c r="C14" s="14">
+      <c r="G13" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="16"/>
+      <c r="C14" s="7">
         <v>29</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="9"/>
+      <c r="E14" s="21"/>
       <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B15" s="5"/>
-      <c r="C15" s="14">
+      <c r="G14" s="31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="16"/>
+      <c r="C15" s="7">
         <v>30</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="10"/>
+      <c r="E15" s="22"/>
       <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B16" s="5"/>
-      <c r="C16" s="14">
+      <c r="G15" s="31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="16"/>
+      <c r="C16" s="7">
         <v>31</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="6"/>
+      <c r="E16" s="2"/>
       <c r="F16" s="1"/>
+      <c r="G16" s="31">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="7">
         <v>1</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="20" t="s">
         <v>11</v>
       </c>
       <c r="F17" s="1"/>
+      <c r="G17" s="31">
+        <v>6</v>
+      </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="3"/>
-      <c r="C18" s="14">
+      <c r="B18" s="27"/>
+      <c r="C18" s="7">
         <v>2</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E18" s="9"/>
+      <c r="E18" s="21"/>
       <c r="F18" s="1"/>
+      <c r="G18" s="31">
+        <v>4</v>
+      </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="3"/>
-      <c r="C19" s="14">
+      <c r="B19" s="27"/>
+      <c r="C19" s="7">
         <v>3</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E19" s="9"/>
+      <c r="E19" s="21"/>
       <c r="F19" s="1"/>
+      <c r="G19" s="31">
+        <v>6</v>
+      </c>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="3"/>
-      <c r="C20" s="14">
+      <c r="B20" s="27"/>
+      <c r="C20" s="7">
         <v>4</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="9"/>
+      <c r="E20" s="21"/>
       <c r="F20" s="1"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="28"/>
-      <c r="K20" s="28"/>
+      <c r="G20" s="31">
+        <v>0</v>
+      </c>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="3"/>
-      <c r="C21" s="14">
+      <c r="B21" s="27"/>
+      <c r="C21" s="7">
         <v>5</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="9"/>
+      <c r="E21" s="21"/>
       <c r="F21" s="1"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
+      <c r="G21" s="31">
+        <v>6</v>
+      </c>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="3"/>
-      <c r="C22" s="14">
+      <c r="B22" s="27"/>
+      <c r="C22" s="7">
         <v>6</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="10"/>
+      <c r="E22" s="22"/>
       <c r="F22" s="1"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="28"/>
-      <c r="K22" s="28"/>
+      <c r="G22" s="31">
+        <v>2</v>
+      </c>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="3"/>
-      <c r="C23" s="14">
+      <c r="B23" s="27"/>
+      <c r="C23" s="7">
         <v>7</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E23" s="19"/>
+      <c r="E23" s="12"/>
       <c r="F23" s="1"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="28"/>
-      <c r="K23" s="28"/>
+      <c r="G23" s="31">
+        <v>0</v>
+      </c>
+      <c r="H23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
+      <c r="K23" s="14"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="3"/>
-      <c r="C24" s="14">
+      <c r="B24" s="27"/>
+      <c r="C24" s="7">
         <v>8</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E24" s="8" t="s">
+      <c r="E24" s="20" t="s">
         <v>19</v>
       </c>
       <c r="F24" s="1"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-      <c r="K24" s="28"/>
+      <c r="G24" s="31">
+        <v>6</v>
+      </c>
+      <c r="H24" s="14"/>
+      <c r="I24" s="14"/>
+      <c r="J24" s="14"/>
+      <c r="K24" s="14"/>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="3"/>
-      <c r="C25" s="14">
+      <c r="B25" s="27"/>
+      <c r="C25" s="7">
         <v>9</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E25" s="9"/>
+      <c r="E25" s="21"/>
       <c r="F25" s="1"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="28"/>
+      <c r="G25" s="31">
+        <v>4</v>
+      </c>
+      <c r="H25" s="14"/>
+      <c r="I25" s="14"/>
+      <c r="J25" s="14"/>
+      <c r="K25" s="14"/>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B26" s="3"/>
-      <c r="C26" s="14">
+      <c r="B26" s="27"/>
+      <c r="C26" s="7">
         <v>10</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E26" s="9"/>
+      <c r="E26" s="21"/>
       <c r="F26" s="1"/>
-      <c r="H26" s="28"/>
+      <c r="G26" s="31">
+        <v>6</v>
+      </c>
+      <c r="H26" s="14"/>
       <c r="I26" s="29"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="28"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="14"/>
     </row>
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B27" s="3"/>
-      <c r="C27" s="14">
+      <c r="B27" s="27"/>
+      <c r="C27" s="7">
         <v>11</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E27" s="9"/>
+      <c r="E27" s="21"/>
       <c r="F27" s="1"/>
-      <c r="H27" s="28"/>
+      <c r="G27" s="31">
+        <v>0</v>
+      </c>
+      <c r="H27" s="14"/>
       <c r="I27" s="29"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="28"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B28" s="3"/>
-      <c r="C28" s="14">
+      <c r="B28" s="27"/>
+      <c r="C28" s="7">
         <v>12</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E28" s="9"/>
+      <c r="E28" s="21"/>
       <c r="F28" s="1"/>
-      <c r="H28" s="28"/>
+      <c r="G28" s="31">
+        <v>6</v>
+      </c>
+      <c r="H28" s="14"/>
       <c r="I28" s="29"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="28"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B29" s="3"/>
-      <c r="C29" s="14">
+      <c r="B29" s="27"/>
+      <c r="C29" s="7">
         <v>13</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E29" s="10"/>
+      <c r="E29" s="22"/>
       <c r="F29" s="1"/>
-      <c r="H29" s="28"/>
+      <c r="G29" s="31">
+        <v>2</v>
+      </c>
+      <c r="H29" s="14"/>
       <c r="I29" s="29"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="28"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B30" s="3"/>
-      <c r="C30" s="14">
+      <c r="B30" s="27"/>
+      <c r="C30" s="7">
         <v>14</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E30" s="19"/>
+      <c r="E30" s="12"/>
       <c r="F30" s="1"/>
-      <c r="H30" s="28"/>
+      <c r="G30" s="31">
+        <v>0</v>
+      </c>
+      <c r="H30" s="14"/>
       <c r="I30" s="29"/>
-      <c r="J30" s="28"/>
-      <c r="K30" s="28"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
     </row>
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B31" s="3"/>
-      <c r="C31" s="14">
+      <c r="B31" s="27"/>
+      <c r="C31" s="7">
         <v>15</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E31" s="8" t="s">
+      <c r="E31" s="20" t="s">
         <v>20</v>
       </c>
       <c r="F31" s="1"/>
-      <c r="H31" s="28"/>
+      <c r="G31" s="31">
+        <v>6</v>
+      </c>
+      <c r="H31" s="14"/>
       <c r="I31" s="29"/>
-      <c r="J31" s="28"/>
-      <c r="K31" s="28"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B32" s="3"/>
-      <c r="C32" s="14">
+      <c r="B32" s="27"/>
+      <c r="C32" s="7">
         <v>16</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E32" s="9"/>
+      <c r="E32" s="21"/>
       <c r="F32" s="1"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="28"/>
-      <c r="K32" s="28"/>
+      <c r="G32" s="31">
+        <v>4</v>
+      </c>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B33" s="3"/>
-      <c r="C33" s="14">
+      <c r="B33" s="27"/>
+      <c r="C33" s="7">
         <v>17</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E33" s="9"/>
+      <c r="E33" s="21"/>
       <c r="F33" s="1"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="28"/>
-      <c r="K33" s="28"/>
+      <c r="G33" s="31">
+        <v>6</v>
+      </c>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
     </row>
     <row r="34" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B34" s="3"/>
-      <c r="C34" s="14">
+      <c r="B34" s="27"/>
+      <c r="C34" s="7">
         <v>18</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E34" s="9"/>
+      <c r="E34" s="21"/>
       <c r="F34" s="1"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="28"/>
-      <c r="J34" s="28"/>
-      <c r="K34" s="28"/>
+      <c r="G34" s="31">
+        <v>0</v>
+      </c>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14"/>
     </row>
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B35" s="3"/>
-      <c r="C35" s="14">
+      <c r="B35" s="27"/>
+      <c r="C35" s="7">
         <v>19</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E35" s="9"/>
+      <c r="E35" s="21"/>
       <c r="F35" s="1"/>
+      <c r="G35" s="31">
+        <v>6</v>
+      </c>
     </row>
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B36" s="3"/>
-      <c r="C36" s="14">
+      <c r="B36" s="27"/>
+      <c r="C36" s="7">
         <v>20</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E36" s="10"/>
+      <c r="E36" s="22"/>
       <c r="F36" s="1"/>
+      <c r="G36" s="31">
+        <v>2</v>
+      </c>
     </row>
     <row r="37" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B37" s="3"/>
-      <c r="C37" s="14">
+      <c r="B37" s="27"/>
+      <c r="C37" s="7">
         <v>21</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E37" s="19"/>
+      <c r="E37" s="12"/>
       <c r="F37" s="1"/>
+      <c r="G37" s="31">
+        <v>0</v>
+      </c>
     </row>
     <row r="38" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B38" s="3"/>
-      <c r="C38" s="14">
+      <c r="B38" s="27"/>
+      <c r="C38" s="7">
         <v>22</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E38" s="12"/>
+      <c r="E38" s="20" t="s">
+        <v>26</v>
+      </c>
       <c r="F38" s="1"/>
+      <c r="G38" s="31">
+        <v>6</v>
+      </c>
     </row>
     <row r="39" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B39" s="3"/>
-      <c r="C39" s="14">
+      <c r="B39" s="27"/>
+      <c r="C39" s="7">
         <v>23</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E39" s="23" t="s">
-        <v>26</v>
-      </c>
+      <c r="E39" s="21"/>
       <c r="F39" s="1"/>
+      <c r="G39" s="31">
+        <v>4</v>
+      </c>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B40" s="3"/>
-      <c r="C40" s="14">
+      <c r="B40" s="27"/>
+      <c r="C40" s="7">
         <v>24</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E40" s="23"/>
+      <c r="E40" s="21"/>
       <c r="F40" s="1"/>
+      <c r="G40" s="31">
+        <v>6</v>
+      </c>
     </row>
     <row r="41" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B41" s="3"/>
-      <c r="C41" s="14">
+      <c r="B41" s="27"/>
+      <c r="C41" s="7">
         <v>25</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E41" s="23"/>
+      <c r="E41" s="22"/>
       <c r="F41" s="1"/>
+      <c r="G41" s="31">
+        <v>0</v>
+      </c>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B42" s="3"/>
-      <c r="C42" s="14">
+      <c r="B42" s="27"/>
+      <c r="C42" s="7">
         <v>26</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E42" s="12"/>
+      <c r="E42" s="5"/>
       <c r="F42" s="1"/>
+      <c r="G42" s="31">
+        <v>6</v>
+      </c>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B43" s="3"/>
-      <c r="C43" s="14">
+      <c r="B43" s="27"/>
+      <c r="C43" s="7">
         <v>27</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E43" s="12"/>
+      <c r="E43" s="5"/>
       <c r="F43" s="1"/>
+      <c r="G43" s="31">
+        <v>2</v>
+      </c>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B44" s="4"/>
-      <c r="C44" s="14">
+      <c r="B44" s="28"/>
+      <c r="C44" s="7">
         <v>28</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E44" s="19"/>
+      <c r="E44" s="12"/>
       <c r="F44" s="1"/>
+      <c r="G44" s="31">
+        <v>0</v>
+      </c>
     </row>
     <row r="45" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C45" s="14">
+      <c r="C45" s="7">
         <v>1</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E45" s="8" t="s">
+      <c r="E45" s="20" t="s">
         <v>12</v>
       </c>
       <c r="F45" s="1"/>
+      <c r="G45" s="31">
+        <v>6</v>
+      </c>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B46" s="3"/>
-      <c r="C46" s="14">
+      <c r="B46" s="27"/>
+      <c r="C46" s="7">
         <v>2</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E46" s="9"/>
+      <c r="E46" s="21"/>
       <c r="F46" s="1"/>
+      <c r="G46" s="31">
+        <v>4</v>
+      </c>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B47" s="3"/>
-      <c r="C47" s="14">
+      <c r="B47" s="27"/>
+      <c r="C47" s="7">
         <v>3</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E47" s="9"/>
+      <c r="E47" s="21"/>
       <c r="F47" s="1"/>
+      <c r="G47" s="31">
+        <v>6</v>
+      </c>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B48" s="3"/>
-      <c r="C48" s="14">
+      <c r="B48" s="27"/>
+      <c r="C48" s="7">
         <v>4</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E48" s="9"/>
+      <c r="E48" s="21"/>
       <c r="F48" s="1"/>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B49" s="3"/>
-      <c r="C49" s="14">
+      <c r="G48" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B49" s="27"/>
+      <c r="C49" s="7">
         <v>5</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E49" s="9"/>
+      <c r="E49" s="21"/>
       <c r="F49" s="1"/>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B50" s="3"/>
-      <c r="C50" s="14">
+      <c r="G49" s="31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B50" s="27"/>
+      <c r="C50" s="7">
         <v>6</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E50" s="10"/>
+      <c r="E50" s="22"/>
       <c r="F50" s="1"/>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B51" s="3"/>
-      <c r="C51" s="14">
+      <c r="G50" s="31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B51" s="27"/>
+      <c r="C51" s="7">
         <v>7</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E51" s="19"/>
+      <c r="E51" s="12"/>
       <c r="F51" s="1"/>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B52" s="3"/>
-      <c r="C52" s="14">
+      <c r="G51" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B52" s="27"/>
+      <c r="C52" s="7">
         <v>8</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E52" s="8" t="s">
+      <c r="E52" s="20" t="s">
         <v>12</v>
       </c>
       <c r="F52" s="1"/>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B53" s="3"/>
-      <c r="C53" s="14">
+      <c r="G52" s="31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B53" s="27"/>
+      <c r="C53" s="7">
         <v>9</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E53" s="9"/>
+      <c r="E53" s="21"/>
       <c r="F53" s="1"/>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B54" s="3"/>
-      <c r="C54" s="14">
+      <c r="G53" s="31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B54" s="27"/>
+      <c r="C54" s="7">
         <v>10</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E54" s="9"/>
+      <c r="E54" s="21"/>
       <c r="F54" s="1"/>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B55" s="3"/>
-      <c r="C55" s="14">
+      <c r="G54" s="31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B55" s="27"/>
+      <c r="C55" s="7">
         <v>11</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E55" s="9"/>
+      <c r="E55" s="21"/>
       <c r="F55" s="1"/>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B56" s="3"/>
-      <c r="C56" s="14">
+      <c r="G55" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B56" s="27"/>
+      <c r="C56" s="7">
         <v>12</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E56" s="9"/>
+      <c r="E56" s="21"/>
       <c r="F56" s="1"/>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B57" s="3"/>
-      <c r="C57" s="14">
+      <c r="G56" s="31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B57" s="27"/>
+      <c r="C57" s="7">
         <v>13</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E57" s="10"/>
+      <c r="E57" s="22"/>
       <c r="F57" s="1"/>
-    </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B58" s="3"/>
-      <c r="C58" s="14">
+      <c r="G57" s="31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B58" s="27"/>
+      <c r="C58" s="7">
         <v>14</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E58" s="19"/>
+      <c r="E58" s="12"/>
       <c r="F58" s="1"/>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B59" s="3"/>
-      <c r="C59" s="14">
+      <c r="G58" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B59" s="27"/>
+      <c r="C59" s="7">
         <v>15</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E59" s="8" t="s">
+      <c r="E59" s="20" t="s">
         <v>13</v>
       </c>
       <c r="F59" s="1"/>
-    </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B60" s="3"/>
-      <c r="C60" s="14">
+      <c r="G59" s="31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B60" s="27"/>
+      <c r="C60" s="7">
         <v>16</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E60" s="9"/>
+      <c r="E60" s="21"/>
       <c r="F60" s="1"/>
-    </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B61" s="3"/>
-      <c r="C61" s="14">
+      <c r="G60" s="31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B61" s="27"/>
+      <c r="C61" s="7">
         <v>17</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E61" s="9"/>
+      <c r="E61" s="21"/>
       <c r="F61" s="1"/>
-    </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B62" s="3"/>
-      <c r="C62" s="14">
+      <c r="G61" s="31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B62" s="27"/>
+      <c r="C62" s="7">
         <v>18</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E62" s="9"/>
+      <c r="E62" s="21"/>
       <c r="F62" s="1"/>
-    </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B63" s="3"/>
-      <c r="C63" s="14">
+      <c r="G62" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B63" s="27"/>
+      <c r="C63" s="7">
         <v>19</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E63" s="9"/>
+      <c r="E63" s="21"/>
       <c r="F63" s="1"/>
-    </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B64" s="3"/>
-      <c r="C64" s="14">
+      <c r="G63" s="31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B64" s="27"/>
+      <c r="C64" s="7">
         <v>20</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E64" s="10"/>
+      <c r="E64" s="22"/>
       <c r="F64" s="1"/>
-    </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B65" s="3"/>
-      <c r="C65" s="14">
+      <c r="G64" s="31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B65" s="27"/>
+      <c r="C65" s="7">
         <v>21</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E65" s="19"/>
+      <c r="E65" s="12"/>
       <c r="F65" s="1"/>
-    </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B66" s="3"/>
-      <c r="C66" s="14">
+      <c r="G65" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B66" s="27"/>
+      <c r="C66" s="7">
         <v>22</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E66" s="8" t="s">
+      <c r="E66" s="20" t="s">
         <v>13</v>
       </c>
       <c r="F66" s="1"/>
-    </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B67" s="3"/>
-      <c r="C67" s="14">
+      <c r="G66" s="31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B67" s="27"/>
+      <c r="C67" s="7">
         <v>23</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E67" s="9"/>
+      <c r="E67" s="21"/>
       <c r="F67" s="1"/>
-    </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B68" s="3"/>
-      <c r="C68" s="14">
+      <c r="G67" s="31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B68" s="27"/>
+      <c r="C68" s="7">
         <v>24</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E68" s="9"/>
+      <c r="E68" s="21"/>
       <c r="F68" s="1"/>
-    </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B69" s="3"/>
-      <c r="C69" s="14">
+      <c r="G68" s="31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B69" s="27"/>
+      <c r="C69" s="7">
         <v>25</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E69" s="9"/>
+      <c r="E69" s="21"/>
       <c r="F69" s="1"/>
-    </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B70" s="3"/>
-      <c r="C70" s="14">
+      <c r="G69" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B70" s="27"/>
+      <c r="C70" s="7">
         <v>26</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E70" s="9"/>
+      <c r="E70" s="21"/>
       <c r="F70" s="1"/>
-    </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B71" s="3"/>
-      <c r="C71" s="14">
+      <c r="G70" s="31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B71" s="27"/>
+      <c r="C71" s="7">
         <v>27</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E71" s="10"/>
+      <c r="E71" s="22"/>
       <c r="F71" s="1"/>
-    </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B72" s="3"/>
-      <c r="C72" s="14">
+      <c r="G71" s="31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B72" s="27"/>
+      <c r="C72" s="7">
         <v>28</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E72" s="19"/>
+      <c r="E72" s="12"/>
       <c r="F72" s="1"/>
-    </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B73" s="3"/>
-      <c r="C73" s="14">
+      <c r="G72" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B73" s="27"/>
+      <c r="C73" s="7">
         <v>29</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E73" s="8" t="s">
+      <c r="E73" s="20" t="s">
         <v>14</v>
       </c>
       <c r="F73" s="1"/>
-    </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B74" s="3"/>
-      <c r="C74" s="14">
+      <c r="G73" s="31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B74" s="27"/>
+      <c r="C74" s="7">
         <v>30</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E74" s="9"/>
+      <c r="E74" s="21"/>
       <c r="F74" s="1"/>
-    </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B75" s="4"/>
-      <c r="C75" s="15">
+      <c r="G74" s="31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B75" s="28"/>
+      <c r="C75" s="8">
         <v>31</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E75" s="9"/>
+      <c r="E75" s="21"/>
       <c r="F75" s="1"/>
-    </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B76" s="2" t="s">
+      <c r="G75" s="31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B76" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="C76" s="15">
+      <c r="C76" s="8">
         <v>1</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E76" s="9"/>
+      <c r="E76" s="21"/>
       <c r="F76" s="1"/>
-    </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B77" s="3"/>
-      <c r="C77" s="15">
+      <c r="G76" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B77" s="27"/>
+      <c r="C77" s="8">
         <v>2</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E77" s="9"/>
+      <c r="E77" s="21"/>
       <c r="F77" s="1"/>
-    </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B78" s="3"/>
-      <c r="C78" s="15">
+      <c r="G77" s="31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B78" s="27"/>
+      <c r="C78" s="8">
         <v>3</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E78" s="10"/>
+      <c r="E78" s="22"/>
       <c r="F78" s="1"/>
-    </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B79" s="3"/>
-      <c r="C79" s="15">
+      <c r="G78" s="31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B79" s="27"/>
+      <c r="C79" s="8">
         <v>4</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E79" s="19"/>
+      <c r="E79" s="12"/>
       <c r="F79" s="1"/>
-    </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B80" s="3"/>
-      <c r="C80" s="15">
+      <c r="G79" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B80" s="27"/>
+      <c r="C80" s="8">
         <v>5</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E80" s="8" t="s">
+      <c r="E80" s="20" t="s">
         <v>14</v>
       </c>
       <c r="F80" s="1"/>
-    </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B81" s="3"/>
-      <c r="C81" s="15">
+      <c r="G80" s="31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B81" s="27"/>
+      <c r="C81" s="8">
         <v>6</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E81" s="9"/>
+      <c r="E81" s="21"/>
       <c r="F81" s="1"/>
-    </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B82" s="3"/>
-      <c r="C82" s="15">
+      <c r="G81" s="31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B82" s="27"/>
+      <c r="C82" s="8">
         <v>7</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E82" s="9"/>
+      <c r="E82" s="21"/>
       <c r="F82" s="1"/>
-    </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B83" s="3"/>
-      <c r="C83" s="15">
+      <c r="G82" s="31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B83" s="27"/>
+      <c r="C83" s="8">
         <v>8</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E83" s="9"/>
+      <c r="E83" s="21"/>
       <c r="F83" s="1"/>
-    </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B84" s="3"/>
-      <c r="C84" s="15">
+      <c r="G83" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B84" s="27"/>
+      <c r="C84" s="8">
         <v>9</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E84" s="9"/>
+      <c r="E84" s="21"/>
       <c r="F84" s="1"/>
-    </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B85" s="3"/>
-      <c r="C85" s="15">
+      <c r="G84" s="31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B85" s="27"/>
+      <c r="C85" s="8">
         <v>10</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E85" s="10"/>
+      <c r="E85" s="22"/>
       <c r="F85" s="1"/>
-    </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B86" s="3"/>
-      <c r="C86" s="15">
+      <c r="G85" s="31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B86" s="27"/>
+      <c r="C86" s="8">
         <v>11</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E86" s="19"/>
+      <c r="E86" s="12"/>
       <c r="F86" s="1"/>
-    </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B87" s="3"/>
-      <c r="C87" s="15">
+      <c r="G86" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B87" s="27"/>
+      <c r="C87" s="8">
         <v>12</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E87" s="20" t="s">
+      <c r="E87" s="17" t="s">
         <v>15</v>
       </c>
       <c r="F87" s="1"/>
-    </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B88" s="3"/>
-      <c r="C88" s="15">
+      <c r="G87" s="31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B88" s="27"/>
+      <c r="C88" s="8">
         <v>13</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E88" s="21"/>
+      <c r="E88" s="18"/>
       <c r="F88" s="1"/>
-    </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B89" s="3"/>
-      <c r="C89" s="15">
+      <c r="G88" s="31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B89" s="27"/>
+      <c r="C89" s="8">
         <v>14</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E89" s="21"/>
+      <c r="E89" s="18"/>
       <c r="F89" s="1"/>
-    </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B90" s="3"/>
-      <c r="C90" s="15">
+      <c r="G89" s="31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B90" s="27"/>
+      <c r="C90" s="8">
         <v>15</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E90" s="21"/>
+      <c r="E90" s="18"/>
       <c r="F90" s="1"/>
-    </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B91" s="3"/>
-      <c r="C91" s="15">
+      <c r="G90" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B91" s="27"/>
+      <c r="C91" s="8">
         <v>16</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E91" s="21"/>
+      <c r="E91" s="18"/>
       <c r="F91" s="1"/>
-    </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B92" s="3"/>
-      <c r="C92" s="15">
+      <c r="G91" s="31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B92" s="27"/>
+      <c r="C92" s="8">
         <v>17</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E92" s="22"/>
+      <c r="E92" s="19"/>
       <c r="F92" s="1"/>
-    </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B93" s="3"/>
-      <c r="C93" s="15">
+      <c r="G92" s="31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B93" s="27"/>
+      <c r="C93" s="8">
         <v>18</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E93" s="19"/>
+      <c r="E93" s="12"/>
       <c r="F93" s="1"/>
-    </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B94" s="3"/>
-      <c r="C94" s="15">
+      <c r="G93" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B94" s="27"/>
+      <c r="C94" s="8">
         <v>19</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E94" s="20" t="s">
+      <c r="E94" s="17" t="s">
         <v>15</v>
       </c>
       <c r="F94" s="1"/>
-    </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B95" s="3"/>
-      <c r="C95" s="15">
+      <c r="G94" s="31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B95" s="27"/>
+      <c r="C95" s="8">
         <v>20</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E95" s="21"/>
+      <c r="E95" s="18"/>
       <c r="F95" s="1"/>
-    </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B96" s="3"/>
-      <c r="C96" s="15">
+      <c r="G95" s="31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B96" s="27"/>
+      <c r="C96" s="8">
         <v>21</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E96" s="21"/>
+      <c r="E96" s="18"/>
       <c r="F96" s="1"/>
-    </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B97" s="3"/>
-      <c r="C97" s="15">
+      <c r="G96" s="31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B97" s="27"/>
+      <c r="C97" s="8">
         <v>22</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E97" s="21"/>
+      <c r="E97" s="18"/>
       <c r="F97" s="1"/>
-    </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B98" s="3"/>
-      <c r="C98" s="15">
+      <c r="G97" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B98" s="27"/>
+      <c r="C98" s="8">
         <v>23</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E98" s="21"/>
+      <c r="E98" s="18"/>
       <c r="F98" s="1"/>
-    </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B99" s="3"/>
-      <c r="C99" s="15">
+      <c r="G98" s="31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B99" s="27"/>
+      <c r="C99" s="8">
         <v>24</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E99" s="22"/>
+      <c r="E99" s="19"/>
       <c r="F99" s="1"/>
-    </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B100" s="3"/>
-      <c r="C100" s="15">
+      <c r="G99" s="31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B100" s="27"/>
+      <c r="C100" s="8">
         <v>25</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E100" s="19"/>
+      <c r="E100" s="12"/>
       <c r="F100" s="1"/>
-    </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B101" s="3"/>
-      <c r="C101" s="15">
+      <c r="G100" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B101" s="27"/>
+      <c r="C101" s="8">
         <v>26</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E101" s="8" t="s">
+      <c r="E101" s="20" t="s">
         <v>23</v>
       </c>
       <c r="F101" s="1"/>
-    </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B102" s="3"/>
-      <c r="C102" s="15">
+      <c r="G101" s="31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B102" s="27"/>
+      <c r="C102" s="8">
         <v>27</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E102" s="9"/>
+      <c r="E102" s="21"/>
       <c r="F102" s="1"/>
-    </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B103" s="3"/>
-      <c r="C103" s="15">
+      <c r="G102" s="31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B103" s="27"/>
+      <c r="C103" s="8">
         <v>28</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E103" s="9"/>
+      <c r="E103" s="21"/>
       <c r="F103" s="1"/>
-    </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B104" s="3"/>
-      <c r="C104" s="15">
+      <c r="G103" s="31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B104" s="27"/>
+      <c r="C104" s="8">
         <v>29</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E104" s="9"/>
+      <c r="E104" s="21"/>
       <c r="F104" s="1"/>
-    </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B105" s="4"/>
-      <c r="C105" s="15">
+      <c r="G104" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B105" s="28"/>
+      <c r="C105" s="8">
         <v>30</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E105" s="9"/>
+      <c r="E105" s="21"/>
       <c r="F105" s="1"/>
-    </row>
-    <row r="106" spans="2:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C106" s="15">
+      <c r="G105" s="31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B106" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C106" s="8">
         <v>1</v>
       </c>
       <c r="D106" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E106" s="10"/>
+      <c r="E106" s="22"/>
       <c r="F106" s="1"/>
-    </row>
-    <row r="107" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B107" s="5"/>
-      <c r="C107" s="15">
+      <c r="G106" s="31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B107" s="16"/>
+      <c r="C107" s="8">
         <v>2</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E107" s="19"/>
+      <c r="E107" s="12"/>
       <c r="F107" s="1"/>
-    </row>
-    <row r="108" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B108" s="5"/>
-      <c r="C108" s="15">
+      <c r="G107" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B108" s="16"/>
+      <c r="C108" s="8">
         <v>3</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E108" s="23" t="s">
+      <c r="E108" s="15" t="s">
         <v>27</v>
       </c>
       <c r="F108" s="1"/>
-    </row>
-    <row r="109" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B109" s="5"/>
-      <c r="C109" s="15">
+      <c r="G108" s="31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B109" s="16"/>
+      <c r="C109" s="8">
         <v>4</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E109" s="23"/>
+      <c r="E109" s="15"/>
       <c r="F109" s="1"/>
-    </row>
-    <row r="110" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B110" s="5"/>
-      <c r="C110" s="15">
+      <c r="G109" s="31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B110" s="16"/>
+      <c r="C110" s="8">
         <v>5</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E110" s="23"/>
+      <c r="E110" s="15"/>
       <c r="F110" s="1"/>
-    </row>
-    <row r="111" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B111" s="5"/>
-      <c r="C111" s="15">
+      <c r="G110" s="31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B111" s="16"/>
+      <c r="C111" s="8">
         <v>6</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E111" s="23"/>
+      <c r="E111" s="15"/>
       <c r="F111" s="1"/>
-    </row>
-    <row r="112" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B112" s="5"/>
-      <c r="C112" s="15">
+      <c r="G111" s="31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B112" s="16"/>
+      <c r="C112" s="8">
         <v>7</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E112" s="23"/>
+      <c r="E112" s="15"/>
       <c r="F112" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="113" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B113" s="5"/>
-      <c r="C113" s="15">
+      <c r="G112" s="31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B113" s="16"/>
+      <c r="C113" s="8">
         <v>8</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E113" s="16" t="s">
+      <c r="E113" s="9" t="s">
         <v>21</v>
       </c>
       <c r="F113" s="1"/>
-    </row>
-    <row r="114" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B114" s="5"/>
-      <c r="C114" s="15">
+      <c r="G113" s="31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="114" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B114" s="16"/>
+      <c r="C114" s="8">
         <v>9</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E114" s="19"/>
+      <c r="E114" s="12"/>
       <c r="F114" s="1"/>
-    </row>
-    <row r="115" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B115" s="5"/>
-      <c r="C115" s="15">
+      <c r="G114" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B115" s="16"/>
+      <c r="C115" s="8">
         <v>10</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E115" s="8" t="s">
+      <c r="E115" s="20" t="s">
         <v>21</v>
       </c>
       <c r="F115" s="1"/>
-    </row>
-    <row r="116" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B116" s="5"/>
-      <c r="C116" s="15">
+      <c r="G115" s="31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B116" s="16"/>
+      <c r="C116" s="8">
         <v>11</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E116" s="9"/>
+      <c r="E116" s="21"/>
       <c r="F116" s="1"/>
-    </row>
-    <row r="117" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B117" s="5"/>
-      <c r="C117" s="15">
+      <c r="G116" s="31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B117" s="16"/>
+      <c r="C117" s="8">
         <v>12</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E117" s="9"/>
+      <c r="E117" s="21"/>
       <c r="F117" s="1"/>
-    </row>
-    <row r="118" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B118" s="5"/>
-      <c r="C118" s="15">
+      <c r="G117" s="31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B118" s="16"/>
+      <c r="C118" s="8">
         <v>13</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E118" s="9"/>
+      <c r="E118" s="21"/>
       <c r="F118" s="1"/>
-    </row>
-    <row r="119" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B119" s="5"/>
-      <c r="C119" s="15">
+      <c r="G118" s="31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B119" s="16"/>
+      <c r="C119" s="8">
         <v>14</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E119" s="9"/>
+      <c r="E119" s="21"/>
       <c r="F119" s="1"/>
-    </row>
-    <row r="120" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B120" s="5"/>
-      <c r="C120" s="15">
+      <c r="G119" s="31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B120" s="16"/>
+      <c r="C120" s="8">
         <v>15</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E120" s="10"/>
+      <c r="E120" s="22"/>
       <c r="F120" s="1"/>
-    </row>
-    <row r="121" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B121" s="5"/>
-      <c r="C121" s="15">
+      <c r="G120" s="31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B121" s="16"/>
+      <c r="C121" s="8">
         <v>16</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E121" s="19"/>
+      <c r="E121" s="12"/>
       <c r="F121" s="1"/>
-    </row>
-    <row r="122" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B122" s="5"/>
-      <c r="C122" s="15">
+      <c r="G121" s="31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B122" s="16"/>
+      <c r="C122" s="8">
         <v>17</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E122" s="8" t="s">
+      <c r="E122" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="F122" s="20" t="s">
+      <c r="F122" s="17" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="123" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B123" s="5"/>
-      <c r="C123" s="15">
+      <c r="G122" s="31"/>
+    </row>
+    <row r="123" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B123" s="16"/>
+      <c r="C123" s="8">
         <v>18</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E123" s="9"/>
-      <c r="F123" s="21"/>
-    </row>
-    <row r="124" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B124" s="5"/>
-      <c r="C124" s="15">
+      <c r="E123" s="21"/>
+      <c r="F123" s="18"/>
+      <c r="G123" s="31"/>
+    </row>
+    <row r="124" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B124" s="16"/>
+      <c r="C124" s="8">
         <v>19</v>
       </c>
-      <c r="D124" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="E124" s="9"/>
-      <c r="F124" s="21"/>
-    </row>
-    <row r="125" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B125" s="5"/>
-      <c r="C125" s="15">
+      <c r="D124" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E124" s="21"/>
+      <c r="F124" s="18"/>
+      <c r="G124" s="31"/>
+    </row>
+    <row r="125" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B125" s="16"/>
+      <c r="C125" s="8">
         <v>20</v>
       </c>
-      <c r="D125" s="7" t="s">
+      <c r="D125" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E125" s="9"/>
-      <c r="F125" s="21"/>
-    </row>
-    <row r="126" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B126" s="5"/>
-      <c r="C126" s="15">
+      <c r="E125" s="21"/>
+      <c r="F125" s="18"/>
+      <c r="G125" s="31"/>
+    </row>
+    <row r="126" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B126" s="16"/>
+      <c r="C126" s="8">
         <v>21</v>
       </c>
-      <c r="D126" s="7" t="s">
+      <c r="D126" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E126" s="10"/>
-      <c r="F126" s="22"/>
+      <c r="E126" s="22"/>
+      <c r="F126" s="19"/>
+      <c r="G126" s="31"/>
+    </row>
+    <row r="128" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="G128" s="32">
+        <f>SUM(G7:G127)</f>
+        <v>418</v>
+      </c>
+      <c r="H128" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="I26:I31"/>
-    <mergeCell ref="E39:E41"/>
+  <mergeCells count="25">
+    <mergeCell ref="E87:E92"/>
+    <mergeCell ref="E94:E99"/>
+    <mergeCell ref="E10:E15"/>
+    <mergeCell ref="E38:E41"/>
+    <mergeCell ref="B3:B16"/>
+    <mergeCell ref="E17:E22"/>
+    <mergeCell ref="E24:E29"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="B17:B44"/>
+    <mergeCell ref="E31:E36"/>
     <mergeCell ref="E108:E112"/>
     <mergeCell ref="B106:B126"/>
     <mergeCell ref="F122:F126"/>
     <mergeCell ref="E122:E126"/>
     <mergeCell ref="E115:E120"/>
     <mergeCell ref="E101:E106"/>
-    <mergeCell ref="B3:B16"/>
-    <mergeCell ref="E17:E22"/>
-    <mergeCell ref="E24:E29"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="E3:E6"/>
     <mergeCell ref="B76:B105"/>
     <mergeCell ref="B45:B75"/>
-    <mergeCell ref="B17:B44"/>
-    <mergeCell ref="E31:E36"/>
     <mergeCell ref="E45:E50"/>
     <mergeCell ref="E52:E57"/>
     <mergeCell ref="E59:E64"/>
     <mergeCell ref="E66:E71"/>
     <mergeCell ref="E73:E78"/>
     <mergeCell ref="E80:E85"/>
-    <mergeCell ref="E87:E92"/>
-    <mergeCell ref="E94:E99"/>
-    <mergeCell ref="E10:E15"/>
   </mergeCells>
+  <conditionalFormatting sqref="G7:G126">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/docs/project_management/project_plan.xlsx
+++ b/docs/project_management/project_plan.xlsx
@@ -8,13 +8,14 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Chart1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="35">
   <si>
     <t>Mon</t>
   </si>
@@ -100,10 +101,25 @@
     <t>Finish Report</t>
   </si>
   <si>
-    <t>Hours</t>
+    <t>Planned Hours</t>
   </si>
   <si>
-    <t>Approx</t>
+    <t>Actual Hours</t>
+  </si>
+  <si>
+    <t>Planned Hours (Running)</t>
+  </si>
+  <si>
+    <t>Actual Hours (Running)</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>Actual hours before this date are approximates</t>
+  </si>
+  <si>
+    <t>Week</t>
   </si>
 </sst>
 </file>
@@ -139,7 +155,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -199,11 +215,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -239,6 +281,42 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -255,13 +333,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -271,27 +349,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -305,6 +362,1752 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Actual Hours</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$E$3:$F$126</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="124"/>
+                <c:lvl>
+                  <c:pt idx="4">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>11</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>12</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>13</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>14</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>15</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>16</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>17</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>18</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>19</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>20</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>21</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>22</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>23</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>24</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>25</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>26</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>27</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>28</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>29</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>30</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>31</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>32</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>33</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>34</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>35</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>36</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>37</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>38</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>39</c:v>
+                  </c:pt>
+                  <c:pt idx="43">
+                    <c:v>40</c:v>
+                  </c:pt>
+                  <c:pt idx="44">
+                    <c:v>41</c:v>
+                  </c:pt>
+                  <c:pt idx="45">
+                    <c:v>42</c:v>
+                  </c:pt>
+                  <c:pt idx="46">
+                    <c:v>43</c:v>
+                  </c:pt>
+                  <c:pt idx="47">
+                    <c:v>44</c:v>
+                  </c:pt>
+                  <c:pt idx="48">
+                    <c:v>45</c:v>
+                  </c:pt>
+                  <c:pt idx="49">
+                    <c:v>46</c:v>
+                  </c:pt>
+                  <c:pt idx="50">
+                    <c:v>47</c:v>
+                  </c:pt>
+                  <c:pt idx="51">
+                    <c:v>48</c:v>
+                  </c:pt>
+                  <c:pt idx="52">
+                    <c:v>49</c:v>
+                  </c:pt>
+                  <c:pt idx="53">
+                    <c:v>50</c:v>
+                  </c:pt>
+                  <c:pt idx="54">
+                    <c:v>51</c:v>
+                  </c:pt>
+                  <c:pt idx="55">
+                    <c:v>52</c:v>
+                  </c:pt>
+                  <c:pt idx="56">
+                    <c:v>53</c:v>
+                  </c:pt>
+                  <c:pt idx="57">
+                    <c:v>54</c:v>
+                  </c:pt>
+                  <c:pt idx="58">
+                    <c:v>55</c:v>
+                  </c:pt>
+                  <c:pt idx="59">
+                    <c:v>56</c:v>
+                  </c:pt>
+                  <c:pt idx="60">
+                    <c:v>57</c:v>
+                  </c:pt>
+                  <c:pt idx="61">
+                    <c:v>58</c:v>
+                  </c:pt>
+                  <c:pt idx="62">
+                    <c:v>59</c:v>
+                  </c:pt>
+                  <c:pt idx="63">
+                    <c:v>60</c:v>
+                  </c:pt>
+                  <c:pt idx="64">
+                    <c:v>61</c:v>
+                  </c:pt>
+                  <c:pt idx="65">
+                    <c:v>62</c:v>
+                  </c:pt>
+                  <c:pt idx="66">
+                    <c:v>63</c:v>
+                  </c:pt>
+                  <c:pt idx="67">
+                    <c:v>64</c:v>
+                  </c:pt>
+                  <c:pt idx="68">
+                    <c:v>65</c:v>
+                  </c:pt>
+                  <c:pt idx="69">
+                    <c:v>66</c:v>
+                  </c:pt>
+                  <c:pt idx="70">
+                    <c:v>67</c:v>
+                  </c:pt>
+                  <c:pt idx="71">
+                    <c:v>68</c:v>
+                  </c:pt>
+                  <c:pt idx="72">
+                    <c:v>69</c:v>
+                  </c:pt>
+                  <c:pt idx="73">
+                    <c:v>70</c:v>
+                  </c:pt>
+                  <c:pt idx="74">
+                    <c:v>71</c:v>
+                  </c:pt>
+                  <c:pt idx="75">
+                    <c:v>72</c:v>
+                  </c:pt>
+                  <c:pt idx="76">
+                    <c:v>73</c:v>
+                  </c:pt>
+                  <c:pt idx="77">
+                    <c:v>74</c:v>
+                  </c:pt>
+                  <c:pt idx="78">
+                    <c:v>75</c:v>
+                  </c:pt>
+                  <c:pt idx="79">
+                    <c:v>76</c:v>
+                  </c:pt>
+                  <c:pt idx="80">
+                    <c:v>77</c:v>
+                  </c:pt>
+                  <c:pt idx="81">
+                    <c:v>78</c:v>
+                  </c:pt>
+                  <c:pt idx="82">
+                    <c:v>79</c:v>
+                  </c:pt>
+                  <c:pt idx="83">
+                    <c:v>80</c:v>
+                  </c:pt>
+                  <c:pt idx="84">
+                    <c:v>81</c:v>
+                  </c:pt>
+                  <c:pt idx="85">
+                    <c:v>82</c:v>
+                  </c:pt>
+                  <c:pt idx="86">
+                    <c:v>83</c:v>
+                  </c:pt>
+                  <c:pt idx="87">
+                    <c:v>84</c:v>
+                  </c:pt>
+                  <c:pt idx="88">
+                    <c:v>85</c:v>
+                  </c:pt>
+                  <c:pt idx="89">
+                    <c:v>86</c:v>
+                  </c:pt>
+                  <c:pt idx="90">
+                    <c:v>87</c:v>
+                  </c:pt>
+                  <c:pt idx="91">
+                    <c:v>88</c:v>
+                  </c:pt>
+                  <c:pt idx="92">
+                    <c:v>89</c:v>
+                  </c:pt>
+                  <c:pt idx="93">
+                    <c:v>90</c:v>
+                  </c:pt>
+                  <c:pt idx="94">
+                    <c:v>91</c:v>
+                  </c:pt>
+                  <c:pt idx="95">
+                    <c:v>92</c:v>
+                  </c:pt>
+                  <c:pt idx="96">
+                    <c:v>93</c:v>
+                  </c:pt>
+                  <c:pt idx="97">
+                    <c:v>94</c:v>
+                  </c:pt>
+                  <c:pt idx="98">
+                    <c:v>95</c:v>
+                  </c:pt>
+                  <c:pt idx="99">
+                    <c:v>96</c:v>
+                  </c:pt>
+                  <c:pt idx="100">
+                    <c:v>97</c:v>
+                  </c:pt>
+                  <c:pt idx="101">
+                    <c:v>98</c:v>
+                  </c:pt>
+                  <c:pt idx="102">
+                    <c:v>99</c:v>
+                  </c:pt>
+                  <c:pt idx="103">
+                    <c:v>100</c:v>
+                  </c:pt>
+                  <c:pt idx="104">
+                    <c:v>101</c:v>
+                  </c:pt>
+                  <c:pt idx="105">
+                    <c:v>102</c:v>
+                  </c:pt>
+                  <c:pt idx="106">
+                    <c:v>103</c:v>
+                  </c:pt>
+                  <c:pt idx="107">
+                    <c:v>104</c:v>
+                  </c:pt>
+                  <c:pt idx="108">
+                    <c:v>105</c:v>
+                  </c:pt>
+                  <c:pt idx="109">
+                    <c:v>106</c:v>
+                  </c:pt>
+                  <c:pt idx="110">
+                    <c:v>107</c:v>
+                  </c:pt>
+                  <c:pt idx="111">
+                    <c:v>108</c:v>
+                  </c:pt>
+                  <c:pt idx="112">
+                    <c:v>109</c:v>
+                  </c:pt>
+                  <c:pt idx="113">
+                    <c:v>110</c:v>
+                  </c:pt>
+                  <c:pt idx="114">
+                    <c:v>111</c:v>
+                  </c:pt>
+                  <c:pt idx="115">
+                    <c:v>112</c:v>
+                  </c:pt>
+                  <c:pt idx="116">
+                    <c:v>113</c:v>
+                  </c:pt>
+                  <c:pt idx="117">
+                    <c:v>114</c:v>
+                  </c:pt>
+                  <c:pt idx="118">
+                    <c:v>115</c:v>
+                  </c:pt>
+                  <c:pt idx="119">
+                    <c:v>116</c:v>
+                  </c:pt>
+                  <c:pt idx="120">
+                    <c:v>117</c:v>
+                  </c:pt>
+                  <c:pt idx="121">
+                    <c:v>118</c:v>
+                  </c:pt>
+                  <c:pt idx="122">
+                    <c:v>119</c:v>
+                  </c:pt>
+                  <c:pt idx="123">
+                    <c:v>120</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="49">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="56">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="63">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="70">
+                    <c:v>11</c:v>
+                  </c:pt>
+                  <c:pt idx="77">
+                    <c:v>12</c:v>
+                  </c:pt>
+                  <c:pt idx="84">
+                    <c:v>13</c:v>
+                  </c:pt>
+                  <c:pt idx="91">
+                    <c:v>14</c:v>
+                  </c:pt>
+                  <c:pt idx="98">
+                    <c:v>15</c:v>
+                  </c:pt>
+                  <c:pt idx="105">
+                    <c:v>16</c:v>
+                  </c:pt>
+                  <c:pt idx="112">
+                    <c:v>17</c:v>
+                  </c:pt>
+                  <c:pt idx="119">
+                    <c:v>18</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$7:$N$126</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="120"/>
+                <c:pt idx="0">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>404</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>404</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>396</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>388</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>384</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>376</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>372</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>368</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>364</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>360</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>352</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>348</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>344</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>336</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>332</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>332</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>328</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>324</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>316</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>312</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>309.5</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>309.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>303.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>303.5</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>303.5</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>303.5</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>303.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>303.5</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>303.5</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>303.5</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>303.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>303.5</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>303.5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>303.5</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>303.5</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>303.5</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>303.5</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>303.5</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>303.5</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>303.5</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>303.5</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>303.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>303.5</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>303.5</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>303.5</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>303.5</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>303.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>303.5</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>303.5</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>303.5</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>303.5</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>303.5</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>303.5</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>303.5</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>303.5</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>303.5</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>303.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>303.5</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>303.5</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>303.5</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>303.5</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>303.5</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>303.5</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>303.5</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>303.5</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>303.5</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>303.5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>303.5</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>303.5</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>303.5</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>303.5</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>303.5</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>303.5</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>303.5</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>303.5</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>303.5</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>303.5</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>303.5</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>303.5</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>303.5</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>303.5</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>303.5</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>303.5</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>303.5</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>303.5</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>303.5</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>303.5</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>303.5</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>303.5</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>303.5</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>303.5</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>303.5</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>303.5</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>303.5</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>303.5</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>303.5</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>303.5</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>303.5</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>303.5</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>303.5</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>303.5</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>303.5</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>303.5</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>303.5</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>303.5</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>303.5</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>303.5</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>303.5</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>303.5</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>303.5</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>303.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Planned Hours</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$E$3:$F$126</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="124"/>
+                <c:lvl>
+                  <c:pt idx="4">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>11</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>12</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>13</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>14</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>15</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>16</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>17</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>18</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>19</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>20</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>21</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>22</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>23</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>24</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>25</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>26</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>27</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>28</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>29</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>30</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>31</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>32</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>33</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>34</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>35</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>36</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>37</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>38</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>39</c:v>
+                  </c:pt>
+                  <c:pt idx="43">
+                    <c:v>40</c:v>
+                  </c:pt>
+                  <c:pt idx="44">
+                    <c:v>41</c:v>
+                  </c:pt>
+                  <c:pt idx="45">
+                    <c:v>42</c:v>
+                  </c:pt>
+                  <c:pt idx="46">
+                    <c:v>43</c:v>
+                  </c:pt>
+                  <c:pt idx="47">
+                    <c:v>44</c:v>
+                  </c:pt>
+                  <c:pt idx="48">
+                    <c:v>45</c:v>
+                  </c:pt>
+                  <c:pt idx="49">
+                    <c:v>46</c:v>
+                  </c:pt>
+                  <c:pt idx="50">
+                    <c:v>47</c:v>
+                  </c:pt>
+                  <c:pt idx="51">
+                    <c:v>48</c:v>
+                  </c:pt>
+                  <c:pt idx="52">
+                    <c:v>49</c:v>
+                  </c:pt>
+                  <c:pt idx="53">
+                    <c:v>50</c:v>
+                  </c:pt>
+                  <c:pt idx="54">
+                    <c:v>51</c:v>
+                  </c:pt>
+                  <c:pt idx="55">
+                    <c:v>52</c:v>
+                  </c:pt>
+                  <c:pt idx="56">
+                    <c:v>53</c:v>
+                  </c:pt>
+                  <c:pt idx="57">
+                    <c:v>54</c:v>
+                  </c:pt>
+                  <c:pt idx="58">
+                    <c:v>55</c:v>
+                  </c:pt>
+                  <c:pt idx="59">
+                    <c:v>56</c:v>
+                  </c:pt>
+                  <c:pt idx="60">
+                    <c:v>57</c:v>
+                  </c:pt>
+                  <c:pt idx="61">
+                    <c:v>58</c:v>
+                  </c:pt>
+                  <c:pt idx="62">
+                    <c:v>59</c:v>
+                  </c:pt>
+                  <c:pt idx="63">
+                    <c:v>60</c:v>
+                  </c:pt>
+                  <c:pt idx="64">
+                    <c:v>61</c:v>
+                  </c:pt>
+                  <c:pt idx="65">
+                    <c:v>62</c:v>
+                  </c:pt>
+                  <c:pt idx="66">
+                    <c:v>63</c:v>
+                  </c:pt>
+                  <c:pt idx="67">
+                    <c:v>64</c:v>
+                  </c:pt>
+                  <c:pt idx="68">
+                    <c:v>65</c:v>
+                  </c:pt>
+                  <c:pt idx="69">
+                    <c:v>66</c:v>
+                  </c:pt>
+                  <c:pt idx="70">
+                    <c:v>67</c:v>
+                  </c:pt>
+                  <c:pt idx="71">
+                    <c:v>68</c:v>
+                  </c:pt>
+                  <c:pt idx="72">
+                    <c:v>69</c:v>
+                  </c:pt>
+                  <c:pt idx="73">
+                    <c:v>70</c:v>
+                  </c:pt>
+                  <c:pt idx="74">
+                    <c:v>71</c:v>
+                  </c:pt>
+                  <c:pt idx="75">
+                    <c:v>72</c:v>
+                  </c:pt>
+                  <c:pt idx="76">
+                    <c:v>73</c:v>
+                  </c:pt>
+                  <c:pt idx="77">
+                    <c:v>74</c:v>
+                  </c:pt>
+                  <c:pt idx="78">
+                    <c:v>75</c:v>
+                  </c:pt>
+                  <c:pt idx="79">
+                    <c:v>76</c:v>
+                  </c:pt>
+                  <c:pt idx="80">
+                    <c:v>77</c:v>
+                  </c:pt>
+                  <c:pt idx="81">
+                    <c:v>78</c:v>
+                  </c:pt>
+                  <c:pt idx="82">
+                    <c:v>79</c:v>
+                  </c:pt>
+                  <c:pt idx="83">
+                    <c:v>80</c:v>
+                  </c:pt>
+                  <c:pt idx="84">
+                    <c:v>81</c:v>
+                  </c:pt>
+                  <c:pt idx="85">
+                    <c:v>82</c:v>
+                  </c:pt>
+                  <c:pt idx="86">
+                    <c:v>83</c:v>
+                  </c:pt>
+                  <c:pt idx="87">
+                    <c:v>84</c:v>
+                  </c:pt>
+                  <c:pt idx="88">
+                    <c:v>85</c:v>
+                  </c:pt>
+                  <c:pt idx="89">
+                    <c:v>86</c:v>
+                  </c:pt>
+                  <c:pt idx="90">
+                    <c:v>87</c:v>
+                  </c:pt>
+                  <c:pt idx="91">
+                    <c:v>88</c:v>
+                  </c:pt>
+                  <c:pt idx="92">
+                    <c:v>89</c:v>
+                  </c:pt>
+                  <c:pt idx="93">
+                    <c:v>90</c:v>
+                  </c:pt>
+                  <c:pt idx="94">
+                    <c:v>91</c:v>
+                  </c:pt>
+                  <c:pt idx="95">
+                    <c:v>92</c:v>
+                  </c:pt>
+                  <c:pt idx="96">
+                    <c:v>93</c:v>
+                  </c:pt>
+                  <c:pt idx="97">
+                    <c:v>94</c:v>
+                  </c:pt>
+                  <c:pt idx="98">
+                    <c:v>95</c:v>
+                  </c:pt>
+                  <c:pt idx="99">
+                    <c:v>96</c:v>
+                  </c:pt>
+                  <c:pt idx="100">
+                    <c:v>97</c:v>
+                  </c:pt>
+                  <c:pt idx="101">
+                    <c:v>98</c:v>
+                  </c:pt>
+                  <c:pt idx="102">
+                    <c:v>99</c:v>
+                  </c:pt>
+                  <c:pt idx="103">
+                    <c:v>100</c:v>
+                  </c:pt>
+                  <c:pt idx="104">
+                    <c:v>101</c:v>
+                  </c:pt>
+                  <c:pt idx="105">
+                    <c:v>102</c:v>
+                  </c:pt>
+                  <c:pt idx="106">
+                    <c:v>103</c:v>
+                  </c:pt>
+                  <c:pt idx="107">
+                    <c:v>104</c:v>
+                  </c:pt>
+                  <c:pt idx="108">
+                    <c:v>105</c:v>
+                  </c:pt>
+                  <c:pt idx="109">
+                    <c:v>106</c:v>
+                  </c:pt>
+                  <c:pt idx="110">
+                    <c:v>107</c:v>
+                  </c:pt>
+                  <c:pt idx="111">
+                    <c:v>108</c:v>
+                  </c:pt>
+                  <c:pt idx="112">
+                    <c:v>109</c:v>
+                  </c:pt>
+                  <c:pt idx="113">
+                    <c:v>110</c:v>
+                  </c:pt>
+                  <c:pt idx="114">
+                    <c:v>111</c:v>
+                  </c:pt>
+                  <c:pt idx="115">
+                    <c:v>112</c:v>
+                  </c:pt>
+                  <c:pt idx="116">
+                    <c:v>113</c:v>
+                  </c:pt>
+                  <c:pt idx="117">
+                    <c:v>114</c:v>
+                  </c:pt>
+                  <c:pt idx="118">
+                    <c:v>115</c:v>
+                  </c:pt>
+                  <c:pt idx="119">
+                    <c:v>116</c:v>
+                  </c:pt>
+                  <c:pt idx="120">
+                    <c:v>117</c:v>
+                  </c:pt>
+                  <c:pt idx="121">
+                    <c:v>118</c:v>
+                  </c:pt>
+                  <c:pt idx="122">
+                    <c:v>119</c:v>
+                  </c:pt>
+                  <c:pt idx="123">
+                    <c:v>120</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="49">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="56">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="63">
+                    <c:v>10</c:v>
+                  </c:pt>
+                  <c:pt idx="70">
+                    <c:v>11</c:v>
+                  </c:pt>
+                  <c:pt idx="77">
+                    <c:v>12</c:v>
+                  </c:pt>
+                  <c:pt idx="84">
+                    <c:v>13</c:v>
+                  </c:pt>
+                  <c:pt idx="91">
+                    <c:v>14</c:v>
+                  </c:pt>
+                  <c:pt idx="98">
+                    <c:v>15</c:v>
+                  </c:pt>
+                  <c:pt idx="105">
+                    <c:v>16</c:v>
+                  </c:pt>
+                  <c:pt idx="112">
+                    <c:v>17</c:v>
+                  </c:pt>
+                  <c:pt idx="119">
+                    <c:v>18</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$7:$K$126</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="120"/>
+                <c:pt idx="0">
+                  <c:v>410</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>404</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>404</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>398</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>394</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>388</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>388</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>382</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>380</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>374</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>370</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>364</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>364</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>358</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>356</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>350</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>346</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>340</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>334</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>332</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>332</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>326</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>322</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>316</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>316</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>310</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>308</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>308</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>302</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>264</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>262</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>262</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>252</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>246</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>240</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>232</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>228</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>222</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>214</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>208</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>198</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>192</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>168</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="124545280"/>
+        <c:axId val="82591744"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="124545280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="82591744"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:tickMarkSkip val="7"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="82591744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="in"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="124545280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="1"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="108" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="9313333" cy="6085417"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -594,10 +2397,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K128"/>
+  <dimension ref="B1:O128"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="Q39" sqref="Q39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -606,32 +2409,61 @@
     <col min="2" max="2" width="5.5703125" customWidth="1"/>
     <col min="3" max="3" width="3.140625" style="6" customWidth="1"/>
     <col min="4" max="4" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.28515625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" style="32" customWidth="1"/>
+    <col min="5" max="5" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.140625" customWidth="1"/>
+    <col min="7" max="7" width="24.28515625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="18.85546875" customWidth="1"/>
+    <col min="9" max="9" width="7.42578125" style="17" customWidth="1"/>
+    <col min="10" max="10" width="6.85546875" style="17" customWidth="1"/>
+    <col min="11" max="11" width="6.28515625" style="17" customWidth="1"/>
+    <col min="12" max="12" width="7" style="17" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="17" customWidth="1"/>
+    <col min="14" max="14" width="6.5703125" style="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="G1" s="30"/>
-    </row>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G1" s="11"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+      <c r="M1" s="15"/>
+      <c r="N1" s="15"/>
+    </row>
+    <row r="2" spans="2:14" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="1"/>
       <c r="C2" s="7"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="31" t="s">
+      <c r="I2" s="21" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="3" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="16" t="s">
+      <c r="J2" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="26"/>
+      <c r="L2" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="M2" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" s="26"/>
+    </row>
+    <row r="3" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="28" t="s">
         <v>16</v>
       </c>
       <c r="C3" s="7">
@@ -640,192 +2472,502 @@
       <c r="D3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="23"/>
+      <c r="E3" s="22">
+        <v>1</v>
+      </c>
       <c r="F3" s="1"/>
-      <c r="G3" s="31"/>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="16"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16">
+        <f>SUM($I$3:I3)</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="16">
+        <f>SUM($I$128-J3)</f>
+        <v>416</v>
+      </c>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16">
+        <f>SUM($L$3:L3)</f>
+        <v>0</v>
+      </c>
+      <c r="N3" s="16">
+        <f>SUM($I$128-M3)</f>
+        <v>416</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="28"/>
       <c r="C4" s="7">
         <v>19</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="24"/>
+      <c r="E4" s="23"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="31"/>
-    </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="16"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16">
+        <f>SUM($I$3:I4)</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="16">
+        <f t="shared" ref="K4:K67" si="0">SUM($I$128-J4)</f>
+        <v>416</v>
+      </c>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16">
+        <f>SUM($L$3:L4)</f>
+        <v>0</v>
+      </c>
+      <c r="N4" s="16">
+        <f t="shared" ref="N4:N67" si="1">SUM($I$128-M4)</f>
+        <v>416</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5" s="28"/>
       <c r="C5" s="7">
         <v>20</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="24"/>
+      <c r="E5" s="23"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="31"/>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="16"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16">
+        <f>SUM($I$3:I5)</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="16">
+        <f t="shared" si="0"/>
+        <v>416</v>
+      </c>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16">
+        <f>SUM($L$3:L5)</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="16">
+        <f t="shared" si="1"/>
+        <v>416</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B6" s="28"/>
       <c r="C6" s="7">
         <v>21</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="25"/>
+      <c r="E6" s="23"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="31"/>
-    </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="16"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16">
+        <f>SUM($I$3:I6)</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="16">
+        <f t="shared" si="0"/>
+        <v>416</v>
+      </c>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16">
+        <f>SUM($L$3:L6)</f>
+        <v>0</v>
+      </c>
+      <c r="N6" s="16">
+        <f t="shared" si="1"/>
+        <v>416</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="28"/>
       <c r="C7" s="7">
         <v>22</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="23"/>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+      <c r="G7" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="31">
+      <c r="H7" s="1"/>
+      <c r="I7" s="16">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B8" s="16"/>
+      <c r="J7" s="16">
+        <f>SUM($I$3:I7)</f>
+        <v>6</v>
+      </c>
+      <c r="K7" s="16">
+        <f t="shared" si="0"/>
+        <v>410</v>
+      </c>
+      <c r="L7" s="16">
+        <v>6</v>
+      </c>
+      <c r="M7" s="16">
+        <f>SUM($L$3:L7)</f>
+        <v>6</v>
+      </c>
+      <c r="N7" s="16">
+        <f t="shared" si="1"/>
+        <v>410</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="28"/>
       <c r="C8" s="7">
         <v>23</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="22"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="31">
+      <c r="E8" s="23"/>
+      <c r="F8" s="1">
+        <v>2</v>
+      </c>
+      <c r="G8" s="24"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="16">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="16"/>
+      <c r="J8" s="16">
+        <f>SUM($I$3:I8)</f>
+        <v>12</v>
+      </c>
+      <c r="K8" s="16">
+        <f t="shared" si="0"/>
+        <v>404</v>
+      </c>
+      <c r="L8" s="16">
+        <v>6</v>
+      </c>
+      <c r="M8" s="16">
+        <f>SUM($L$3:L8)</f>
+        <v>12</v>
+      </c>
+      <c r="N8" s="16">
+        <f t="shared" si="1"/>
+        <v>404</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="28"/>
       <c r="C9" s="7">
         <v>24</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="31">
+      <c r="E9" s="24"/>
+      <c r="F9" s="1">
+        <v>3</v>
+      </c>
+      <c r="G9" s="13"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="16">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="16"/>
+      <c r="J9" s="16">
+        <f>SUM($I$3:I9)</f>
+        <v>12</v>
+      </c>
+      <c r="K9" s="16">
+        <f t="shared" si="0"/>
+        <v>404</v>
+      </c>
+      <c r="L9" s="16">
+        <v>0</v>
+      </c>
+      <c r="M9" s="16">
+        <f>SUM($L$3:L9)</f>
+        <v>12</v>
+      </c>
+      <c r="N9" s="16">
+        <f t="shared" si="1"/>
+        <v>404</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="28"/>
       <c r="C10" s="7">
         <v>25</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="22">
+        <v>2</v>
+      </c>
+      <c r="F10" s="1">
+        <v>4</v>
+      </c>
+      <c r="G10" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="31">
+      <c r="H10" s="1"/>
+      <c r="I10" s="16">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="16"/>
+      <c r="J10" s="16">
+        <f>SUM($I$3:I10)</f>
+        <v>18</v>
+      </c>
+      <c r="K10" s="16">
+        <f t="shared" si="0"/>
+        <v>398</v>
+      </c>
+      <c r="L10" s="16">
+        <v>4</v>
+      </c>
+      <c r="M10" s="16">
+        <f>SUM($L$3:L10)</f>
+        <v>16</v>
+      </c>
+      <c r="N10" s="16">
+        <f t="shared" si="1"/>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B11" s="28"/>
       <c r="C11" s="7">
         <v>26</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="21"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="31">
+      <c r="E11" s="23"/>
+      <c r="F11" s="1">
+        <v>5</v>
+      </c>
+      <c r="G11" s="23"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="16">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="16"/>
+      <c r="J11" s="16">
+        <f>SUM($I$3:I11)</f>
+        <v>22</v>
+      </c>
+      <c r="K11" s="16">
+        <f t="shared" si="0"/>
+        <v>394</v>
+      </c>
+      <c r="L11" s="16">
+        <v>4</v>
+      </c>
+      <c r="M11" s="16">
+        <f>SUM($L$3:L11)</f>
+        <v>20</v>
+      </c>
+      <c r="N11" s="16">
+        <f t="shared" si="1"/>
+        <v>396</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B12" s="28"/>
       <c r="C12" s="7">
         <v>27</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="21"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="31">
+      <c r="E12" s="23"/>
+      <c r="F12" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="16"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="16">
+        <v>6</v>
+      </c>
+      <c r="J12" s="16">
+        <f>SUM($I$3:I12)</f>
+        <v>28</v>
+      </c>
+      <c r="K12" s="16">
+        <f t="shared" si="0"/>
+        <v>388</v>
+      </c>
+      <c r="L12" s="16">
+        <v>4</v>
+      </c>
+      <c r="M12" s="16">
+        <f>SUM($L$3:L12)</f>
+        <v>24</v>
+      </c>
+      <c r="N12" s="16">
+        <f t="shared" si="1"/>
+        <v>392</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B13" s="28"/>
       <c r="C13" s="7">
         <v>28</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="21"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="31">
+      <c r="E13" s="23"/>
+      <c r="F13" s="1">
+        <v>7</v>
+      </c>
+      <c r="G13" s="23"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="16">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B14" s="16"/>
+      <c r="J13" s="16">
+        <f>SUM($I$3:I13)</f>
+        <v>28</v>
+      </c>
+      <c r="K13" s="16">
+        <f t="shared" si="0"/>
+        <v>388</v>
+      </c>
+      <c r="L13" s="16">
+        <v>4</v>
+      </c>
+      <c r="M13" s="16">
+        <f>SUM($L$3:L13)</f>
+        <v>28</v>
+      </c>
+      <c r="N13" s="16">
+        <f t="shared" si="1"/>
+        <v>388</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="28"/>
       <c r="C14" s="7">
         <v>29</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="21"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="31">
+      <c r="E14" s="23"/>
+      <c r="F14" s="1">
+        <v>8</v>
+      </c>
+      <c r="G14" s="23"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="16">
         <v>6</v>
       </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="16"/>
+      <c r="J14" s="16">
+        <f>SUM($I$3:I14)</f>
+        <v>34</v>
+      </c>
+      <c r="K14" s="16">
+        <f t="shared" si="0"/>
+        <v>382</v>
+      </c>
+      <c r="L14" s="16">
+        <v>4</v>
+      </c>
+      <c r="M14" s="16">
+        <f>SUM($L$3:L14)</f>
+        <v>32</v>
+      </c>
+      <c r="N14" s="16">
+        <f t="shared" si="1"/>
+        <v>384</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="28"/>
       <c r="C15" s="7">
         <v>30</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="22"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="31">
+      <c r="E15" s="23"/>
+      <c r="F15" s="1">
+        <v>9</v>
+      </c>
+      <c r="G15" s="24"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="16">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="16"/>
+      <c r="J15" s="16">
+        <f>SUM($I$3:I15)</f>
+        <v>36</v>
+      </c>
+      <c r="K15" s="16">
+        <f t="shared" si="0"/>
+        <v>380</v>
+      </c>
+      <c r="L15" s="16">
+        <v>4</v>
+      </c>
+      <c r="M15" s="16">
+        <f>SUM($L$3:L15)</f>
+        <v>36</v>
+      </c>
+      <c r="N15" s="16">
+        <f t="shared" si="1"/>
+        <v>380</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="28"/>
       <c r="C16" s="7">
         <v>31</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="31">
+      <c r="E16" s="24"/>
+      <c r="F16" s="1">
+        <v>10</v>
+      </c>
+      <c r="G16" s="2"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="26" t="s">
+      <c r="J16" s="16">
+        <f>SUM($I$3:I16)</f>
+        <v>36</v>
+      </c>
+      <c r="K16" s="16">
+        <f t="shared" si="0"/>
+        <v>380</v>
+      </c>
+      <c r="L16" s="16">
+        <v>0</v>
+      </c>
+      <c r="M16" s="16">
+        <f>SUM($L$3:L16)</f>
+        <v>36</v>
+      </c>
+      <c r="N16" s="16">
+        <f t="shared" si="1"/>
+        <v>380</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B17" s="32" t="s">
         <v>9</v>
       </c>
       <c r="C17" s="7">
@@ -834,460 +2976,1057 @@
       <c r="D17" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E17" s="20" t="s">
+      <c r="E17" s="22">
+        <v>3</v>
+      </c>
+      <c r="F17" s="1">
         <v>11</v>
       </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="31">
+      <c r="G17" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" s="1"/>
+      <c r="I17" s="16">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="27"/>
+      <c r="J17" s="16">
+        <f>SUM($I$3:I17)</f>
+        <v>42</v>
+      </c>
+      <c r="K17" s="16">
+        <f t="shared" si="0"/>
+        <v>374</v>
+      </c>
+      <c r="L17" s="16">
+        <v>4</v>
+      </c>
+      <c r="M17" s="16">
+        <f>SUM($L$3:L17)</f>
+        <v>40</v>
+      </c>
+      <c r="N17" s="16">
+        <f t="shared" si="1"/>
+        <v>376</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B18" s="33"/>
       <c r="C18" s="7">
         <v>2</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E18" s="21"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="31">
+      <c r="E18" s="23"/>
+      <c r="F18" s="1">
+        <v>12</v>
+      </c>
+      <c r="G18" s="23"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="16">
         <v>4</v>
       </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="27"/>
+      <c r="J18" s="16">
+        <f>SUM($I$3:I18)</f>
+        <v>46</v>
+      </c>
+      <c r="K18" s="16">
+        <f t="shared" si="0"/>
+        <v>370</v>
+      </c>
+      <c r="L18" s="16">
+        <v>4</v>
+      </c>
+      <c r="M18" s="16">
+        <f>SUM($L$3:L18)</f>
+        <v>44</v>
+      </c>
+      <c r="N18" s="16">
+        <f t="shared" si="1"/>
+        <v>372</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B19" s="33"/>
       <c r="C19" s="7">
         <v>3</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E19" s="21"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="31">
+      <c r="E19" s="23"/>
+      <c r="F19" s="1">
+        <v>13</v>
+      </c>
+      <c r="G19" s="23"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="16">
         <v>6</v>
       </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="27"/>
+      <c r="J19" s="16">
+        <f>SUM($I$3:I19)</f>
+        <v>52</v>
+      </c>
+      <c r="K19" s="16">
+        <f t="shared" si="0"/>
+        <v>364</v>
+      </c>
+      <c r="L19" s="16">
+        <v>4</v>
+      </c>
+      <c r="M19" s="16">
+        <f>SUM($L$3:L19)</f>
+        <v>48</v>
+      </c>
+      <c r="N19" s="16">
+        <f t="shared" si="1"/>
+        <v>368</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B20" s="33"/>
       <c r="C20" s="7">
         <v>4</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="21"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="31">
+      <c r="E20" s="23"/>
+      <c r="F20" s="1">
+        <v>14</v>
+      </c>
+      <c r="G20" s="23"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="16">
         <v>0</v>
       </c>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="27"/>
+      <c r="J20" s="16">
+        <f>SUM($I$3:I20)</f>
+        <v>52</v>
+      </c>
+      <c r="K20" s="16">
+        <f t="shared" si="0"/>
+        <v>364</v>
+      </c>
+      <c r="L20" s="18">
+        <v>4</v>
+      </c>
+      <c r="M20" s="16">
+        <f>SUM($L$3:L20)</f>
+        <v>52</v>
+      </c>
+      <c r="N20" s="16">
+        <f t="shared" si="1"/>
+        <v>364</v>
+      </c>
+      <c r="O20" s="14"/>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B21" s="33"/>
       <c r="C21" s="7">
         <v>5</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="21"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="31">
+      <c r="E21" s="23"/>
+      <c r="F21" s="1">
+        <v>15</v>
+      </c>
+      <c r="G21" s="23"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="16">
         <v>6</v>
       </c>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="27"/>
+      <c r="J21" s="16">
+        <f>SUM($I$3:I21)</f>
+        <v>58</v>
+      </c>
+      <c r="K21" s="16">
+        <f t="shared" si="0"/>
+        <v>358</v>
+      </c>
+      <c r="L21" s="18">
+        <v>4</v>
+      </c>
+      <c r="M21" s="16">
+        <f>SUM($L$3:L21)</f>
+        <v>56</v>
+      </c>
+      <c r="N21" s="16">
+        <f t="shared" si="1"/>
+        <v>360</v>
+      </c>
+      <c r="O21" s="14"/>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B22" s="33"/>
       <c r="C22" s="7">
         <v>6</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="22"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="31">
+      <c r="E22" s="23"/>
+      <c r="F22" s="1">
+        <v>16</v>
+      </c>
+      <c r="G22" s="24"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="16">
         <v>2</v>
       </c>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="27"/>
+      <c r="J22" s="16">
+        <f>SUM($I$3:I22)</f>
+        <v>60</v>
+      </c>
+      <c r="K22" s="16">
+        <f t="shared" si="0"/>
+        <v>356</v>
+      </c>
+      <c r="L22" s="18">
+        <v>4</v>
+      </c>
+      <c r="M22" s="16">
+        <f>SUM($L$3:L22)</f>
+        <v>60</v>
+      </c>
+      <c r="N22" s="16">
+        <f t="shared" si="1"/>
+        <v>356</v>
+      </c>
+      <c r="O22" s="14"/>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B23" s="33"/>
       <c r="C23" s="7">
         <v>7</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E23" s="12"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="31">
+      <c r="E23" s="24"/>
+      <c r="F23" s="1">
+        <v>17</v>
+      </c>
+      <c r="G23" s="12"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="16">
         <v>0</v>
       </c>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="27"/>
+      <c r="J23" s="16">
+        <f>SUM($I$3:I23)</f>
+        <v>60</v>
+      </c>
+      <c r="K23" s="16">
+        <f t="shared" si="0"/>
+        <v>356</v>
+      </c>
+      <c r="L23" s="18">
+        <v>0</v>
+      </c>
+      <c r="M23" s="16">
+        <f>SUM($L$3:L23)</f>
+        <v>60</v>
+      </c>
+      <c r="N23" s="16">
+        <f t="shared" si="1"/>
+        <v>356</v>
+      </c>
+      <c r="O23" s="14"/>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B24" s="33"/>
       <c r="C24" s="7">
         <v>8</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E24" s="20" t="s">
+      <c r="E24" s="22">
+        <v>4</v>
+      </c>
+      <c r="F24" s="1">
+        <v>18</v>
+      </c>
+      <c r="G24" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="F24" s="1"/>
-      <c r="G24" s="31">
+      <c r="H24" s="1"/>
+      <c r="I24" s="16">
         <v>6</v>
       </c>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="27"/>
+      <c r="J24" s="16">
+        <f>SUM($I$3:I24)</f>
+        <v>66</v>
+      </c>
+      <c r="K24" s="16">
+        <f t="shared" si="0"/>
+        <v>350</v>
+      </c>
+      <c r="L24" s="18">
+        <v>4</v>
+      </c>
+      <c r="M24" s="16">
+        <f>SUM($L$3:L24)</f>
+        <v>64</v>
+      </c>
+      <c r="N24" s="16">
+        <f t="shared" si="1"/>
+        <v>352</v>
+      </c>
+      <c r="O24" s="14"/>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B25" s="33"/>
       <c r="C25" s="7">
         <v>9</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E25" s="21"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="31">
+      <c r="E25" s="23"/>
+      <c r="F25" s="1">
+        <v>19</v>
+      </c>
+      <c r="G25" s="23"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="16">
         <v>4</v>
       </c>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B26" s="27"/>
+      <c r="J25" s="16">
+        <f>SUM($I$3:I25)</f>
+        <v>70</v>
+      </c>
+      <c r="K25" s="16">
+        <f t="shared" si="0"/>
+        <v>346</v>
+      </c>
+      <c r="L25" s="18">
+        <v>4</v>
+      </c>
+      <c r="M25" s="16">
+        <f>SUM($L$3:L25)</f>
+        <v>68</v>
+      </c>
+      <c r="N25" s="16">
+        <f t="shared" si="1"/>
+        <v>348</v>
+      </c>
+      <c r="O25" s="14"/>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B26" s="33"/>
       <c r="C26" s="7">
         <v>10</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E26" s="21"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="31">
+      <c r="E26" s="23"/>
+      <c r="F26" s="1">
+        <v>20</v>
+      </c>
+      <c r="G26" s="23"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="16">
         <v>6</v>
       </c>
-      <c r="H26" s="14"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="14"/>
-      <c r="K26" s="14"/>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B27" s="27"/>
+      <c r="J26" s="16">
+        <f>SUM($I$3:I26)</f>
+        <v>76</v>
+      </c>
+      <c r="K26" s="16">
+        <f t="shared" si="0"/>
+        <v>340</v>
+      </c>
+      <c r="L26" s="18">
+        <v>4</v>
+      </c>
+      <c r="M26" s="16">
+        <f>SUM($L$3:L26)</f>
+        <v>72</v>
+      </c>
+      <c r="N26" s="16">
+        <f t="shared" si="1"/>
+        <v>344</v>
+      </c>
+      <c r="O26" s="14"/>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B27" s="33"/>
       <c r="C27" s="7">
         <v>11</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E27" s="21"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="31">
+      <c r="E27" s="23"/>
+      <c r="F27" s="1">
+        <v>21</v>
+      </c>
+      <c r="G27" s="23"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="16">
         <v>0</v>
       </c>
-      <c r="H27" s="14"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="14"/>
-      <c r="K27" s="14"/>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B28" s="27"/>
+      <c r="J27" s="16">
+        <f>SUM($I$3:I27)</f>
+        <v>76</v>
+      </c>
+      <c r="K27" s="16">
+        <f t="shared" si="0"/>
+        <v>340</v>
+      </c>
+      <c r="L27" s="18">
+        <v>4</v>
+      </c>
+      <c r="M27" s="16">
+        <f>SUM($L$3:L27)</f>
+        <v>76</v>
+      </c>
+      <c r="N27" s="16">
+        <f t="shared" si="1"/>
+        <v>340</v>
+      </c>
+      <c r="O27" s="14"/>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B28" s="33"/>
       <c r="C28" s="7">
         <v>12</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E28" s="21"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="31">
+      <c r="E28" s="23"/>
+      <c r="F28" s="1">
+        <v>22</v>
+      </c>
+      <c r="G28" s="23"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="16">
         <v>6</v>
       </c>
-      <c r="H28" s="14"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="14"/>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B29" s="27"/>
+      <c r="J28" s="16">
+        <f>SUM($I$3:I28)</f>
+        <v>82</v>
+      </c>
+      <c r="K28" s="16">
+        <f t="shared" si="0"/>
+        <v>334</v>
+      </c>
+      <c r="L28" s="18">
+        <v>4</v>
+      </c>
+      <c r="M28" s="16">
+        <f>SUM($L$3:L28)</f>
+        <v>80</v>
+      </c>
+      <c r="N28" s="16">
+        <f t="shared" si="1"/>
+        <v>336</v>
+      </c>
+      <c r="O28" s="14"/>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B29" s="33"/>
       <c r="C29" s="7">
         <v>13</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E29" s="22"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="31">
+      <c r="E29" s="23"/>
+      <c r="F29" s="1">
+        <v>23</v>
+      </c>
+      <c r="G29" s="24"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="16">
         <v>2</v>
       </c>
-      <c r="H29" s="14"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="14"/>
-      <c r="K29" s="14"/>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B30" s="27"/>
+      <c r="J29" s="16">
+        <f>SUM($I$3:I29)</f>
+        <v>84</v>
+      </c>
+      <c r="K29" s="16">
+        <f t="shared" si="0"/>
+        <v>332</v>
+      </c>
+      <c r="L29" s="18">
+        <v>4</v>
+      </c>
+      <c r="M29" s="16">
+        <f>SUM($L$3:L29)</f>
+        <v>84</v>
+      </c>
+      <c r="N29" s="16">
+        <f t="shared" si="1"/>
+        <v>332</v>
+      </c>
+      <c r="O29" s="14"/>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B30" s="33"/>
       <c r="C30" s="7">
         <v>14</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E30" s="12"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="31">
+      <c r="E30" s="24"/>
+      <c r="F30" s="1">
+        <v>24</v>
+      </c>
+      <c r="G30" s="12"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="16">
         <v>0</v>
       </c>
-      <c r="H30" s="14"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="14"/>
-      <c r="K30" s="14"/>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B31" s="27"/>
+      <c r="J30" s="16">
+        <f>SUM($I$3:I30)</f>
+        <v>84</v>
+      </c>
+      <c r="K30" s="16">
+        <f t="shared" si="0"/>
+        <v>332</v>
+      </c>
+      <c r="L30" s="18">
+        <v>0</v>
+      </c>
+      <c r="M30" s="16">
+        <f>SUM($L$3:L30)</f>
+        <v>84</v>
+      </c>
+      <c r="N30" s="16">
+        <f t="shared" si="1"/>
+        <v>332</v>
+      </c>
+      <c r="O30" s="14"/>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B31" s="33"/>
       <c r="C31" s="7">
         <v>15</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E31" s="20" t="s">
+      <c r="E31" s="22">
+        <v>5</v>
+      </c>
+      <c r="F31" s="1">
+        <v>25</v>
+      </c>
+      <c r="G31" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="F31" s="1"/>
-      <c r="G31" s="31">
+      <c r="H31" s="1"/>
+      <c r="I31" s="16">
         <v>6</v>
       </c>
-      <c r="H31" s="14"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="14"/>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B32" s="27"/>
+      <c r="J31" s="16">
+        <f>SUM($I$3:I31)</f>
+        <v>90</v>
+      </c>
+      <c r="K31" s="16">
+        <f t="shared" si="0"/>
+        <v>326</v>
+      </c>
+      <c r="L31" s="18">
+        <v>4</v>
+      </c>
+      <c r="M31" s="16">
+        <f>SUM($L$3:L31)</f>
+        <v>88</v>
+      </c>
+      <c r="N31" s="16">
+        <f t="shared" si="1"/>
+        <v>328</v>
+      </c>
+      <c r="O31" s="14"/>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B32" s="33"/>
       <c r="C32" s="7">
         <v>16</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E32" s="21"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="31">
+      <c r="E32" s="23"/>
+      <c r="F32" s="1">
+        <v>26</v>
+      </c>
+      <c r="G32" s="23"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="16">
         <v>4</v>
       </c>
-      <c r="H32" s="14"/>
-      <c r="I32" s="14"/>
-      <c r="J32" s="14"/>
-      <c r="K32" s="14"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B33" s="27"/>
+      <c r="J32" s="16">
+        <f>SUM($I$3:I32)</f>
+        <v>94</v>
+      </c>
+      <c r="K32" s="16">
+        <f t="shared" si="0"/>
+        <v>322</v>
+      </c>
+      <c r="L32" s="18">
+        <v>4</v>
+      </c>
+      <c r="M32" s="16">
+        <f>SUM($L$3:L32)</f>
+        <v>92</v>
+      </c>
+      <c r="N32" s="16">
+        <f t="shared" si="1"/>
+        <v>324</v>
+      </c>
+      <c r="O32" s="14"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B33" s="33"/>
       <c r="C33" s="7">
         <v>17</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E33" s="21"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="31">
+      <c r="E33" s="23"/>
+      <c r="F33" s="1">
+        <v>27</v>
+      </c>
+      <c r="G33" s="23"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="16">
         <v>6</v>
       </c>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="14"/>
-      <c r="K33" s="14"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B34" s="27"/>
+      <c r="J33" s="16">
+        <f>SUM($I$3:I33)</f>
+        <v>100</v>
+      </c>
+      <c r="K33" s="16">
+        <f t="shared" si="0"/>
+        <v>316</v>
+      </c>
+      <c r="L33" s="18">
+        <v>4</v>
+      </c>
+      <c r="M33" s="16">
+        <f>SUM($L$3:L33)</f>
+        <v>96</v>
+      </c>
+      <c r="N33" s="16">
+        <f t="shared" si="1"/>
+        <v>320</v>
+      </c>
+      <c r="O33" s="14"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B34" s="33"/>
       <c r="C34" s="7">
         <v>18</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E34" s="21"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="31">
+      <c r="E34" s="23"/>
+      <c r="F34" s="1">
+        <v>28</v>
+      </c>
+      <c r="G34" s="23"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="16">
         <v>0</v>
       </c>
-      <c r="H34" s="14"/>
-      <c r="I34" s="14"/>
-      <c r="J34" s="14"/>
-      <c r="K34" s="14"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B35" s="27"/>
+      <c r="J34" s="16">
+        <f>SUM($I$3:I34)</f>
+        <v>100</v>
+      </c>
+      <c r="K34" s="16">
+        <f t="shared" si="0"/>
+        <v>316</v>
+      </c>
+      <c r="L34" s="18">
+        <v>4</v>
+      </c>
+      <c r="M34" s="16">
+        <f>SUM($L$3:L34)</f>
+        <v>100</v>
+      </c>
+      <c r="N34" s="16">
+        <f t="shared" si="1"/>
+        <v>316</v>
+      </c>
+      <c r="O34" s="14"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B35" s="33"/>
       <c r="C35" s="7">
         <v>19</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E35" s="21"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="31">
+      <c r="E35" s="23"/>
+      <c r="F35" s="1">
+        <v>29</v>
+      </c>
+      <c r="G35" s="23"/>
+      <c r="H35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I35" s="16">
         <v>6</v>
       </c>
-    </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B36" s="27"/>
+      <c r="J35" s="16">
+        <f>SUM($I$3:I35)</f>
+        <v>106</v>
+      </c>
+      <c r="K35" s="16">
+        <f t="shared" si="0"/>
+        <v>310</v>
+      </c>
+      <c r="L35" s="16">
+        <v>4</v>
+      </c>
+      <c r="M35" s="16">
+        <f>SUM($L$3:L35)</f>
+        <v>104</v>
+      </c>
+      <c r="N35" s="16">
+        <f t="shared" si="1"/>
+        <v>312</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B36" s="33"/>
       <c r="C36" s="7">
         <v>20</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E36" s="22"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="31">
+      <c r="E36" s="23"/>
+      <c r="F36" s="1">
+        <v>30</v>
+      </c>
+      <c r="G36" s="24"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="16">
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B37" s="27"/>
+      <c r="J36" s="16">
+        <f>SUM($I$3:I36)</f>
+        <v>108</v>
+      </c>
+      <c r="K36" s="16">
+        <f t="shared" si="0"/>
+        <v>308</v>
+      </c>
+      <c r="L36" s="16">
+        <v>2.5</v>
+      </c>
+      <c r="M36" s="16">
+        <f>SUM($L$3:L36)</f>
+        <v>106.5</v>
+      </c>
+      <c r="N36" s="16">
+        <f t="shared" si="1"/>
+        <v>309.5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B37" s="33"/>
       <c r="C37" s="7">
         <v>21</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E37" s="12"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="31">
+      <c r="E37" s="24"/>
+      <c r="F37" s="1">
+        <v>31</v>
+      </c>
+      <c r="G37" s="12"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="16">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B38" s="27"/>
+      <c r="J37" s="16">
+        <f>SUM($I$3:I37)</f>
+        <v>108</v>
+      </c>
+      <c r="K37" s="16">
+        <f t="shared" si="0"/>
+        <v>308</v>
+      </c>
+      <c r="L37" s="16">
+        <v>0</v>
+      </c>
+      <c r="M37" s="16">
+        <f>SUM($L$3:L37)</f>
+        <v>106.5</v>
+      </c>
+      <c r="N37" s="16">
+        <f t="shared" si="1"/>
+        <v>309.5</v>
+      </c>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B38" s="33"/>
       <c r="C38" s="7">
         <v>22</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E38" s="20" t="s">
+      <c r="E38" s="22">
+        <v>6</v>
+      </c>
+      <c r="F38" s="1">
+        <v>32</v>
+      </c>
+      <c r="G38" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="F38" s="1"/>
-      <c r="G38" s="31">
+      <c r="H38" s="1"/>
+      <c r="I38" s="16">
         <v>6</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B39" s="27"/>
+      <c r="J38" s="16">
+        <f>SUM($I$3:I38)</f>
+        <v>114</v>
+      </c>
+      <c r="K38" s="16">
+        <f t="shared" si="0"/>
+        <v>302</v>
+      </c>
+      <c r="L38" s="16">
+        <v>6</v>
+      </c>
+      <c r="M38" s="16">
+        <f>SUM($L$3:L38)</f>
+        <v>112.5</v>
+      </c>
+      <c r="N38" s="16">
+        <f t="shared" si="1"/>
+        <v>303.5</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B39" s="33"/>
       <c r="C39" s="7">
         <v>23</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E39" s="21"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="31">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B40" s="27"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="1">
+        <v>33</v>
+      </c>
+      <c r="G39" s="23"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="16">
+        <v>2</v>
+      </c>
+      <c r="J39" s="16">
+        <f>SUM($I$3:I39)</f>
+        <v>116</v>
+      </c>
+      <c r="K39" s="16">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+      <c r="L39" s="16"/>
+      <c r="M39" s="16">
+        <f>SUM($L$3:L39)</f>
+        <v>112.5</v>
+      </c>
+      <c r="N39" s="16">
+        <f t="shared" si="1"/>
+        <v>303.5</v>
+      </c>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B40" s="33"/>
       <c r="C40" s="7">
         <v>24</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E40" s="21"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="31">
+      <c r="E40" s="23"/>
+      <c r="F40" s="1">
+        <v>34</v>
+      </c>
+      <c r="G40" s="23"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="16">
         <v>6</v>
       </c>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B41" s="27"/>
+      <c r="J40" s="16">
+        <f>SUM($I$3:I40)</f>
+        <v>122</v>
+      </c>
+      <c r="K40" s="16">
+        <f t="shared" si="0"/>
+        <v>294</v>
+      </c>
+      <c r="L40" s="16"/>
+      <c r="M40" s="16">
+        <f>SUM($L$3:L40)</f>
+        <v>112.5</v>
+      </c>
+      <c r="N40" s="16">
+        <f t="shared" si="1"/>
+        <v>303.5</v>
+      </c>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B41" s="33"/>
       <c r="C41" s="7">
         <v>25</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E41" s="22"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="31">
+      <c r="E41" s="23"/>
+      <c r="F41" s="1">
+        <v>35</v>
+      </c>
+      <c r="G41" s="24"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="16">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B42" s="27"/>
+      <c r="J41" s="16">
+        <f>SUM($I$3:I41)</f>
+        <v>122</v>
+      </c>
+      <c r="K41" s="16">
+        <f t="shared" si="0"/>
+        <v>294</v>
+      </c>
+      <c r="L41" s="16"/>
+      <c r="M41" s="16">
+        <f>SUM($L$3:L41)</f>
+        <v>112.5</v>
+      </c>
+      <c r="N41" s="16">
+        <f t="shared" si="1"/>
+        <v>303.5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B42" s="33"/>
       <c r="C42" s="7">
         <v>26</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E42" s="5"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="31">
+      <c r="E42" s="23"/>
+      <c r="F42" s="1">
+        <v>36</v>
+      </c>
+      <c r="G42" s="5"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="16">
         <v>6</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B43" s="27"/>
+      <c r="J42" s="16">
+        <f>SUM($I$3:I42)</f>
+        <v>128</v>
+      </c>
+      <c r="K42" s="16">
+        <f t="shared" si="0"/>
+        <v>288</v>
+      </c>
+      <c r="L42" s="16"/>
+      <c r="M42" s="16">
+        <f>SUM($L$3:L42)</f>
+        <v>112.5</v>
+      </c>
+      <c r="N42" s="16">
+        <f t="shared" si="1"/>
+        <v>303.5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B43" s="33"/>
       <c r="C43" s="7">
         <v>27</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E43" s="5"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="31">
+      <c r="E43" s="23"/>
+      <c r="F43" s="1">
+        <v>37</v>
+      </c>
+      <c r="G43" s="5"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="16">
         <v>2</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B44" s="28"/>
+      <c r="J43" s="16">
+        <f>SUM($I$3:I43)</f>
+        <v>130</v>
+      </c>
+      <c r="K43" s="16">
+        <f t="shared" si="0"/>
+        <v>286</v>
+      </c>
+      <c r="L43" s="16"/>
+      <c r="M43" s="16">
+        <f>SUM($L$3:L43)</f>
+        <v>112.5</v>
+      </c>
+      <c r="N43" s="16">
+        <f t="shared" si="1"/>
+        <v>303.5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B44" s="34"/>
       <c r="C44" s="7">
         <v>28</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E44" s="12"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="31">
+      <c r="E44" s="24"/>
+      <c r="F44" s="1">
+        <v>38</v>
+      </c>
+      <c r="G44" s="12"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="16">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B45" s="26" t="s">
+      <c r="J44" s="16">
+        <f>SUM($I$3:I44)</f>
+        <v>130</v>
+      </c>
+      <c r="K44" s="16">
+        <f t="shared" si="0"/>
+        <v>286</v>
+      </c>
+      <c r="L44" s="16"/>
+      <c r="M44" s="16">
+        <f>SUM($L$3:L44)</f>
+        <v>112.5</v>
+      </c>
+      <c r="N44" s="16">
+        <f t="shared" si="1"/>
+        <v>303.5</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B45" s="32" t="s">
         <v>8</v>
       </c>
       <c r="C45" s="7">
@@ -1296,444 +4035,1105 @@
       <c r="D45" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E45" s="20" t="s">
+      <c r="E45" s="22">
+        <v>7</v>
+      </c>
+      <c r="F45" s="1">
+        <v>39</v>
+      </c>
+      <c r="G45" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F45" s="1"/>
-      <c r="G45" s="31">
+      <c r="H45" s="1"/>
+      <c r="I45" s="16">
         <v>6</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B46" s="27"/>
+      <c r="J45" s="16">
+        <f>SUM($I$3:I45)</f>
+        <v>136</v>
+      </c>
+      <c r="K45" s="16">
+        <f t="shared" si="0"/>
+        <v>280</v>
+      </c>
+      <c r="L45" s="16"/>
+      <c r="M45" s="16">
+        <f>SUM($L$3:L45)</f>
+        <v>112.5</v>
+      </c>
+      <c r="N45" s="16">
+        <f t="shared" si="1"/>
+        <v>303.5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B46" s="33"/>
       <c r="C46" s="7">
         <v>2</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E46" s="21"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="31">
+      <c r="E46" s="23"/>
+      <c r="F46" s="1">
+        <v>40</v>
+      </c>
+      <c r="G46" s="23"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="16">
         <v>4</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B47" s="27"/>
+      <c r="J46" s="16">
+        <f>SUM($I$3:I46)</f>
+        <v>140</v>
+      </c>
+      <c r="K46" s="16">
+        <f t="shared" si="0"/>
+        <v>276</v>
+      </c>
+      <c r="L46" s="16"/>
+      <c r="M46" s="16">
+        <f>SUM($L$3:L46)</f>
+        <v>112.5</v>
+      </c>
+      <c r="N46" s="16">
+        <f t="shared" si="1"/>
+        <v>303.5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B47" s="33"/>
       <c r="C47" s="7">
         <v>3</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E47" s="21"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="31">
+      <c r="E47" s="23"/>
+      <c r="F47" s="1">
+        <v>41</v>
+      </c>
+      <c r="G47" s="23"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="16">
         <v>6</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B48" s="27"/>
+      <c r="J47" s="16">
+        <f>SUM($I$3:I47)</f>
+        <v>146</v>
+      </c>
+      <c r="K47" s="16">
+        <f t="shared" si="0"/>
+        <v>270</v>
+      </c>
+      <c r="L47" s="16"/>
+      <c r="M47" s="16">
+        <f>SUM($L$3:L47)</f>
+        <v>112.5</v>
+      </c>
+      <c r="N47" s="16">
+        <f t="shared" si="1"/>
+        <v>303.5</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B48" s="33"/>
       <c r="C48" s="7">
         <v>4</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E48" s="21"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="31">
+      <c r="E48" s="23"/>
+      <c r="F48" s="1">
+        <v>42</v>
+      </c>
+      <c r="G48" s="23"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="16">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B49" s="27"/>
+      <c r="J48" s="16">
+        <f>SUM($I$3:I48)</f>
+        <v>146</v>
+      </c>
+      <c r="K48" s="16">
+        <f t="shared" si="0"/>
+        <v>270</v>
+      </c>
+      <c r="L48" s="16"/>
+      <c r="M48" s="16">
+        <f>SUM($L$3:L48)</f>
+        <v>112.5</v>
+      </c>
+      <c r="N48" s="16">
+        <f t="shared" si="1"/>
+        <v>303.5</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B49" s="33"/>
       <c r="C49" s="7">
         <v>5</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E49" s="21"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="31">
+      <c r="E49" s="23"/>
+      <c r="F49" s="1">
+        <v>43</v>
+      </c>
+      <c r="G49" s="23"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="16">
         <v>6</v>
       </c>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B50" s="27"/>
+      <c r="J49" s="16">
+        <f>SUM($I$3:I49)</f>
+        <v>152</v>
+      </c>
+      <c r="K49" s="16">
+        <f t="shared" si="0"/>
+        <v>264</v>
+      </c>
+      <c r="L49" s="16"/>
+      <c r="M49" s="16">
+        <f>SUM($L$3:L49)</f>
+        <v>112.5</v>
+      </c>
+      <c r="N49" s="16">
+        <f t="shared" si="1"/>
+        <v>303.5</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B50" s="33"/>
       <c r="C50" s="7">
         <v>6</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E50" s="22"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="31">
+      <c r="E50" s="23"/>
+      <c r="F50" s="1">
+        <v>44</v>
+      </c>
+      <c r="G50" s="24"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="16">
         <v>2</v>
       </c>
-    </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B51" s="27"/>
+      <c r="J50" s="16">
+        <f>SUM($I$3:I50)</f>
+        <v>154</v>
+      </c>
+      <c r="K50" s="16">
+        <f t="shared" si="0"/>
+        <v>262</v>
+      </c>
+      <c r="L50" s="16"/>
+      <c r="M50" s="16">
+        <f>SUM($L$3:L50)</f>
+        <v>112.5</v>
+      </c>
+      <c r="N50" s="16">
+        <f t="shared" si="1"/>
+        <v>303.5</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B51" s="33"/>
       <c r="C51" s="7">
         <v>7</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E51" s="12"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="31">
+      <c r="E51" s="24"/>
+      <c r="F51" s="1">
+        <v>45</v>
+      </c>
+      <c r="G51" s="12"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="16">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B52" s="27"/>
+      <c r="J51" s="16">
+        <f>SUM($I$3:I51)</f>
+        <v>154</v>
+      </c>
+      <c r="K51" s="16">
+        <f t="shared" si="0"/>
+        <v>262</v>
+      </c>
+      <c r="L51" s="16"/>
+      <c r="M51" s="16">
+        <f>SUM($L$3:L51)</f>
+        <v>112.5</v>
+      </c>
+      <c r="N51" s="16">
+        <f t="shared" si="1"/>
+        <v>303.5</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B52" s="33"/>
       <c r="C52" s="7">
         <v>8</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E52" s="20" t="s">
+      <c r="E52" s="22">
+        <v>8</v>
+      </c>
+      <c r="F52" s="1">
+        <v>46</v>
+      </c>
+      <c r="G52" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F52" s="1"/>
-      <c r="G52" s="31">
+      <c r="H52" s="1"/>
+      <c r="I52" s="16">
         <v>6</v>
       </c>
-    </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B53" s="27"/>
+      <c r="J52" s="16">
+        <f>SUM($I$3:I52)</f>
+        <v>160</v>
+      </c>
+      <c r="K52" s="16">
+        <f t="shared" si="0"/>
+        <v>256</v>
+      </c>
+      <c r="L52" s="16"/>
+      <c r="M52" s="16">
+        <f>SUM($L$3:L52)</f>
+        <v>112.5</v>
+      </c>
+      <c r="N52" s="16">
+        <f t="shared" si="1"/>
+        <v>303.5</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B53" s="33"/>
       <c r="C53" s="7">
         <v>9</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E53" s="21"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="31">
+      <c r="E53" s="23"/>
+      <c r="F53" s="1">
+        <v>47</v>
+      </c>
+      <c r="G53" s="23"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="16">
         <v>4</v>
       </c>
-    </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B54" s="27"/>
+      <c r="J53" s="16">
+        <f>SUM($I$3:I53)</f>
+        <v>164</v>
+      </c>
+      <c r="K53" s="16">
+        <f t="shared" si="0"/>
+        <v>252</v>
+      </c>
+      <c r="L53" s="16"/>
+      <c r="M53" s="16">
+        <f>SUM($L$3:L53)</f>
+        <v>112.5</v>
+      </c>
+      <c r="N53" s="16">
+        <f t="shared" si="1"/>
+        <v>303.5</v>
+      </c>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B54" s="33"/>
       <c r="C54" s="7">
         <v>10</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E54" s="21"/>
-      <c r="F54" s="1"/>
-      <c r="G54" s="31">
+      <c r="E54" s="23"/>
+      <c r="F54" s="1">
+        <v>48</v>
+      </c>
+      <c r="G54" s="23"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="16">
         <v>6</v>
       </c>
-    </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B55" s="27"/>
+      <c r="J54" s="16">
+        <f>SUM($I$3:I54)</f>
+        <v>170</v>
+      </c>
+      <c r="K54" s="16">
+        <f t="shared" si="0"/>
+        <v>246</v>
+      </c>
+      <c r="L54" s="16"/>
+      <c r="M54" s="16">
+        <f>SUM($L$3:L54)</f>
+        <v>112.5</v>
+      </c>
+      <c r="N54" s="16">
+        <f t="shared" si="1"/>
+        <v>303.5</v>
+      </c>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B55" s="33"/>
       <c r="C55" s="7">
         <v>11</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E55" s="21"/>
-      <c r="F55" s="1"/>
-      <c r="G55" s="31">
+      <c r="E55" s="23"/>
+      <c r="F55" s="1">
+        <v>49</v>
+      </c>
+      <c r="G55" s="23"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="16">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B56" s="27"/>
+      <c r="J55" s="16">
+        <f>SUM($I$3:I55)</f>
+        <v>170</v>
+      </c>
+      <c r="K55" s="16">
+        <f t="shared" si="0"/>
+        <v>246</v>
+      </c>
+      <c r="L55" s="16"/>
+      <c r="M55" s="16">
+        <f>SUM($L$3:L55)</f>
+        <v>112.5</v>
+      </c>
+      <c r="N55" s="16">
+        <f t="shared" si="1"/>
+        <v>303.5</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B56" s="33"/>
       <c r="C56" s="7">
         <v>12</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E56" s="21"/>
-      <c r="F56" s="1"/>
-      <c r="G56" s="31">
+      <c r="E56" s="23"/>
+      <c r="F56" s="1">
+        <v>50</v>
+      </c>
+      <c r="G56" s="23"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="16">
         <v>6</v>
       </c>
-    </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B57" s="27"/>
+      <c r="J56" s="16">
+        <f>SUM($I$3:I56)</f>
+        <v>176</v>
+      </c>
+      <c r="K56" s="16">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+      <c r="L56" s="16"/>
+      <c r="M56" s="16">
+        <f>SUM($L$3:L56)</f>
+        <v>112.5</v>
+      </c>
+      <c r="N56" s="16">
+        <f t="shared" si="1"/>
+        <v>303.5</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B57" s="33"/>
       <c r="C57" s="7">
         <v>13</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E57" s="22"/>
-      <c r="F57" s="1"/>
-      <c r="G57" s="31">
+      <c r="E57" s="23"/>
+      <c r="F57" s="1">
+        <v>51</v>
+      </c>
+      <c r="G57" s="24"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="16">
         <v>2</v>
       </c>
-    </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B58" s="27"/>
+      <c r="J57" s="16">
+        <f>SUM($I$3:I57)</f>
+        <v>178</v>
+      </c>
+      <c r="K57" s="16">
+        <f t="shared" si="0"/>
+        <v>238</v>
+      </c>
+      <c r="L57" s="16"/>
+      <c r="M57" s="16">
+        <f>SUM($L$3:L57)</f>
+        <v>112.5</v>
+      </c>
+      <c r="N57" s="16">
+        <f t="shared" si="1"/>
+        <v>303.5</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B58" s="33"/>
       <c r="C58" s="7">
         <v>14</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E58" s="12"/>
-      <c r="F58" s="1"/>
-      <c r="G58" s="31">
+      <c r="E58" s="24"/>
+      <c r="F58" s="1">
+        <v>52</v>
+      </c>
+      <c r="G58" s="12"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="16">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B59" s="27"/>
+      <c r="J58" s="16">
+        <f>SUM($I$3:I58)</f>
+        <v>178</v>
+      </c>
+      <c r="K58" s="16">
+        <f t="shared" si="0"/>
+        <v>238</v>
+      </c>
+      <c r="L58" s="16"/>
+      <c r="M58" s="16">
+        <f>SUM($L$3:L58)</f>
+        <v>112.5</v>
+      </c>
+      <c r="N58" s="16">
+        <f t="shared" si="1"/>
+        <v>303.5</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B59" s="33"/>
       <c r="C59" s="7">
         <v>15</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E59" s="20" t="s">
+      <c r="E59" s="22">
+        <v>9</v>
+      </c>
+      <c r="F59" s="1">
+        <v>53</v>
+      </c>
+      <c r="G59" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F59" s="1"/>
-      <c r="G59" s="31">
+      <c r="H59" s="1"/>
+      <c r="I59" s="16">
         <v>6</v>
       </c>
-    </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B60" s="27"/>
+      <c r="J59" s="16">
+        <f>SUM($I$3:I59)</f>
+        <v>184</v>
+      </c>
+      <c r="K59" s="16">
+        <f t="shared" si="0"/>
+        <v>232</v>
+      </c>
+      <c r="L59" s="16"/>
+      <c r="M59" s="16">
+        <f>SUM($L$3:L59)</f>
+        <v>112.5</v>
+      </c>
+      <c r="N59" s="16">
+        <f t="shared" si="1"/>
+        <v>303.5</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B60" s="33"/>
       <c r="C60" s="7">
         <v>16</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E60" s="21"/>
-      <c r="F60" s="1"/>
-      <c r="G60" s="31">
+      <c r="E60" s="23"/>
+      <c r="F60" s="1">
+        <v>54</v>
+      </c>
+      <c r="G60" s="23"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="16">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B61" s="27"/>
+      <c r="J60" s="16">
+        <f>SUM($I$3:I60)</f>
+        <v>188</v>
+      </c>
+      <c r="K60" s="16">
+        <f t="shared" si="0"/>
+        <v>228</v>
+      </c>
+      <c r="L60" s="16"/>
+      <c r="M60" s="16">
+        <f>SUM($L$3:L60)</f>
+        <v>112.5</v>
+      </c>
+      <c r="N60" s="16">
+        <f t="shared" si="1"/>
+        <v>303.5</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B61" s="33"/>
       <c r="C61" s="7">
         <v>17</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E61" s="21"/>
-      <c r="F61" s="1"/>
-      <c r="G61" s="31">
+      <c r="E61" s="23"/>
+      <c r="F61" s="1">
+        <v>55</v>
+      </c>
+      <c r="G61" s="23"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="16">
         <v>6</v>
       </c>
-    </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B62" s="27"/>
+      <c r="J61" s="16">
+        <f>SUM($I$3:I61)</f>
+        <v>194</v>
+      </c>
+      <c r="K61" s="16">
+        <f t="shared" si="0"/>
+        <v>222</v>
+      </c>
+      <c r="L61" s="16"/>
+      <c r="M61" s="16">
+        <f>SUM($L$3:L61)</f>
+        <v>112.5</v>
+      </c>
+      <c r="N61" s="16">
+        <f t="shared" si="1"/>
+        <v>303.5</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B62" s="33"/>
       <c r="C62" s="7">
         <v>18</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E62" s="21"/>
-      <c r="F62" s="1"/>
-      <c r="G62" s="31">
+      <c r="E62" s="23"/>
+      <c r="F62" s="1">
+        <v>56</v>
+      </c>
+      <c r="G62" s="23"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="16">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B63" s="27"/>
+      <c r="J62" s="16">
+        <f>SUM($I$3:I62)</f>
+        <v>194</v>
+      </c>
+      <c r="K62" s="16">
+        <f t="shared" si="0"/>
+        <v>222</v>
+      </c>
+      <c r="L62" s="16"/>
+      <c r="M62" s="16">
+        <f>SUM($L$3:L62)</f>
+        <v>112.5</v>
+      </c>
+      <c r="N62" s="16">
+        <f t="shared" si="1"/>
+        <v>303.5</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B63" s="33"/>
       <c r="C63" s="7">
         <v>19</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E63" s="21"/>
-      <c r="F63" s="1"/>
-      <c r="G63" s="31">
+      <c r="E63" s="23"/>
+      <c r="F63" s="1">
+        <v>57</v>
+      </c>
+      <c r="G63" s="23"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="16">
         <v>6</v>
       </c>
-    </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B64" s="27"/>
+      <c r="J63" s="16">
+        <f>SUM($I$3:I63)</f>
+        <v>200</v>
+      </c>
+      <c r="K63" s="16">
+        <f t="shared" si="0"/>
+        <v>216</v>
+      </c>
+      <c r="L63" s="16"/>
+      <c r="M63" s="16">
+        <f>SUM($L$3:L63)</f>
+        <v>112.5</v>
+      </c>
+      <c r="N63" s="16">
+        <f t="shared" si="1"/>
+        <v>303.5</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B64" s="33"/>
       <c r="C64" s="7">
         <v>20</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E64" s="22"/>
-      <c r="F64" s="1"/>
-      <c r="G64" s="31">
+      <c r="E64" s="23"/>
+      <c r="F64" s="1">
+        <v>58</v>
+      </c>
+      <c r="G64" s="24"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="16">
         <v>2</v>
       </c>
-    </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B65" s="27"/>
+      <c r="J64" s="16">
+        <f>SUM($I$3:I64)</f>
+        <v>202</v>
+      </c>
+      <c r="K64" s="16">
+        <f t="shared" si="0"/>
+        <v>214</v>
+      </c>
+      <c r="L64" s="16"/>
+      <c r="M64" s="16">
+        <f>SUM($L$3:L64)</f>
+        <v>112.5</v>
+      </c>
+      <c r="N64" s="16">
+        <f t="shared" si="1"/>
+        <v>303.5</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B65" s="33"/>
       <c r="C65" s="7">
         <v>21</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E65" s="12"/>
-      <c r="F65" s="1"/>
-      <c r="G65" s="31">
+      <c r="E65" s="24"/>
+      <c r="F65" s="1">
+        <v>59</v>
+      </c>
+      <c r="G65" s="12"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="16">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B66" s="27"/>
+      <c r="J65" s="16">
+        <f>SUM($I$3:I65)</f>
+        <v>202</v>
+      </c>
+      <c r="K65" s="16">
+        <f t="shared" si="0"/>
+        <v>214</v>
+      </c>
+      <c r="L65" s="16"/>
+      <c r="M65" s="16">
+        <f>SUM($L$3:L65)</f>
+        <v>112.5</v>
+      </c>
+      <c r="N65" s="16">
+        <f t="shared" si="1"/>
+        <v>303.5</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B66" s="33"/>
       <c r="C66" s="7">
         <v>22</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E66" s="20" t="s">
+      <c r="E66" s="22">
+        <v>10</v>
+      </c>
+      <c r="F66" s="1">
+        <v>60</v>
+      </c>
+      <c r="G66" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F66" s="1"/>
-      <c r="G66" s="31">
+      <c r="H66" s="1"/>
+      <c r="I66" s="16">
         <v>6</v>
       </c>
-    </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B67" s="27"/>
+      <c r="J66" s="16">
+        <f>SUM($I$3:I66)</f>
+        <v>208</v>
+      </c>
+      <c r="K66" s="16">
+        <f t="shared" si="0"/>
+        <v>208</v>
+      </c>
+      <c r="L66" s="16"/>
+      <c r="M66" s="16">
+        <f>SUM($L$3:L66)</f>
+        <v>112.5</v>
+      </c>
+      <c r="N66" s="16">
+        <f t="shared" si="1"/>
+        <v>303.5</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B67" s="33"/>
       <c r="C67" s="7">
         <v>23</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E67" s="21"/>
-      <c r="F67" s="1"/>
-      <c r="G67" s="31">
+      <c r="E67" s="23"/>
+      <c r="F67" s="1">
+        <v>61</v>
+      </c>
+      <c r="G67" s="23"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="16">
         <v>4</v>
       </c>
-    </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B68" s="27"/>
+      <c r="J67" s="16">
+        <f>SUM($I$3:I67)</f>
+        <v>212</v>
+      </c>
+      <c r="K67" s="16">
+        <f t="shared" si="0"/>
+        <v>204</v>
+      </c>
+      <c r="L67" s="16"/>
+      <c r="M67" s="16">
+        <f>SUM($L$3:L67)</f>
+        <v>112.5</v>
+      </c>
+      <c r="N67" s="16">
+        <f t="shared" si="1"/>
+        <v>303.5</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B68" s="33"/>
       <c r="C68" s="7">
         <v>24</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E68" s="21"/>
-      <c r="F68" s="1"/>
-      <c r="G68" s="31">
+      <c r="E68" s="23"/>
+      <c r="F68" s="1">
+        <v>62</v>
+      </c>
+      <c r="G68" s="23"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="16">
         <v>6</v>
       </c>
-    </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B69" s="27"/>
+      <c r="J68" s="16">
+        <f>SUM($I$3:I68)</f>
+        <v>218</v>
+      </c>
+      <c r="K68" s="16">
+        <f t="shared" ref="K68:K126" si="2">SUM($I$128-J68)</f>
+        <v>198</v>
+      </c>
+      <c r="L68" s="16"/>
+      <c r="M68" s="16">
+        <f>SUM($L$3:L68)</f>
+        <v>112.5</v>
+      </c>
+      <c r="N68" s="16">
+        <f t="shared" ref="N68:N126" si="3">SUM($I$128-M68)</f>
+        <v>303.5</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B69" s="33"/>
       <c r="C69" s="7">
         <v>25</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E69" s="21"/>
-      <c r="F69" s="1"/>
-      <c r="G69" s="31">
+      <c r="E69" s="23"/>
+      <c r="F69" s="1">
+        <v>63</v>
+      </c>
+      <c r="G69" s="23"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="16">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B70" s="27"/>
+      <c r="J69" s="16">
+        <f>SUM($I$3:I69)</f>
+        <v>218</v>
+      </c>
+      <c r="K69" s="16">
+        <f t="shared" si="2"/>
+        <v>198</v>
+      </c>
+      <c r="L69" s="16"/>
+      <c r="M69" s="16">
+        <f>SUM($L$3:L69)</f>
+        <v>112.5</v>
+      </c>
+      <c r="N69" s="16">
+        <f t="shared" si="3"/>
+        <v>303.5</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B70" s="33"/>
       <c r="C70" s="7">
         <v>26</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E70" s="21"/>
-      <c r="F70" s="1"/>
-      <c r="G70" s="31">
+      <c r="E70" s="23"/>
+      <c r="F70" s="1">
+        <v>64</v>
+      </c>
+      <c r="G70" s="23"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="16">
         <v>6</v>
       </c>
-    </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B71" s="27"/>
+      <c r="J70" s="16">
+        <f>SUM($I$3:I70)</f>
+        <v>224</v>
+      </c>
+      <c r="K70" s="16">
+        <f t="shared" si="2"/>
+        <v>192</v>
+      </c>
+      <c r="L70" s="16"/>
+      <c r="M70" s="16">
+        <f>SUM($L$3:L70)</f>
+        <v>112.5</v>
+      </c>
+      <c r="N70" s="16">
+        <f t="shared" si="3"/>
+        <v>303.5</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B71" s="33"/>
       <c r="C71" s="7">
         <v>27</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E71" s="22"/>
-      <c r="F71" s="1"/>
-      <c r="G71" s="31">
+      <c r="E71" s="23"/>
+      <c r="F71" s="1">
+        <v>65</v>
+      </c>
+      <c r="G71" s="24"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="16">
         <v>2</v>
       </c>
-    </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B72" s="27"/>
+      <c r="J71" s="16">
+        <f>SUM($I$3:I71)</f>
+        <v>226</v>
+      </c>
+      <c r="K71" s="16">
+        <f t="shared" si="2"/>
+        <v>190</v>
+      </c>
+      <c r="L71" s="16"/>
+      <c r="M71" s="16">
+        <f>SUM($L$3:L71)</f>
+        <v>112.5</v>
+      </c>
+      <c r="N71" s="16">
+        <f t="shared" si="3"/>
+        <v>303.5</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B72" s="33"/>
       <c r="C72" s="7">
         <v>28</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E72" s="12"/>
-      <c r="F72" s="1"/>
-      <c r="G72" s="31">
+      <c r="E72" s="24"/>
+      <c r="F72" s="1">
+        <v>66</v>
+      </c>
+      <c r="G72" s="12"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="16">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B73" s="27"/>
+      <c r="J72" s="16">
+        <f>SUM($I$3:I72)</f>
+        <v>226</v>
+      </c>
+      <c r="K72" s="16">
+        <f t="shared" si="2"/>
+        <v>190</v>
+      </c>
+      <c r="L72" s="16"/>
+      <c r="M72" s="16">
+        <f>SUM($L$3:L72)</f>
+        <v>112.5</v>
+      </c>
+      <c r="N72" s="16">
+        <f t="shared" si="3"/>
+        <v>303.5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B73" s="33"/>
       <c r="C73" s="7">
         <v>29</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E73" s="20" t="s">
+      <c r="E73" s="22">
+        <v>11</v>
+      </c>
+      <c r="F73" s="1">
+        <v>67</v>
+      </c>
+      <c r="G73" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="F73" s="1"/>
-      <c r="G73" s="31">
+      <c r="H73" s="1"/>
+      <c r="I73" s="16">
         <v>6</v>
       </c>
-    </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B74" s="27"/>
+      <c r="J73" s="16">
+        <f>SUM($I$3:I73)</f>
+        <v>232</v>
+      </c>
+      <c r="K73" s="16">
+        <f t="shared" si="2"/>
+        <v>184</v>
+      </c>
+      <c r="L73" s="16"/>
+      <c r="M73" s="16">
+        <f>SUM($L$3:L73)</f>
+        <v>112.5</v>
+      </c>
+      <c r="N73" s="16">
+        <f t="shared" si="3"/>
+        <v>303.5</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B74" s="33"/>
       <c r="C74" s="7">
         <v>30</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E74" s="21"/>
-      <c r="F74" s="1"/>
-      <c r="G74" s="31">
+      <c r="E74" s="23"/>
+      <c r="F74" s="1">
+        <v>68</v>
+      </c>
+      <c r="G74" s="23"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="16">
         <v>4</v>
       </c>
-    </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B75" s="28"/>
+      <c r="J74" s="16">
+        <f>SUM($I$3:I74)</f>
+        <v>236</v>
+      </c>
+      <c r="K74" s="16">
+        <f t="shared" si="2"/>
+        <v>180</v>
+      </c>
+      <c r="L74" s="16"/>
+      <c r="M74" s="16">
+        <f>SUM($L$3:L74)</f>
+        <v>112.5</v>
+      </c>
+      <c r="N74" s="16">
+        <f t="shared" si="3"/>
+        <v>303.5</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B75" s="34"/>
       <c r="C75" s="8">
         <v>31</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E75" s="21"/>
-      <c r="F75" s="1"/>
-      <c r="G75" s="31">
+      <c r="E75" s="23"/>
+      <c r="F75" s="1">
+        <v>69</v>
+      </c>
+      <c r="G75" s="23"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="16">
         <v>6</v>
       </c>
-    </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B76" s="26" t="s">
+      <c r="J75" s="16">
+        <f>SUM($I$3:I75)</f>
+        <v>242</v>
+      </c>
+      <c r="K75" s="16">
+        <f t="shared" si="2"/>
+        <v>174</v>
+      </c>
+      <c r="L75" s="16"/>
+      <c r="M75" s="16">
+        <f>SUM($L$3:L75)</f>
+        <v>112.5</v>
+      </c>
+      <c r="N75" s="16">
+        <f t="shared" si="3"/>
+        <v>303.5</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B76" s="32" t="s">
         <v>7</v>
       </c>
       <c r="C76" s="8">
@@ -1742,428 +5142,1066 @@
       <c r="D76" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E76" s="21"/>
-      <c r="F76" s="1"/>
-      <c r="G76" s="31">
+      <c r="E76" s="23"/>
+      <c r="F76" s="1">
+        <v>70</v>
+      </c>
+      <c r="G76" s="23"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="16">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B77" s="27"/>
+      <c r="J76" s="16">
+        <f>SUM($I$3:I76)</f>
+        <v>242</v>
+      </c>
+      <c r="K76" s="16">
+        <f t="shared" si="2"/>
+        <v>174</v>
+      </c>
+      <c r="L76" s="16"/>
+      <c r="M76" s="16">
+        <f>SUM($L$3:L76)</f>
+        <v>112.5</v>
+      </c>
+      <c r="N76" s="16">
+        <f t="shared" si="3"/>
+        <v>303.5</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B77" s="33"/>
       <c r="C77" s="8">
         <v>2</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E77" s="21"/>
-      <c r="F77" s="1"/>
-      <c r="G77" s="31">
+      <c r="E77" s="23"/>
+      <c r="F77" s="1">
+        <v>71</v>
+      </c>
+      <c r="G77" s="23"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="16">
         <v>6</v>
       </c>
-    </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B78" s="27"/>
+      <c r="J77" s="16">
+        <f>SUM($I$3:I77)</f>
+        <v>248</v>
+      </c>
+      <c r="K77" s="16">
+        <f t="shared" si="2"/>
+        <v>168</v>
+      </c>
+      <c r="L77" s="16"/>
+      <c r="M77" s="16">
+        <f>SUM($L$3:L77)</f>
+        <v>112.5</v>
+      </c>
+      <c r="N77" s="16">
+        <f t="shared" si="3"/>
+        <v>303.5</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B78" s="33"/>
       <c r="C78" s="8">
         <v>3</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E78" s="22"/>
-      <c r="F78" s="1"/>
-      <c r="G78" s="31">
+      <c r="E78" s="23"/>
+      <c r="F78" s="1">
+        <v>72</v>
+      </c>
+      <c r="G78" s="24"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="16">
         <v>2</v>
       </c>
-    </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B79" s="27"/>
+      <c r="J78" s="16">
+        <f>SUM($I$3:I78)</f>
+        <v>250</v>
+      </c>
+      <c r="K78" s="16">
+        <f t="shared" si="2"/>
+        <v>166</v>
+      </c>
+      <c r="L78" s="16"/>
+      <c r="M78" s="16">
+        <f>SUM($L$3:L78)</f>
+        <v>112.5</v>
+      </c>
+      <c r="N78" s="16">
+        <f t="shared" si="3"/>
+        <v>303.5</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B79" s="33"/>
       <c r="C79" s="8">
         <v>4</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E79" s="12"/>
-      <c r="F79" s="1"/>
-      <c r="G79" s="31">
+      <c r="E79" s="24"/>
+      <c r="F79" s="1">
+        <v>73</v>
+      </c>
+      <c r="G79" s="12"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="16">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B80" s="27"/>
+      <c r="J79" s="16">
+        <f>SUM($I$3:I79)</f>
+        <v>250</v>
+      </c>
+      <c r="K79" s="16">
+        <f t="shared" si="2"/>
+        <v>166</v>
+      </c>
+      <c r="L79" s="16"/>
+      <c r="M79" s="16">
+        <f>SUM($L$3:L79)</f>
+        <v>112.5</v>
+      </c>
+      <c r="N79" s="16">
+        <f t="shared" si="3"/>
+        <v>303.5</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B80" s="33"/>
       <c r="C80" s="8">
         <v>5</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E80" s="20" t="s">
+      <c r="E80" s="22">
+        <v>12</v>
+      </c>
+      <c r="F80" s="1">
+        <v>74</v>
+      </c>
+      <c r="G80" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="F80" s="1"/>
-      <c r="G80" s="31">
+      <c r="H80" s="1"/>
+      <c r="I80" s="16">
         <v>6</v>
       </c>
-    </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B81" s="27"/>
+      <c r="J80" s="16">
+        <f>SUM($I$3:I80)</f>
+        <v>256</v>
+      </c>
+      <c r="K80" s="16">
+        <f t="shared" si="2"/>
+        <v>160</v>
+      </c>
+      <c r="L80" s="16"/>
+      <c r="M80" s="16">
+        <f>SUM($L$3:L80)</f>
+        <v>112.5</v>
+      </c>
+      <c r="N80" s="16">
+        <f t="shared" si="3"/>
+        <v>303.5</v>
+      </c>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B81" s="33"/>
       <c r="C81" s="8">
         <v>6</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E81" s="21"/>
-      <c r="F81" s="1"/>
-      <c r="G81" s="31">
+      <c r="E81" s="23"/>
+      <c r="F81" s="1">
+        <v>75</v>
+      </c>
+      <c r="G81" s="23"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="16">
         <v>4</v>
       </c>
-    </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B82" s="27"/>
+      <c r="J81" s="16">
+        <f>SUM($I$3:I81)</f>
+        <v>260</v>
+      </c>
+      <c r="K81" s="16">
+        <f t="shared" si="2"/>
+        <v>156</v>
+      </c>
+      <c r="L81" s="16"/>
+      <c r="M81" s="16">
+        <f>SUM($L$3:L81)</f>
+        <v>112.5</v>
+      </c>
+      <c r="N81" s="16">
+        <f t="shared" si="3"/>
+        <v>303.5</v>
+      </c>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B82" s="33"/>
       <c r="C82" s="8">
         <v>7</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E82" s="21"/>
-      <c r="F82" s="1"/>
-      <c r="G82" s="31">
+      <c r="E82" s="23"/>
+      <c r="F82" s="1">
+        <v>76</v>
+      </c>
+      <c r="G82" s="23"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="16">
         <v>6</v>
       </c>
-    </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B83" s="27"/>
+      <c r="J82" s="16">
+        <f>SUM($I$3:I82)</f>
+        <v>266</v>
+      </c>
+      <c r="K82" s="16">
+        <f t="shared" si="2"/>
+        <v>150</v>
+      </c>
+      <c r="L82" s="16"/>
+      <c r="M82" s="16">
+        <f>SUM($L$3:L82)</f>
+        <v>112.5</v>
+      </c>
+      <c r="N82" s="16">
+        <f t="shared" si="3"/>
+        <v>303.5</v>
+      </c>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B83" s="33"/>
       <c r="C83" s="8">
         <v>8</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E83" s="21"/>
-      <c r="F83" s="1"/>
-      <c r="G83" s="31">
+      <c r="E83" s="23"/>
+      <c r="F83" s="1">
+        <v>77</v>
+      </c>
+      <c r="G83" s="23"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="16">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B84" s="27"/>
+      <c r="J83" s="16">
+        <f>SUM($I$3:I83)</f>
+        <v>266</v>
+      </c>
+      <c r="K83" s="16">
+        <f t="shared" si="2"/>
+        <v>150</v>
+      </c>
+      <c r="L83" s="16"/>
+      <c r="M83" s="16">
+        <f>SUM($L$3:L83)</f>
+        <v>112.5</v>
+      </c>
+      <c r="N83" s="16">
+        <f t="shared" si="3"/>
+        <v>303.5</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B84" s="33"/>
       <c r="C84" s="8">
         <v>9</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E84" s="21"/>
-      <c r="F84" s="1"/>
-      <c r="G84" s="31">
+      <c r="E84" s="23"/>
+      <c r="F84" s="1">
+        <v>78</v>
+      </c>
+      <c r="G84" s="23"/>
+      <c r="H84" s="1"/>
+      <c r="I84" s="16">
         <v>6</v>
       </c>
-    </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B85" s="27"/>
+      <c r="J84" s="16">
+        <f>SUM($I$3:I84)</f>
+        <v>272</v>
+      </c>
+      <c r="K84" s="16">
+        <f t="shared" si="2"/>
+        <v>144</v>
+      </c>
+      <c r="L84" s="16"/>
+      <c r="M84" s="16">
+        <f>SUM($L$3:L84)</f>
+        <v>112.5</v>
+      </c>
+      <c r="N84" s="16">
+        <f t="shared" si="3"/>
+        <v>303.5</v>
+      </c>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B85" s="33"/>
       <c r="C85" s="8">
         <v>10</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E85" s="22"/>
-      <c r="F85" s="1"/>
-      <c r="G85" s="31">
+      <c r="E85" s="23"/>
+      <c r="F85" s="1">
+        <v>79</v>
+      </c>
+      <c r="G85" s="24"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="16">
         <v>2</v>
       </c>
-    </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B86" s="27"/>
+      <c r="J85" s="16">
+        <f>SUM($I$3:I85)</f>
+        <v>274</v>
+      </c>
+      <c r="K85" s="16">
+        <f t="shared" si="2"/>
+        <v>142</v>
+      </c>
+      <c r="L85" s="16"/>
+      <c r="M85" s="16">
+        <f>SUM($L$3:L85)</f>
+        <v>112.5</v>
+      </c>
+      <c r="N85" s="16">
+        <f t="shared" si="3"/>
+        <v>303.5</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B86" s="33"/>
       <c r="C86" s="8">
         <v>11</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E86" s="12"/>
-      <c r="F86" s="1"/>
-      <c r="G86" s="31">
+      <c r="E86" s="24"/>
+      <c r="F86" s="1">
+        <v>80</v>
+      </c>
+      <c r="G86" s="12"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="16">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B87" s="27"/>
+      <c r="J86" s="16">
+        <f>SUM($I$3:I86)</f>
+        <v>274</v>
+      </c>
+      <c r="K86" s="16">
+        <f t="shared" si="2"/>
+        <v>142</v>
+      </c>
+      <c r="L86" s="16"/>
+      <c r="M86" s="16">
+        <f>SUM($L$3:L86)</f>
+        <v>112.5</v>
+      </c>
+      <c r="N86" s="16">
+        <f t="shared" si="3"/>
+        <v>303.5</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B87" s="33"/>
       <c r="C87" s="8">
         <v>12</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E87" s="17" t="s">
+      <c r="E87" s="22">
+        <v>13</v>
+      </c>
+      <c r="F87" s="1">
+        <v>81</v>
+      </c>
+      <c r="G87" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="F87" s="1"/>
-      <c r="G87" s="31">
+      <c r="H87" s="1"/>
+      <c r="I87" s="16">
         <v>6</v>
       </c>
-    </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B88" s="27"/>
+      <c r="J87" s="16">
+        <f>SUM($I$3:I87)</f>
+        <v>280</v>
+      </c>
+      <c r="K87" s="16">
+        <f t="shared" si="2"/>
+        <v>136</v>
+      </c>
+      <c r="L87" s="16"/>
+      <c r="M87" s="16">
+        <f>SUM($L$3:L87)</f>
+        <v>112.5</v>
+      </c>
+      <c r="N87" s="16">
+        <f t="shared" si="3"/>
+        <v>303.5</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B88" s="33"/>
       <c r="C88" s="8">
         <v>13</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E88" s="18"/>
-      <c r="F88" s="1"/>
-      <c r="G88" s="31">
+      <c r="E88" s="23"/>
+      <c r="F88" s="1">
+        <v>82</v>
+      </c>
+      <c r="G88" s="30"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="16">
         <v>4</v>
       </c>
-    </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B89" s="27"/>
+      <c r="J88" s="16">
+        <f>SUM($I$3:I88)</f>
+        <v>284</v>
+      </c>
+      <c r="K88" s="16">
+        <f t="shared" si="2"/>
+        <v>132</v>
+      </c>
+      <c r="L88" s="16"/>
+      <c r="M88" s="16">
+        <f>SUM($L$3:L88)</f>
+        <v>112.5</v>
+      </c>
+      <c r="N88" s="16">
+        <f t="shared" si="3"/>
+        <v>303.5</v>
+      </c>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B89" s="33"/>
       <c r="C89" s="8">
         <v>14</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E89" s="18"/>
-      <c r="F89" s="1"/>
-      <c r="G89" s="31">
+      <c r="E89" s="23"/>
+      <c r="F89" s="1">
+        <v>83</v>
+      </c>
+      <c r="G89" s="30"/>
+      <c r="H89" s="1"/>
+      <c r="I89" s="16">
         <v>6</v>
       </c>
-    </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B90" s="27"/>
+      <c r="J89" s="16">
+        <f>SUM($I$3:I89)</f>
+        <v>290</v>
+      </c>
+      <c r="K89" s="16">
+        <f t="shared" si="2"/>
+        <v>126</v>
+      </c>
+      <c r="L89" s="16"/>
+      <c r="M89" s="16">
+        <f>SUM($L$3:L89)</f>
+        <v>112.5</v>
+      </c>
+      <c r="N89" s="16">
+        <f t="shared" si="3"/>
+        <v>303.5</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B90" s="33"/>
       <c r="C90" s="8">
         <v>15</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E90" s="18"/>
-      <c r="F90" s="1"/>
-      <c r="G90" s="31">
+      <c r="E90" s="23"/>
+      <c r="F90" s="1">
+        <v>84</v>
+      </c>
+      <c r="G90" s="30"/>
+      <c r="H90" s="1"/>
+      <c r="I90" s="16">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B91" s="27"/>
+      <c r="J90" s="16">
+        <f>SUM($I$3:I90)</f>
+        <v>290</v>
+      </c>
+      <c r="K90" s="16">
+        <f t="shared" si="2"/>
+        <v>126</v>
+      </c>
+      <c r="L90" s="16"/>
+      <c r="M90" s="16">
+        <f>SUM($L$3:L90)</f>
+        <v>112.5</v>
+      </c>
+      <c r="N90" s="16">
+        <f t="shared" si="3"/>
+        <v>303.5</v>
+      </c>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B91" s="33"/>
       <c r="C91" s="8">
         <v>16</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E91" s="18"/>
-      <c r="F91" s="1"/>
-      <c r="G91" s="31">
+      <c r="E91" s="23"/>
+      <c r="F91" s="1">
+        <v>85</v>
+      </c>
+      <c r="G91" s="30"/>
+      <c r="H91" s="1"/>
+      <c r="I91" s="16">
         <v>6</v>
       </c>
-    </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B92" s="27"/>
+      <c r="J91" s="16">
+        <f>SUM($I$3:I91)</f>
+        <v>296</v>
+      </c>
+      <c r="K91" s="16">
+        <f t="shared" si="2"/>
+        <v>120</v>
+      </c>
+      <c r="L91" s="16"/>
+      <c r="M91" s="16">
+        <f>SUM($L$3:L91)</f>
+        <v>112.5</v>
+      </c>
+      <c r="N91" s="16">
+        <f t="shared" si="3"/>
+        <v>303.5</v>
+      </c>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B92" s="33"/>
       <c r="C92" s="8">
         <v>17</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E92" s="19"/>
-      <c r="F92" s="1"/>
-      <c r="G92" s="31">
+      <c r="E92" s="23"/>
+      <c r="F92" s="1">
+        <v>86</v>
+      </c>
+      <c r="G92" s="31"/>
+      <c r="H92" s="1"/>
+      <c r="I92" s="16">
         <v>2</v>
       </c>
-    </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B93" s="27"/>
+      <c r="J92" s="16">
+        <f>SUM($I$3:I92)</f>
+        <v>298</v>
+      </c>
+      <c r="K92" s="16">
+        <f t="shared" si="2"/>
+        <v>118</v>
+      </c>
+      <c r="L92" s="16"/>
+      <c r="M92" s="16">
+        <f>SUM($L$3:L92)</f>
+        <v>112.5</v>
+      </c>
+      <c r="N92" s="16">
+        <f t="shared" si="3"/>
+        <v>303.5</v>
+      </c>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B93" s="33"/>
       <c r="C93" s="8">
         <v>18</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E93" s="12"/>
-      <c r="F93" s="1"/>
-      <c r="G93" s="31">
+      <c r="E93" s="24"/>
+      <c r="F93" s="1">
+        <v>87</v>
+      </c>
+      <c r="G93" s="12"/>
+      <c r="H93" s="1"/>
+      <c r="I93" s="16">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B94" s="27"/>
+      <c r="J93" s="16">
+        <f>SUM($I$3:I93)</f>
+        <v>298</v>
+      </c>
+      <c r="K93" s="16">
+        <f t="shared" si="2"/>
+        <v>118</v>
+      </c>
+      <c r="L93" s="16"/>
+      <c r="M93" s="16">
+        <f>SUM($L$3:L93)</f>
+        <v>112.5</v>
+      </c>
+      <c r="N93" s="16">
+        <f t="shared" si="3"/>
+        <v>303.5</v>
+      </c>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B94" s="33"/>
       <c r="C94" s="8">
         <v>19</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E94" s="17" t="s">
+      <c r="E94" s="22">
+        <v>14</v>
+      </c>
+      <c r="F94" s="1">
+        <v>88</v>
+      </c>
+      <c r="G94" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="F94" s="1"/>
-      <c r="G94" s="31">
+      <c r="H94" s="1"/>
+      <c r="I94" s="16">
         <v>6</v>
       </c>
-    </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B95" s="27"/>
+      <c r="J94" s="16">
+        <f>SUM($I$3:I94)</f>
+        <v>304</v>
+      </c>
+      <c r="K94" s="16">
+        <f t="shared" si="2"/>
+        <v>112</v>
+      </c>
+      <c r="L94" s="16"/>
+      <c r="M94" s="16">
+        <f>SUM($L$3:L94)</f>
+        <v>112.5</v>
+      </c>
+      <c r="N94" s="16">
+        <f t="shared" si="3"/>
+        <v>303.5</v>
+      </c>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B95" s="33"/>
       <c r="C95" s="8">
         <v>20</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E95" s="18"/>
-      <c r="F95" s="1"/>
-      <c r="G95" s="31">
+      <c r="E95" s="23"/>
+      <c r="F95" s="1">
+        <v>89</v>
+      </c>
+      <c r="G95" s="30"/>
+      <c r="H95" s="1"/>
+      <c r="I95" s="16">
         <v>4</v>
       </c>
-    </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B96" s="27"/>
+      <c r="J95" s="16">
+        <f>SUM($I$3:I95)</f>
+        <v>308</v>
+      </c>
+      <c r="K95" s="16">
+        <f t="shared" si="2"/>
+        <v>108</v>
+      </c>
+      <c r="L95" s="16"/>
+      <c r="M95" s="16">
+        <f>SUM($L$3:L95)</f>
+        <v>112.5</v>
+      </c>
+      <c r="N95" s="16">
+        <f t="shared" si="3"/>
+        <v>303.5</v>
+      </c>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B96" s="33"/>
       <c r="C96" s="8">
         <v>21</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E96" s="18"/>
-      <c r="F96" s="1"/>
-      <c r="G96" s="31">
+      <c r="E96" s="23"/>
+      <c r="F96" s="1">
+        <v>90</v>
+      </c>
+      <c r="G96" s="30"/>
+      <c r="H96" s="1"/>
+      <c r="I96" s="16">
         <v>6</v>
       </c>
-    </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B97" s="27"/>
+      <c r="J96" s="16">
+        <f>SUM($I$3:I96)</f>
+        <v>314</v>
+      </c>
+      <c r="K96" s="16">
+        <f t="shared" si="2"/>
+        <v>102</v>
+      </c>
+      <c r="L96" s="16"/>
+      <c r="M96" s="16">
+        <f>SUM($L$3:L96)</f>
+        <v>112.5</v>
+      </c>
+      <c r="N96" s="16">
+        <f t="shared" si="3"/>
+        <v>303.5</v>
+      </c>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B97" s="33"/>
       <c r="C97" s="8">
         <v>22</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E97" s="18"/>
-      <c r="F97" s="1"/>
-      <c r="G97" s="31">
+      <c r="E97" s="23"/>
+      <c r="F97" s="1">
+        <v>91</v>
+      </c>
+      <c r="G97" s="30"/>
+      <c r="H97" s="1"/>
+      <c r="I97" s="16">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B98" s="27"/>
+      <c r="J97" s="16">
+        <f>SUM($I$3:I97)</f>
+        <v>314</v>
+      </c>
+      <c r="K97" s="16">
+        <f t="shared" si="2"/>
+        <v>102</v>
+      </c>
+      <c r="L97" s="16"/>
+      <c r="M97" s="16">
+        <f>SUM($L$3:L97)</f>
+        <v>112.5</v>
+      </c>
+      <c r="N97" s="16">
+        <f t="shared" si="3"/>
+        <v>303.5</v>
+      </c>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B98" s="33"/>
       <c r="C98" s="8">
         <v>23</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E98" s="18"/>
-      <c r="F98" s="1"/>
-      <c r="G98" s="31">
+      <c r="E98" s="23"/>
+      <c r="F98" s="1">
+        <v>92</v>
+      </c>
+      <c r="G98" s="30"/>
+      <c r="H98" s="1"/>
+      <c r="I98" s="16">
         <v>6</v>
       </c>
-    </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B99" s="27"/>
+      <c r="J98" s="16">
+        <f>SUM($I$3:I98)</f>
+        <v>320</v>
+      </c>
+      <c r="K98" s="16">
+        <f t="shared" si="2"/>
+        <v>96</v>
+      </c>
+      <c r="L98" s="16"/>
+      <c r="M98" s="16">
+        <f>SUM($L$3:L98)</f>
+        <v>112.5</v>
+      </c>
+      <c r="N98" s="16">
+        <f t="shared" si="3"/>
+        <v>303.5</v>
+      </c>
+    </row>
+    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B99" s="33"/>
       <c r="C99" s="8">
         <v>24</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E99" s="19"/>
-      <c r="F99" s="1"/>
-      <c r="G99" s="31">
+      <c r="E99" s="23"/>
+      <c r="F99" s="1">
+        <v>93</v>
+      </c>
+      <c r="G99" s="31"/>
+      <c r="H99" s="1"/>
+      <c r="I99" s="16">
         <v>2</v>
       </c>
-    </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B100" s="27"/>
+      <c r="J99" s="16">
+        <f>SUM($I$3:I99)</f>
+        <v>322</v>
+      </c>
+      <c r="K99" s="16">
+        <f t="shared" si="2"/>
+        <v>94</v>
+      </c>
+      <c r="L99" s="16"/>
+      <c r="M99" s="16">
+        <f>SUM($L$3:L99)</f>
+        <v>112.5</v>
+      </c>
+      <c r="N99" s="16">
+        <f t="shared" si="3"/>
+        <v>303.5</v>
+      </c>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B100" s="33"/>
       <c r="C100" s="8">
         <v>25</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E100" s="12"/>
-      <c r="F100" s="1"/>
-      <c r="G100" s="31">
+      <c r="E100" s="24"/>
+      <c r="F100" s="1">
+        <v>94</v>
+      </c>
+      <c r="G100" s="12"/>
+      <c r="H100" s="1"/>
+      <c r="I100" s="16">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B101" s="27"/>
+      <c r="J100" s="16">
+        <f>SUM($I$3:I100)</f>
+        <v>322</v>
+      </c>
+      <c r="K100" s="16">
+        <f t="shared" si="2"/>
+        <v>94</v>
+      </c>
+      <c r="L100" s="16"/>
+      <c r="M100" s="16">
+        <f>SUM($L$3:L100)</f>
+        <v>112.5</v>
+      </c>
+      <c r="N100" s="16">
+        <f t="shared" si="3"/>
+        <v>303.5</v>
+      </c>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B101" s="33"/>
       <c r="C101" s="8">
         <v>26</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E101" s="20" t="s">
+      <c r="E101" s="22">
+        <v>15</v>
+      </c>
+      <c r="F101" s="1">
+        <v>95</v>
+      </c>
+      <c r="G101" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="F101" s="1"/>
-      <c r="G101" s="31">
+      <c r="H101" s="1"/>
+      <c r="I101" s="16">
         <v>6</v>
       </c>
-    </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B102" s="27"/>
+      <c r="J101" s="16">
+        <f>SUM($I$3:I101)</f>
+        <v>328</v>
+      </c>
+      <c r="K101" s="16">
+        <f t="shared" si="2"/>
+        <v>88</v>
+      </c>
+      <c r="L101" s="16"/>
+      <c r="M101" s="16">
+        <f>SUM($L$3:L101)</f>
+        <v>112.5</v>
+      </c>
+      <c r="N101" s="16">
+        <f t="shared" si="3"/>
+        <v>303.5</v>
+      </c>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B102" s="33"/>
       <c r="C102" s="8">
         <v>27</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E102" s="21"/>
-      <c r="F102" s="1"/>
-      <c r="G102" s="31">
+      <c r="E102" s="23"/>
+      <c r="F102" s="1">
+        <v>96</v>
+      </c>
+      <c r="G102" s="23"/>
+      <c r="H102" s="1"/>
+      <c r="I102" s="16">
         <v>4</v>
       </c>
-    </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B103" s="27"/>
+      <c r="J102" s="16">
+        <f>SUM($I$3:I102)</f>
+        <v>332</v>
+      </c>
+      <c r="K102" s="16">
+        <f t="shared" si="2"/>
+        <v>84</v>
+      </c>
+      <c r="L102" s="16"/>
+      <c r="M102" s="16">
+        <f>SUM($L$3:L102)</f>
+        <v>112.5</v>
+      </c>
+      <c r="N102" s="16">
+        <f t="shared" si="3"/>
+        <v>303.5</v>
+      </c>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B103" s="33"/>
       <c r="C103" s="8">
         <v>28</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E103" s="21"/>
-      <c r="F103" s="1"/>
-      <c r="G103" s="31">
+      <c r="E103" s="23"/>
+      <c r="F103" s="1">
+        <v>97</v>
+      </c>
+      <c r="G103" s="23"/>
+      <c r="H103" s="1"/>
+      <c r="I103" s="16">
         <v>6</v>
       </c>
-    </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B104" s="27"/>
+      <c r="J103" s="16">
+        <f>SUM($I$3:I103)</f>
+        <v>338</v>
+      </c>
+      <c r="K103" s="16">
+        <f t="shared" si="2"/>
+        <v>78</v>
+      </c>
+      <c r="L103" s="16"/>
+      <c r="M103" s="16">
+        <f>SUM($L$3:L103)</f>
+        <v>112.5</v>
+      </c>
+      <c r="N103" s="16">
+        <f t="shared" si="3"/>
+        <v>303.5</v>
+      </c>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B104" s="33"/>
       <c r="C104" s="8">
         <v>29</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E104" s="21"/>
-      <c r="F104" s="1"/>
-      <c r="G104" s="31">
+      <c r="E104" s="23"/>
+      <c r="F104" s="1">
+        <v>98</v>
+      </c>
+      <c r="G104" s="23"/>
+      <c r="H104" s="1"/>
+      <c r="I104" s="16">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B105" s="28"/>
+      <c r="J104" s="16">
+        <f>SUM($I$3:I104)</f>
+        <v>338</v>
+      </c>
+      <c r="K104" s="16">
+        <f t="shared" si="2"/>
+        <v>78</v>
+      </c>
+      <c r="L104" s="16"/>
+      <c r="M104" s="16">
+        <f>SUM($L$3:L104)</f>
+        <v>112.5</v>
+      </c>
+      <c r="N104" s="16">
+        <f t="shared" si="3"/>
+        <v>303.5</v>
+      </c>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B105" s="34"/>
       <c r="C105" s="8">
         <v>30</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E105" s="21"/>
-      <c r="F105" s="1"/>
-      <c r="G105" s="31">
+      <c r="E105" s="23"/>
+      <c r="F105" s="1">
+        <v>99</v>
+      </c>
+      <c r="G105" s="23"/>
+      <c r="H105" s="1"/>
+      <c r="I105" s="16">
         <v>6</v>
       </c>
-    </row>
-    <row r="106" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B106" s="16" t="s">
+      <c r="J105" s="16">
+        <f>SUM($I$3:I105)</f>
+        <v>344</v>
+      </c>
+      <c r="K105" s="16">
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="L105" s="16"/>
+      <c r="M105" s="16">
+        <f>SUM($L$3:L105)</f>
+        <v>112.5</v>
+      </c>
+      <c r="N105" s="16">
+        <f t="shared" si="3"/>
+        <v>303.5</v>
+      </c>
+    </row>
+    <row r="106" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B106" s="28" t="s">
         <v>6</v>
       </c>
       <c r="C106" s="8">
@@ -2172,332 +6210,806 @@
       <c r="D106" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E106" s="22"/>
-      <c r="F106" s="1"/>
-      <c r="G106" s="31">
+      <c r="E106" s="23"/>
+      <c r="F106" s="1">
+        <v>100</v>
+      </c>
+      <c r="G106" s="24"/>
+      <c r="H106" s="1"/>
+      <c r="I106" s="16">
         <v>4</v>
       </c>
-    </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B107" s="16"/>
+      <c r="J106" s="16">
+        <f>SUM($I$3:I106)</f>
+        <v>348</v>
+      </c>
+      <c r="K106" s="16">
+        <f t="shared" si="2"/>
+        <v>68</v>
+      </c>
+      <c r="L106" s="16"/>
+      <c r="M106" s="16">
+        <f>SUM($L$3:L106)</f>
+        <v>112.5</v>
+      </c>
+      <c r="N106" s="16">
+        <f t="shared" si="3"/>
+        <v>303.5</v>
+      </c>
+    </row>
+    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B107" s="28"/>
       <c r="C107" s="8">
         <v>2</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E107" s="12"/>
-      <c r="F107" s="1"/>
-      <c r="G107" s="31">
+      <c r="E107" s="24"/>
+      <c r="F107" s="1">
+        <v>101</v>
+      </c>
+      <c r="G107" s="12"/>
+      <c r="H107" s="1"/>
+      <c r="I107" s="16">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B108" s="16"/>
+      <c r="J107" s="16">
+        <f>SUM($I$3:I107)</f>
+        <v>348</v>
+      </c>
+      <c r="K107" s="16">
+        <f t="shared" si="2"/>
+        <v>68</v>
+      </c>
+      <c r="L107" s="16"/>
+      <c r="M107" s="16">
+        <f>SUM($L$3:L107)</f>
+        <v>112.5</v>
+      </c>
+      <c r="N107" s="16">
+        <f t="shared" si="3"/>
+        <v>303.5</v>
+      </c>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B108" s="28"/>
       <c r="C108" s="8">
         <v>3</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E108" s="15" t="s">
+      <c r="E108" s="22">
+        <v>16</v>
+      </c>
+      <c r="F108" s="1">
+        <v>102</v>
+      </c>
+      <c r="G108" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="F108" s="1"/>
-      <c r="G108" s="31">
+      <c r="H108" s="1"/>
+      <c r="I108" s="16">
         <v>6</v>
       </c>
-    </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B109" s="16"/>
+      <c r="J108" s="16">
+        <f>SUM($I$3:I108)</f>
+        <v>354</v>
+      </c>
+      <c r="K108" s="16">
+        <f t="shared" si="2"/>
+        <v>62</v>
+      </c>
+      <c r="L108" s="16"/>
+      <c r="M108" s="16">
+        <f>SUM($L$3:L108)</f>
+        <v>112.5</v>
+      </c>
+      <c r="N108" s="16">
+        <f t="shared" si="3"/>
+        <v>303.5</v>
+      </c>
+    </row>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B109" s="28"/>
       <c r="C109" s="8">
         <v>4</v>
       </c>
       <c r="D109" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E109" s="15"/>
-      <c r="F109" s="1"/>
-      <c r="G109" s="31">
+      <c r="E109" s="23"/>
+      <c r="F109" s="1">
+        <v>103</v>
+      </c>
+      <c r="G109" s="27"/>
+      <c r="H109" s="1"/>
+      <c r="I109" s="16">
         <v>6</v>
       </c>
-    </row>
-    <row r="110" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B110" s="16"/>
+      <c r="J109" s="16">
+        <f>SUM($I$3:I109)</f>
+        <v>360</v>
+      </c>
+      <c r="K109" s="16">
+        <f t="shared" si="2"/>
+        <v>56</v>
+      </c>
+      <c r="L109" s="16"/>
+      <c r="M109" s="16">
+        <f>SUM($L$3:L109)</f>
+        <v>112.5</v>
+      </c>
+      <c r="N109" s="16">
+        <f t="shared" si="3"/>
+        <v>303.5</v>
+      </c>
+    </row>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B110" s="28"/>
       <c r="C110" s="8">
         <v>5</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E110" s="15"/>
-      <c r="F110" s="1"/>
-      <c r="G110" s="31">
+      <c r="E110" s="23"/>
+      <c r="F110" s="1">
+        <v>104</v>
+      </c>
+      <c r="G110" s="27"/>
+      <c r="H110" s="1"/>
+      <c r="I110" s="16">
         <v>6</v>
       </c>
-    </row>
-    <row r="111" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B111" s="16"/>
+      <c r="J110" s="16">
+        <f>SUM($I$3:I110)</f>
+        <v>366</v>
+      </c>
+      <c r="K110" s="16">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="L110" s="16"/>
+      <c r="M110" s="16">
+        <f>SUM($L$3:L110)</f>
+        <v>112.5</v>
+      </c>
+      <c r="N110" s="16">
+        <f t="shared" si="3"/>
+        <v>303.5</v>
+      </c>
+    </row>
+    <row r="111" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B111" s="28"/>
       <c r="C111" s="8">
         <v>6</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E111" s="15"/>
-      <c r="F111" s="1"/>
-      <c r="G111" s="31">
+      <c r="E111" s="23"/>
+      <c r="F111" s="1">
+        <v>105</v>
+      </c>
+      <c r="G111" s="27"/>
+      <c r="H111" s="1"/>
+      <c r="I111" s="16">
         <v>6</v>
       </c>
-    </row>
-    <row r="112" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B112" s="16"/>
+      <c r="J111" s="16">
+        <f>SUM($I$3:I111)</f>
+        <v>372</v>
+      </c>
+      <c r="K111" s="16">
+        <f t="shared" si="2"/>
+        <v>44</v>
+      </c>
+      <c r="L111" s="16"/>
+      <c r="M111" s="16">
+        <f>SUM($L$3:L111)</f>
+        <v>112.5</v>
+      </c>
+      <c r="N111" s="16">
+        <f t="shared" si="3"/>
+        <v>303.5</v>
+      </c>
+    </row>
+    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B112" s="28"/>
       <c r="C112" s="8">
         <v>7</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E112" s="15"/>
-      <c r="F112" s="1" t="s">
+      <c r="E112" s="23"/>
+      <c r="F112" s="1">
+        <v>106</v>
+      </c>
+      <c r="G112" s="27"/>
+      <c r="H112" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G112" s="31">
+      <c r="I112" s="16">
         <v>6</v>
       </c>
-    </row>
-    <row r="113" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B113" s="16"/>
+      <c r="J112" s="16">
+        <f>SUM($I$3:I112)</f>
+        <v>378</v>
+      </c>
+      <c r="K112" s="16">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="L112" s="16"/>
+      <c r="M112" s="16">
+        <f>SUM($L$3:L112)</f>
+        <v>112.5</v>
+      </c>
+      <c r="N112" s="16">
+        <f t="shared" si="3"/>
+        <v>303.5</v>
+      </c>
+    </row>
+    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B113" s="28"/>
       <c r="C113" s="8">
         <v>8</v>
       </c>
       <c r="D113" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E113" s="9" t="s">
+      <c r="E113" s="23"/>
+      <c r="F113" s="1">
+        <v>107</v>
+      </c>
+      <c r="G113" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F113" s="1"/>
-      <c r="G113" s="31">
+      <c r="H113" s="1"/>
+      <c r="I113" s="16">
         <v>4</v>
       </c>
-    </row>
-    <row r="114" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B114" s="16"/>
+      <c r="J113" s="16">
+        <f>SUM($I$3:I113)</f>
+        <v>382</v>
+      </c>
+      <c r="K113" s="16">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="L113" s="16"/>
+      <c r="M113" s="16">
+        <f>SUM($L$3:L113)</f>
+        <v>112.5</v>
+      </c>
+      <c r="N113" s="16">
+        <f t="shared" si="3"/>
+        <v>303.5</v>
+      </c>
+    </row>
+    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B114" s="28"/>
       <c r="C114" s="8">
         <v>9</v>
       </c>
       <c r="D114" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E114" s="12"/>
-      <c r="F114" s="1"/>
-      <c r="G114" s="31">
+      <c r="E114" s="24"/>
+      <c r="F114" s="1">
+        <v>108</v>
+      </c>
+      <c r="G114" s="12"/>
+      <c r="H114" s="1"/>
+      <c r="I114" s="16">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B115" s="16"/>
+      <c r="J114" s="16">
+        <f>SUM($I$3:I114)</f>
+        <v>382</v>
+      </c>
+      <c r="K114" s="16">
+        <f t="shared" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="L114" s="16"/>
+      <c r="M114" s="16">
+        <f>SUM($L$3:L114)</f>
+        <v>112.5</v>
+      </c>
+      <c r="N114" s="16">
+        <f t="shared" si="3"/>
+        <v>303.5</v>
+      </c>
+    </row>
+    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B115" s="28"/>
       <c r="C115" s="8">
         <v>10</v>
       </c>
       <c r="D115" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E115" s="20" t="s">
+      <c r="E115" s="22">
+        <v>17</v>
+      </c>
+      <c r="F115" s="1">
+        <v>109</v>
+      </c>
+      <c r="G115" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="F115" s="1"/>
-      <c r="G115" s="31">
+      <c r="H115" s="1"/>
+      <c r="I115" s="16">
         <v>6</v>
       </c>
-    </row>
-    <row r="116" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B116" s="16"/>
+      <c r="J115" s="16">
+        <f>SUM($I$3:I115)</f>
+        <v>388</v>
+      </c>
+      <c r="K115" s="16">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+      <c r="L115" s="16"/>
+      <c r="M115" s="16">
+        <f>SUM($L$3:L115)</f>
+        <v>112.5</v>
+      </c>
+      <c r="N115" s="16">
+        <f t="shared" si="3"/>
+        <v>303.5</v>
+      </c>
+    </row>
+    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B116" s="28"/>
       <c r="C116" s="8">
         <v>11</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E116" s="21"/>
-      <c r="F116" s="1"/>
-      <c r="G116" s="31">
+      <c r="E116" s="23"/>
+      <c r="F116" s="1">
+        <v>110</v>
+      </c>
+      <c r="G116" s="23"/>
+      <c r="H116" s="1"/>
+      <c r="I116" s="16">
         <v>6</v>
       </c>
-    </row>
-    <row r="117" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B117" s="16"/>
+      <c r="J116" s="16">
+        <f>SUM($I$3:I116)</f>
+        <v>394</v>
+      </c>
+      <c r="K116" s="16">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+      <c r="L116" s="16"/>
+      <c r="M116" s="16">
+        <f>SUM($L$3:L116)</f>
+        <v>112.5</v>
+      </c>
+      <c r="N116" s="16">
+        <f t="shared" si="3"/>
+        <v>303.5</v>
+      </c>
+    </row>
+    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B117" s="28"/>
       <c r="C117" s="8">
         <v>12</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E117" s="21"/>
-      <c r="F117" s="1"/>
-      <c r="G117" s="31">
+      <c r="E117" s="23"/>
+      <c r="F117" s="1">
+        <v>111</v>
+      </c>
+      <c r="G117" s="23"/>
+      <c r="H117" s="1"/>
+      <c r="I117" s="16">
         <v>6</v>
       </c>
-    </row>
-    <row r="118" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B118" s="16"/>
+      <c r="J117" s="16">
+        <f>SUM($I$3:I117)</f>
+        <v>400</v>
+      </c>
+      <c r="K117" s="16">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="L117" s="16"/>
+      <c r="M117" s="16">
+        <f>SUM($L$3:L117)</f>
+        <v>112.5</v>
+      </c>
+      <c r="N117" s="16">
+        <f t="shared" si="3"/>
+        <v>303.5</v>
+      </c>
+    </row>
+    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B118" s="28"/>
       <c r="C118" s="8">
         <v>13</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E118" s="21"/>
-      <c r="F118" s="1"/>
-      <c r="G118" s="31">
+      <c r="E118" s="23"/>
+      <c r="F118" s="1">
+        <v>112</v>
+      </c>
+      <c r="G118" s="23"/>
+      <c r="H118" s="1"/>
+      <c r="I118" s="16">
         <v>6</v>
       </c>
-    </row>
-    <row r="119" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B119" s="16"/>
+      <c r="J118" s="16">
+        <f>SUM($I$3:I118)</f>
+        <v>406</v>
+      </c>
+      <c r="K118" s="16">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="L118" s="16"/>
+      <c r="M118" s="16">
+        <f>SUM($L$3:L118)</f>
+        <v>112.5</v>
+      </c>
+      <c r="N118" s="16">
+        <f t="shared" si="3"/>
+        <v>303.5</v>
+      </c>
+    </row>
+    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B119" s="28"/>
       <c r="C119" s="8">
         <v>14</v>
       </c>
       <c r="D119" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E119" s="21"/>
-      <c r="F119" s="1"/>
-      <c r="G119" s="31">
+      <c r="E119" s="23"/>
+      <c r="F119" s="1">
+        <v>113</v>
+      </c>
+      <c r="G119" s="23"/>
+      <c r="H119" s="1"/>
+      <c r="I119" s="16">
         <v>6</v>
       </c>
-    </row>
-    <row r="120" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B120" s="16"/>
+      <c r="J119" s="16">
+        <f>SUM($I$3:I119)</f>
+        <v>412</v>
+      </c>
+      <c r="K119" s="16">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="L119" s="16"/>
+      <c r="M119" s="16">
+        <f>SUM($L$3:L119)</f>
+        <v>112.5</v>
+      </c>
+      <c r="N119" s="16">
+        <f t="shared" si="3"/>
+        <v>303.5</v>
+      </c>
+    </row>
+    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B120" s="28"/>
       <c r="C120" s="8">
         <v>15</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E120" s="22"/>
-      <c r="F120" s="1"/>
-      <c r="G120" s="31">
+      <c r="E120" s="23"/>
+      <c r="F120" s="1">
+        <v>114</v>
+      </c>
+      <c r="G120" s="24"/>
+      <c r="H120" s="1"/>
+      <c r="I120" s="16">
         <v>4</v>
       </c>
-    </row>
-    <row r="121" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B121" s="16"/>
+      <c r="J120" s="16">
+        <f>SUM($I$3:I120)</f>
+        <v>416</v>
+      </c>
+      <c r="K120" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L120" s="16"/>
+      <c r="M120" s="16">
+        <f>SUM($L$3:L120)</f>
+        <v>112.5</v>
+      </c>
+      <c r="N120" s="16">
+        <f t="shared" si="3"/>
+        <v>303.5</v>
+      </c>
+    </row>
+    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B121" s="28"/>
       <c r="C121" s="8">
         <v>16</v>
       </c>
       <c r="D121" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E121" s="12"/>
-      <c r="F121" s="1"/>
-      <c r="G121" s="31">
+      <c r="E121" s="24"/>
+      <c r="F121" s="1">
+        <v>115</v>
+      </c>
+      <c r="G121" s="12"/>
+      <c r="H121" s="1"/>
+      <c r="I121" s="16">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B122" s="16"/>
+      <c r="J121" s="16">
+        <f>SUM($I$3:I121)</f>
+        <v>416</v>
+      </c>
+      <c r="K121" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L121" s="16"/>
+      <c r="M121" s="16">
+        <f>SUM($L$3:L121)</f>
+        <v>112.5</v>
+      </c>
+      <c r="N121" s="16">
+        <f t="shared" si="3"/>
+        <v>303.5</v>
+      </c>
+    </row>
+    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B122" s="28"/>
       <c r="C122" s="8">
         <v>17</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E122" s="20" t="s">
+      <c r="E122" s="22">
+        <v>18</v>
+      </c>
+      <c r="F122" s="1">
+        <v>116</v>
+      </c>
+      <c r="G122" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="F122" s="17" t="s">
+      <c r="H122" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="G122" s="31"/>
-    </row>
-    <row r="123" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B123" s="16"/>
+      <c r="I122" s="16"/>
+      <c r="J122" s="16">
+        <f>SUM($I$3:I122)</f>
+        <v>416</v>
+      </c>
+      <c r="K122" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L122" s="16"/>
+      <c r="M122" s="16">
+        <f>SUM($L$3:L122)</f>
+        <v>112.5</v>
+      </c>
+      <c r="N122" s="16">
+        <f t="shared" si="3"/>
+        <v>303.5</v>
+      </c>
+    </row>
+    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B123" s="28"/>
       <c r="C123" s="8">
         <v>18</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E123" s="21"/>
-      <c r="F123" s="18"/>
-      <c r="G123" s="31"/>
-    </row>
-    <row r="124" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B124" s="16"/>
+      <c r="E123" s="23"/>
+      <c r="F123" s="1">
+        <v>117</v>
+      </c>
+      <c r="G123" s="23"/>
+      <c r="H123" s="30"/>
+      <c r="I123" s="16"/>
+      <c r="J123" s="16">
+        <f>SUM($I$3:I123)</f>
+        <v>416</v>
+      </c>
+      <c r="K123" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L123" s="16"/>
+      <c r="M123" s="16">
+        <f>SUM($L$3:L123)</f>
+        <v>112.5</v>
+      </c>
+      <c r="N123" s="16">
+        <f t="shared" si="3"/>
+        <v>303.5</v>
+      </c>
+    </row>
+    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B124" s="28"/>
       <c r="C124" s="8">
         <v>19</v>
       </c>
       <c r="D124" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E124" s="21"/>
-      <c r="F124" s="18"/>
-      <c r="G124" s="31"/>
-    </row>
-    <row r="125" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B125" s="16"/>
+      <c r="E124" s="23"/>
+      <c r="F124" s="1">
+        <v>118</v>
+      </c>
+      <c r="G124" s="23"/>
+      <c r="H124" s="30"/>
+      <c r="I124" s="16"/>
+      <c r="J124" s="16">
+        <f>SUM($I$3:I124)</f>
+        <v>416</v>
+      </c>
+      <c r="K124" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L124" s="16"/>
+      <c r="M124" s="16">
+        <f>SUM($L$3:L124)</f>
+        <v>112.5</v>
+      </c>
+      <c r="N124" s="16">
+        <f t="shared" si="3"/>
+        <v>303.5</v>
+      </c>
+    </row>
+    <row r="125" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B125" s="28"/>
       <c r="C125" s="8">
         <v>20</v>
       </c>
       <c r="D125" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E125" s="21"/>
-      <c r="F125" s="18"/>
-      <c r="G125" s="31"/>
-    </row>
-    <row r="126" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B126" s="16"/>
+      <c r="E125" s="23"/>
+      <c r="F125" s="1">
+        <v>119</v>
+      </c>
+      <c r="G125" s="23"/>
+      <c r="H125" s="30"/>
+      <c r="I125" s="16"/>
+      <c r="J125" s="16">
+        <f>SUM($I$3:I125)</f>
+        <v>416</v>
+      </c>
+      <c r="K125" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L125" s="16"/>
+      <c r="M125" s="16">
+        <f>SUM($L$3:L125)</f>
+        <v>112.5</v>
+      </c>
+      <c r="N125" s="16">
+        <f t="shared" si="3"/>
+        <v>303.5</v>
+      </c>
+    </row>
+    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B126" s="28"/>
       <c r="C126" s="8">
         <v>21</v>
       </c>
       <c r="D126" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E126" s="22"/>
-      <c r="F126" s="19"/>
-      <c r="G126" s="31"/>
-    </row>
-    <row r="128" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="G128" s="32">
-        <f>SUM(G7:G127)</f>
-        <v>418</v>
-      </c>
-      <c r="H128" t="s">
-        <v>29</v>
+      <c r="E126" s="24"/>
+      <c r="F126" s="1">
+        <v>120</v>
+      </c>
+      <c r="G126" s="24"/>
+      <c r="H126" s="31"/>
+      <c r="I126" s="16"/>
+      <c r="J126" s="16">
+        <f>SUM($I$3:I126)</f>
+        <v>416</v>
+      </c>
+      <c r="K126" s="16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L126" s="16"/>
+      <c r="M126" s="16">
+        <f>SUM($L$3:L126)</f>
+        <v>112.5</v>
+      </c>
+      <c r="N126" s="16">
+        <f t="shared" si="3"/>
+        <v>303.5</v>
+      </c>
+    </row>
+    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="I128" s="17">
+        <f>SUM(I7:I127)</f>
+        <v>416</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="E87:E92"/>
-    <mergeCell ref="E94:E99"/>
-    <mergeCell ref="E10:E15"/>
-    <mergeCell ref="E38:E41"/>
+  <mergeCells count="45">
+    <mergeCell ref="B45:B75"/>
+    <mergeCell ref="G45:G50"/>
+    <mergeCell ref="G52:G57"/>
+    <mergeCell ref="G59:G64"/>
+    <mergeCell ref="G66:G71"/>
     <mergeCell ref="B3:B16"/>
-    <mergeCell ref="E17:E22"/>
-    <mergeCell ref="E24:E29"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="E3:E6"/>
+    <mergeCell ref="G17:G22"/>
+    <mergeCell ref="G24:G29"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="G3:G6"/>
     <mergeCell ref="B17:B44"/>
-    <mergeCell ref="E31:E36"/>
-    <mergeCell ref="E108:E112"/>
+    <mergeCell ref="G31:G36"/>
     <mergeCell ref="B106:B126"/>
-    <mergeCell ref="F122:F126"/>
+    <mergeCell ref="H122:H126"/>
+    <mergeCell ref="G122:G126"/>
+    <mergeCell ref="G115:G120"/>
+    <mergeCell ref="G101:G106"/>
+    <mergeCell ref="B76:B105"/>
+    <mergeCell ref="G73:G78"/>
+    <mergeCell ref="G80:G85"/>
+    <mergeCell ref="E87:E93"/>
+    <mergeCell ref="E94:E100"/>
+    <mergeCell ref="E101:E107"/>
+    <mergeCell ref="E108:E114"/>
+    <mergeCell ref="E115:E121"/>
     <mergeCell ref="E122:E126"/>
-    <mergeCell ref="E115:E120"/>
-    <mergeCell ref="E101:E106"/>
-    <mergeCell ref="B76:B105"/>
-    <mergeCell ref="B45:B75"/>
-    <mergeCell ref="E45:E50"/>
-    <mergeCell ref="E52:E57"/>
-    <mergeCell ref="E59:E64"/>
-    <mergeCell ref="E66:E71"/>
-    <mergeCell ref="E73:E78"/>
-    <mergeCell ref="E80:E85"/>
+    <mergeCell ref="G87:G92"/>
+    <mergeCell ref="G94:G99"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="E3:E9"/>
+    <mergeCell ref="E10:E16"/>
+    <mergeCell ref="G108:G112"/>
+    <mergeCell ref="G10:G15"/>
+    <mergeCell ref="G38:G41"/>
+    <mergeCell ref="E17:E23"/>
+    <mergeCell ref="E24:E30"/>
+    <mergeCell ref="E31:E37"/>
+    <mergeCell ref="E38:E44"/>
+    <mergeCell ref="E45:E51"/>
+    <mergeCell ref="E52:E58"/>
+    <mergeCell ref="E59:E65"/>
+    <mergeCell ref="E66:E72"/>
+    <mergeCell ref="E73:E79"/>
+    <mergeCell ref="E80:E86"/>
   </mergeCells>
-  <conditionalFormatting sqref="G7:G126">
+  <conditionalFormatting sqref="I7:I126">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L3:L126">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>

--- a/docs/project_management/project_plan.xlsx
+++ b/docs/project_management/project_plan.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="34">
   <si>
     <t>Mon</t>
   </si>
@@ -107,12 +107,6 @@
     <t>Actual Hours</t>
   </si>
   <si>
-    <t>Planned Hours (Running)</t>
-  </si>
-  <si>
-    <t>Actual Hours (Running)</t>
-  </si>
-  <si>
     <t>Day</t>
   </si>
   <si>
@@ -120,6 +114,9 @@
   </si>
   <si>
     <t>Week</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -302,6 +299,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -310,12 +313,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -385,18 +382,10 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="6"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$L$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Actual Hours</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Planned Burndown</c:v>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
@@ -829,389 +818,24 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$N$7:$N$126</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="120"/>
-                <c:pt idx="0">
-                  <c:v>410</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>404</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>404</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>396</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>392</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>388</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>384</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>380</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>380</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>376</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>372</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>368</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>364</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>360</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>356</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>356</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>352</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>348</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>344</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>340</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>336</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>332</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>332</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>328</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>324</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>320</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>316</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>312</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>309.5</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>309.5</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>303.5</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>303.5</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>303.5</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>303.5</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>303.5</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>303.5</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>303.5</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>303.5</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>303.5</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>303.5</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>303.5</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>303.5</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>303.5</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>303.5</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>303.5</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>303.5</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>303.5</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>303.5</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>303.5</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>303.5</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>303.5</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>303.5</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>303.5</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>303.5</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>303.5</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>303.5</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>303.5</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>303.5</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>303.5</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>303.5</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>303.5</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>303.5</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>303.5</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>303.5</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>303.5</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>303.5</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>303.5</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>303.5</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>303.5</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>303.5</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>303.5</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>303.5</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>303.5</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>303.5</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>303.5</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>303.5</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>303.5</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>303.5</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>303.5</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>303.5</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>303.5</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>303.5</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>303.5</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>303.5</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>303.5</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>303.5</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>303.5</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>303.5</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>303.5</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>303.5</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>303.5</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>303.5</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>303.5</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>303.5</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>303.5</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>303.5</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>303.5</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>303.5</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>303.5</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>303.5</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>303.5</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>303.5</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>303.5</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>303.5</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>303.5</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>303.5</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>303.5</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>303.5</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>303.5</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>303.5</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>303.5</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>303.5</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>303.5</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>303.5</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>303.5</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>303.5</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>303.5</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>303.5</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>303.5</c:v>
-                </c:pt>
-              </c:numCache>
+              <c:f>Sheet1!$K$7:$K$126</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="6"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$I$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Planned Hours</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Remaining Hours</c:v>
           </c:tx>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -1643,371 +1267,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$K$7:$K$126</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="120"/>
-                <c:pt idx="0">
-                  <c:v>410</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>404</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>404</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>398</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>394</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>388</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>388</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>382</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>380</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>380</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>374</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>370</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>364</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>364</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>358</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>356</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>356</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>350</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>346</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>340</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>340</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>334</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>332</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>332</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>326</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>322</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>316</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>316</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>310</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>308</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>308</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>302</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>300</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>294</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>294</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>288</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>286</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>286</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>280</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>276</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>270</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>270</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>264</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>262</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>262</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>256</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>252</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>246</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>246</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>240</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>238</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>238</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>232</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>228</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>222</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>222</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>216</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>214</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>214</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>208</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>204</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>198</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>198</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>192</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>184</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>174</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>174</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>168</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>166</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>166</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>156</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>142</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>142</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>136</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>132</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>126</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>126</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>118</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>118</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
+              <c:f>Sheet1!$N$7:$N$126</c:f>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
@@ -2022,40 +1282,78 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="124545280"/>
-        <c:axId val="82591744"/>
+        <c:axId val="61992960"/>
+        <c:axId val="61994880"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="124545280"/>
+        <c:axId val="61992960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Weeks / Days</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82591744"/>
+        <c:crossAx val="61994880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
-        <c:tickMarkSkip val="7"/>
+        <c:tickMarkSkip val="1"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82591744"/>
+        <c:axId val="61994880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Hours</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="124545280"/>
+        <c:crossAx val="61992960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2076,7 +1374,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="108" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="129" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2087,7 +1385,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9313333" cy="6085417"/>
+    <xdr:ext cx="9310872" cy="6084186"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -2399,26 +1697,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="Q39" sqref="Q39"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.140625" customWidth="1"/>
     <col min="2" max="2" width="5.5703125" customWidth="1"/>
-    <col min="3" max="3" width="3.140625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="3.85546875" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.140625" customWidth="1"/>
     <col min="7" max="7" width="24.28515625" style="4" customWidth="1"/>
     <col min="8" max="8" width="18.85546875" customWidth="1"/>
-    <col min="9" max="9" width="7.42578125" style="17" customWidth="1"/>
-    <col min="10" max="10" width="6.85546875" style="17" customWidth="1"/>
-    <col min="11" max="11" width="6.28515625" style="17" customWidth="1"/>
-    <col min="12" max="12" width="7" style="17" customWidth="1"/>
-    <col min="13" max="13" width="6.7109375" style="17" customWidth="1"/>
-    <col min="14" max="14" width="6.5703125" style="17" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" style="17" customWidth="1"/>
+    <col min="10" max="10" width="7.85546875" style="17" customWidth="1"/>
+    <col min="11" max="11" width="6.28515625" style="17" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="8.28515625" style="17" customWidth="1"/>
+    <col min="13" max="13" width="7.42578125" style="17" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.5703125" style="17" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -2436,10 +1734,10 @@
       <c r="C2" s="7"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G2" s="20" t="s">
         <v>25</v>
@@ -2450,17 +1748,17 @@
       <c r="I2" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" s="26"/>
+      <c r="J2" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" s="23"/>
       <c r="L2" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="M2" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="N2" s="26"/>
+      <c r="M2" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="N2" s="23"/>
     </row>
     <row r="3" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="28" t="s">
@@ -2472,7 +1770,7 @@
       <c r="D3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="22">
+      <c r="E3" s="24">
         <v>1</v>
       </c>
       <c r="F3" s="1"/>
@@ -2505,7 +1803,7 @@
       <c r="D4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="23"/>
+      <c r="E4" s="25"/>
       <c r="F4" s="1"/>
       <c r="G4" s="36"/>
       <c r="H4" s="1"/>
@@ -2536,7 +1834,7 @@
       <c r="D5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="23"/>
+      <c r="E5" s="25"/>
       <c r="F5" s="1"/>
       <c r="G5" s="36"/>
       <c r="H5" s="1"/>
@@ -2567,7 +1865,7 @@
       <c r="D6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="23"/>
+      <c r="E6" s="25"/>
       <c r="F6" s="1"/>
       <c r="G6" s="37"/>
       <c r="H6" s="1"/>
@@ -2598,11 +1896,11 @@
       <c r="D7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="23"/>
+      <c r="E7" s="25"/>
       <c r="F7" s="1">
         <v>1</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="24" t="s">
         <v>10</v>
       </c>
       <c r="H7" s="1"/>
@@ -2637,11 +1935,11 @@
       <c r="D8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="23"/>
+      <c r="E8" s="25"/>
       <c r="F8" s="1">
         <v>2</v>
       </c>
-      <c r="G8" s="24"/>
+      <c r="G8" s="26"/>
       <c r="H8" s="1"/>
       <c r="I8" s="16">
         <v>6</v>
@@ -2674,7 +1972,7 @@
       <c r="D9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="24"/>
+      <c r="E9" s="26"/>
       <c r="F9" s="1">
         <v>3</v>
       </c>
@@ -2711,13 +2009,13 @@
       <c r="D10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E10" s="22">
+      <c r="E10" s="24">
         <v>2</v>
       </c>
       <c r="F10" s="1">
         <v>4</v>
       </c>
-      <c r="G10" s="22" t="s">
+      <c r="G10" s="24" t="s">
         <v>11</v>
       </c>
       <c r="H10" s="1"/>
@@ -2752,11 +2050,11 @@
       <c r="D11" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="23"/>
+      <c r="E11" s="25"/>
       <c r="F11" s="1">
         <v>5</v>
       </c>
-      <c r="G11" s="23"/>
+      <c r="G11" s="25"/>
       <c r="H11" s="1"/>
       <c r="I11" s="16">
         <v>4</v>
@@ -2789,11 +2087,11 @@
       <c r="D12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="23"/>
+      <c r="E12" s="25"/>
       <c r="F12" s="1">
         <v>6</v>
       </c>
-      <c r="G12" s="23"/>
+      <c r="G12" s="25"/>
       <c r="H12" s="1"/>
       <c r="I12" s="16">
         <v>6</v>
@@ -2826,11 +2124,11 @@
       <c r="D13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="23"/>
+      <c r="E13" s="25"/>
       <c r="F13" s="1">
         <v>7</v>
       </c>
-      <c r="G13" s="23"/>
+      <c r="G13" s="25"/>
       <c r="H13" s="1"/>
       <c r="I13" s="16">
         <v>0</v>
@@ -2863,11 +2161,11 @@
       <c r="D14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="23"/>
+      <c r="E14" s="25"/>
       <c r="F14" s="1">
         <v>8</v>
       </c>
-      <c r="G14" s="23"/>
+      <c r="G14" s="25"/>
       <c r="H14" s="1"/>
       <c r="I14" s="16">
         <v>6</v>
@@ -2900,11 +2198,11 @@
       <c r="D15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="23"/>
+      <c r="E15" s="25"/>
       <c r="F15" s="1">
         <v>9</v>
       </c>
-      <c r="G15" s="24"/>
+      <c r="G15" s="26"/>
       <c r="H15" s="1"/>
       <c r="I15" s="16">
         <v>2</v>
@@ -2937,7 +2235,7 @@
       <c r="D16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="24"/>
+      <c r="E16" s="26"/>
       <c r="F16" s="1">
         <v>10</v>
       </c>
@@ -2976,13 +2274,13 @@
       <c r="D17" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E17" s="22">
+      <c r="E17" s="24">
         <v>3</v>
       </c>
       <c r="F17" s="1">
         <v>11</v>
       </c>
-      <c r="G17" s="22" t="s">
+      <c r="G17" s="24" t="s">
         <v>11</v>
       </c>
       <c r="H17" s="1"/>
@@ -3017,11 +2315,11 @@
       <c r="D18" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E18" s="23"/>
+      <c r="E18" s="25"/>
       <c r="F18" s="1">
         <v>12</v>
       </c>
-      <c r="G18" s="23"/>
+      <c r="G18" s="25"/>
       <c r="H18" s="1"/>
       <c r="I18" s="16">
         <v>4</v>
@@ -3054,11 +2352,11 @@
       <c r="D19" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E19" s="23"/>
+      <c r="E19" s="25"/>
       <c r="F19" s="1">
         <v>13</v>
       </c>
-      <c r="G19" s="23"/>
+      <c r="G19" s="25"/>
       <c r="H19" s="1"/>
       <c r="I19" s="16">
         <v>6</v>
@@ -3091,11 +2389,11 @@
       <c r="D20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="23"/>
+      <c r="E20" s="25"/>
       <c r="F20" s="1">
         <v>14</v>
       </c>
-      <c r="G20" s="23"/>
+      <c r="G20" s="25"/>
       <c r="H20" s="1"/>
       <c r="I20" s="16">
         <v>0</v>
@@ -3129,11 +2427,11 @@
       <c r="D21" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="23"/>
+      <c r="E21" s="25"/>
       <c r="F21" s="1">
         <v>15</v>
       </c>
-      <c r="G21" s="23"/>
+      <c r="G21" s="25"/>
       <c r="H21" s="1"/>
       <c r="I21" s="16">
         <v>6</v>
@@ -3167,11 +2465,11 @@
       <c r="D22" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="23"/>
+      <c r="E22" s="25"/>
       <c r="F22" s="1">
         <v>16</v>
       </c>
-      <c r="G22" s="24"/>
+      <c r="G22" s="26"/>
       <c r="H22" s="1"/>
       <c r="I22" s="16">
         <v>2</v>
@@ -3205,7 +2503,7 @@
       <c r="D23" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E23" s="24"/>
+      <c r="E23" s="26"/>
       <c r="F23" s="1">
         <v>17</v>
       </c>
@@ -3243,13 +2541,13 @@
       <c r="D24" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E24" s="22">
+      <c r="E24" s="24">
         <v>4</v>
       </c>
       <c r="F24" s="1">
         <v>18</v>
       </c>
-      <c r="G24" s="22" t="s">
+      <c r="G24" s="24" t="s">
         <v>19</v>
       </c>
       <c r="H24" s="1"/>
@@ -3285,11 +2583,11 @@
       <c r="D25" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E25" s="23"/>
+      <c r="E25" s="25"/>
       <c r="F25" s="1">
         <v>19</v>
       </c>
-      <c r="G25" s="23"/>
+      <c r="G25" s="25"/>
       <c r="H25" s="1"/>
       <c r="I25" s="16">
         <v>4</v>
@@ -3323,11 +2621,11 @@
       <c r="D26" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E26" s="23"/>
+      <c r="E26" s="25"/>
       <c r="F26" s="1">
         <v>20</v>
       </c>
-      <c r="G26" s="23"/>
+      <c r="G26" s="25"/>
       <c r="H26" s="1"/>
       <c r="I26" s="16">
         <v>6</v>
@@ -3361,11 +2659,11 @@
       <c r="D27" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E27" s="23"/>
+      <c r="E27" s="25"/>
       <c r="F27" s="1">
         <v>21</v>
       </c>
-      <c r="G27" s="23"/>
+      <c r="G27" s="25"/>
       <c r="H27" s="1"/>
       <c r="I27" s="16">
         <v>0</v>
@@ -3399,11 +2697,11 @@
       <c r="D28" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E28" s="23"/>
+      <c r="E28" s="25"/>
       <c r="F28" s="1">
         <v>22</v>
       </c>
-      <c r="G28" s="23"/>
+      <c r="G28" s="25"/>
       <c r="H28" s="1"/>
       <c r="I28" s="16">
         <v>6</v>
@@ -3437,11 +2735,11 @@
       <c r="D29" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E29" s="23"/>
+      <c r="E29" s="25"/>
       <c r="F29" s="1">
         <v>23</v>
       </c>
-      <c r="G29" s="24"/>
+      <c r="G29" s="26"/>
       <c r="H29" s="1"/>
       <c r="I29" s="16">
         <v>2</v>
@@ -3475,7 +2773,7 @@
       <c r="D30" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E30" s="24"/>
+      <c r="E30" s="26"/>
       <c r="F30" s="1">
         <v>24</v>
       </c>
@@ -3513,13 +2811,13 @@
       <c r="D31" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E31" s="22">
+      <c r="E31" s="24">
         <v>5</v>
       </c>
       <c r="F31" s="1">
         <v>25</v>
       </c>
-      <c r="G31" s="22" t="s">
+      <c r="G31" s="24" t="s">
         <v>20</v>
       </c>
       <c r="H31" s="1"/>
@@ -3555,11 +2853,11 @@
       <c r="D32" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E32" s="23"/>
+      <c r="E32" s="25"/>
       <c r="F32" s="1">
         <v>26</v>
       </c>
-      <c r="G32" s="23"/>
+      <c r="G32" s="25"/>
       <c r="H32" s="1"/>
       <c r="I32" s="16">
         <v>4</v>
@@ -3593,11 +2891,11 @@
       <c r="D33" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E33" s="23"/>
+      <c r="E33" s="25"/>
       <c r="F33" s="1">
         <v>27</v>
       </c>
-      <c r="G33" s="23"/>
+      <c r="G33" s="25"/>
       <c r="H33" s="1"/>
       <c r="I33" s="16">
         <v>6</v>
@@ -3631,11 +2929,11 @@
       <c r="D34" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E34" s="23"/>
+      <c r="E34" s="25"/>
       <c r="F34" s="1">
         <v>28</v>
       </c>
-      <c r="G34" s="23"/>
+      <c r="G34" s="25"/>
       <c r="H34" s="1"/>
       <c r="I34" s="16">
         <v>0</v>
@@ -3669,13 +2967,13 @@
       <c r="D35" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E35" s="23"/>
+      <c r="E35" s="25"/>
       <c r="F35" s="1">
         <v>29</v>
       </c>
-      <c r="G35" s="23"/>
+      <c r="G35" s="25"/>
       <c r="H35" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I35" s="16">
         <v>6</v>
@@ -3708,11 +3006,11 @@
       <c r="D36" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E36" s="23"/>
+      <c r="E36" s="25"/>
       <c r="F36" s="1">
         <v>30</v>
       </c>
-      <c r="G36" s="24"/>
+      <c r="G36" s="26"/>
       <c r="H36" s="1"/>
       <c r="I36" s="16">
         <v>2</v>
@@ -3745,7 +3043,7 @@
       <c r="D37" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E37" s="24"/>
+      <c r="E37" s="26"/>
       <c r="F37" s="1">
         <v>31</v>
       </c>
@@ -3782,13 +3080,13 @@
       <c r="D38" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E38" s="22">
+      <c r="E38" s="24">
         <v>6</v>
       </c>
       <c r="F38" s="1">
         <v>32</v>
       </c>
-      <c r="G38" s="22" t="s">
+      <c r="G38" s="24" t="s">
         <v>26</v>
       </c>
       <c r="H38" s="1"/>
@@ -3823,11 +3121,11 @@
       <c r="D39" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E39" s="23"/>
+      <c r="E39" s="25"/>
       <c r="F39" s="1">
         <v>33</v>
       </c>
-      <c r="G39" s="23"/>
+      <c r="G39" s="25"/>
       <c r="H39" s="1"/>
       <c r="I39" s="16">
         <v>2</v>
@@ -3840,14 +3138,16 @@
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="L39" s="16"/>
+      <c r="L39" s="16">
+        <v>2.5</v>
+      </c>
       <c r="M39" s="16">
         <f>SUM($L$3:L39)</f>
-        <v>112.5</v>
+        <v>115</v>
       </c>
       <c r="N39" s="16">
         <f t="shared" si="1"/>
-        <v>303.5</v>
+        <v>301</v>
       </c>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.25">
@@ -3858,11 +3158,11 @@
       <c r="D40" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E40" s="23"/>
+      <c r="E40" s="25"/>
       <c r="F40" s="1">
         <v>34</v>
       </c>
-      <c r="G40" s="23"/>
+      <c r="G40" s="25"/>
       <c r="H40" s="1"/>
       <c r="I40" s="16">
         <v>6</v>
@@ -3875,14 +3175,16 @@
         <f t="shared" si="0"/>
         <v>294</v>
       </c>
-      <c r="L40" s="16"/>
+      <c r="L40" s="16">
+        <v>6</v>
+      </c>
       <c r="M40" s="16">
         <f>SUM($L$3:L40)</f>
-        <v>112.5</v>
+        <v>121</v>
       </c>
       <c r="N40" s="16">
         <f t="shared" si="1"/>
-        <v>303.5</v>
+        <v>295</v>
       </c>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.25">
@@ -3893,11 +3195,11 @@
       <c r="D41" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E41" s="23"/>
+      <c r="E41" s="25"/>
       <c r="F41" s="1">
         <v>35</v>
       </c>
-      <c r="G41" s="24"/>
+      <c r="G41" s="26"/>
       <c r="H41" s="1"/>
       <c r="I41" s="16">
         <v>0</v>
@@ -3910,14 +3212,16 @@
         <f t="shared" si="0"/>
         <v>294</v>
       </c>
-      <c r="L41" s="16"/>
+      <c r="L41" s="16">
+        <v>5</v>
+      </c>
       <c r="M41" s="16">
         <f>SUM($L$3:L41)</f>
-        <v>112.5</v>
+        <v>126</v>
       </c>
       <c r="N41" s="16">
         <f t="shared" si="1"/>
-        <v>303.5</v>
+        <v>290</v>
       </c>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.25">
@@ -3928,7 +3232,7 @@
       <c r="D42" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E42" s="23"/>
+      <c r="E42" s="25"/>
       <c r="F42" s="1">
         <v>36</v>
       </c>
@@ -3945,14 +3249,16 @@
         <f t="shared" si="0"/>
         <v>288</v>
       </c>
-      <c r="L42" s="16"/>
+      <c r="L42" s="16">
+        <v>5</v>
+      </c>
       <c r="M42" s="16">
         <f>SUM($L$3:L42)</f>
-        <v>112.5</v>
+        <v>131</v>
       </c>
       <c r="N42" s="16">
         <f t="shared" si="1"/>
-        <v>303.5</v>
+        <v>285</v>
       </c>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.25">
@@ -3963,7 +3269,7 @@
       <c r="D43" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E43" s="23"/>
+      <c r="E43" s="25"/>
       <c r="F43" s="1">
         <v>37</v>
       </c>
@@ -3983,11 +3289,11 @@
       <c r="L43" s="16"/>
       <c r="M43" s="16">
         <f>SUM($L$3:L43)</f>
-        <v>112.5</v>
+        <v>131</v>
       </c>
       <c r="N43" s="16">
         <f t="shared" si="1"/>
-        <v>303.5</v>
+        <v>285</v>
       </c>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.25">
@@ -3998,7 +3304,7 @@
       <c r="D44" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E44" s="24"/>
+      <c r="E44" s="26"/>
       <c r="F44" s="1">
         <v>38</v>
       </c>
@@ -4018,11 +3324,11 @@
       <c r="L44" s="16"/>
       <c r="M44" s="16">
         <f>SUM($L$3:L44)</f>
-        <v>112.5</v>
+        <v>131</v>
       </c>
       <c r="N44" s="16">
         <f t="shared" si="1"/>
-        <v>303.5</v>
+        <v>285</v>
       </c>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.25">
@@ -4035,13 +3341,13 @@
       <c r="D45" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E45" s="22">
+      <c r="E45" s="24">
         <v>7</v>
       </c>
       <c r="F45" s="1">
         <v>39</v>
       </c>
-      <c r="G45" s="22" t="s">
+      <c r="G45" s="24" t="s">
         <v>12</v>
       </c>
       <c r="H45" s="1"/>
@@ -4059,11 +3365,11 @@
       <c r="L45" s="16"/>
       <c r="M45" s="16">
         <f>SUM($L$3:L45)</f>
-        <v>112.5</v>
+        <v>131</v>
       </c>
       <c r="N45" s="16">
         <f t="shared" si="1"/>
-        <v>303.5</v>
+        <v>285</v>
       </c>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.25">
@@ -4074,11 +3380,11 @@
       <c r="D46" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E46" s="23"/>
+      <c r="E46" s="25"/>
       <c r="F46" s="1">
         <v>40</v>
       </c>
-      <c r="G46" s="23"/>
+      <c r="G46" s="25"/>
       <c r="H46" s="1"/>
       <c r="I46" s="16">
         <v>4</v>
@@ -4094,11 +3400,11 @@
       <c r="L46" s="16"/>
       <c r="M46" s="16">
         <f>SUM($L$3:L46)</f>
-        <v>112.5</v>
+        <v>131</v>
       </c>
       <c r="N46" s="16">
         <f t="shared" si="1"/>
-        <v>303.5</v>
+        <v>285</v>
       </c>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.25">
@@ -4109,11 +3415,11 @@
       <c r="D47" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E47" s="23"/>
+      <c r="E47" s="25"/>
       <c r="F47" s="1">
         <v>41</v>
       </c>
-      <c r="G47" s="23"/>
+      <c r="G47" s="25"/>
       <c r="H47" s="1"/>
       <c r="I47" s="16">
         <v>6</v>
@@ -4129,11 +3435,11 @@
       <c r="L47" s="16"/>
       <c r="M47" s="16">
         <f>SUM($L$3:L47)</f>
-        <v>112.5</v>
+        <v>131</v>
       </c>
       <c r="N47" s="16">
         <f t="shared" si="1"/>
-        <v>303.5</v>
+        <v>285</v>
       </c>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.25">
@@ -4144,11 +3450,11 @@
       <c r="D48" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E48" s="23"/>
+      <c r="E48" s="25"/>
       <c r="F48" s="1">
         <v>42</v>
       </c>
-      <c r="G48" s="23"/>
+      <c r="G48" s="25"/>
       <c r="H48" s="1"/>
       <c r="I48" s="16">
         <v>0</v>
@@ -4164,11 +3470,11 @@
       <c r="L48" s="16"/>
       <c r="M48" s="16">
         <f>SUM($L$3:L48)</f>
-        <v>112.5</v>
+        <v>131</v>
       </c>
       <c r="N48" s="16">
         <f t="shared" si="1"/>
-        <v>303.5</v>
+        <v>285</v>
       </c>
     </row>
     <row r="49" spans="2:14" x14ac:dyDescent="0.25">
@@ -4179,11 +3485,11 @@
       <c r="D49" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E49" s="23"/>
+      <c r="E49" s="25"/>
       <c r="F49" s="1">
         <v>43</v>
       </c>
-      <c r="G49" s="23"/>
+      <c r="G49" s="25"/>
       <c r="H49" s="1"/>
       <c r="I49" s="16">
         <v>6</v>
@@ -4199,11 +3505,11 @@
       <c r="L49" s="16"/>
       <c r="M49" s="16">
         <f>SUM($L$3:L49)</f>
-        <v>112.5</v>
+        <v>131</v>
       </c>
       <c r="N49" s="16">
         <f t="shared" si="1"/>
-        <v>303.5</v>
+        <v>285</v>
       </c>
     </row>
     <row r="50" spans="2:14" x14ac:dyDescent="0.25">
@@ -4214,11 +3520,11 @@
       <c r="D50" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E50" s="23"/>
+      <c r="E50" s="25"/>
       <c r="F50" s="1">
         <v>44</v>
       </c>
-      <c r="G50" s="24"/>
+      <c r="G50" s="26"/>
       <c r="H50" s="1"/>
       <c r="I50" s="16">
         <v>2</v>
@@ -4234,11 +3540,11 @@
       <c r="L50" s="16"/>
       <c r="M50" s="16">
         <f>SUM($L$3:L50)</f>
-        <v>112.5</v>
+        <v>131</v>
       </c>
       <c r="N50" s="16">
         <f t="shared" si="1"/>
-        <v>303.5</v>
+        <v>285</v>
       </c>
     </row>
     <row r="51" spans="2:14" x14ac:dyDescent="0.25">
@@ -4249,7 +3555,7 @@
       <c r="D51" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E51" s="24"/>
+      <c r="E51" s="26"/>
       <c r="F51" s="1">
         <v>45</v>
       </c>
@@ -4269,11 +3575,11 @@
       <c r="L51" s="16"/>
       <c r="M51" s="16">
         <f>SUM($L$3:L51)</f>
-        <v>112.5</v>
+        <v>131</v>
       </c>
       <c r="N51" s="16">
         <f t="shared" si="1"/>
-        <v>303.5</v>
+        <v>285</v>
       </c>
     </row>
     <row r="52" spans="2:14" x14ac:dyDescent="0.25">
@@ -4284,13 +3590,13 @@
       <c r="D52" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E52" s="22">
+      <c r="E52" s="24">
         <v>8</v>
       </c>
       <c r="F52" s="1">
         <v>46</v>
       </c>
-      <c r="G52" s="22" t="s">
+      <c r="G52" s="24" t="s">
         <v>12</v>
       </c>
       <c r="H52" s="1"/>
@@ -4308,11 +3614,11 @@
       <c r="L52" s="16"/>
       <c r="M52" s="16">
         <f>SUM($L$3:L52)</f>
-        <v>112.5</v>
+        <v>131</v>
       </c>
       <c r="N52" s="16">
         <f t="shared" si="1"/>
-        <v>303.5</v>
+        <v>285</v>
       </c>
     </row>
     <row r="53" spans="2:14" x14ac:dyDescent="0.25">
@@ -4323,11 +3629,11 @@
       <c r="D53" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E53" s="23"/>
+      <c r="E53" s="25"/>
       <c r="F53" s="1">
         <v>47</v>
       </c>
-      <c r="G53" s="23"/>
+      <c r="G53" s="25"/>
       <c r="H53" s="1"/>
       <c r="I53" s="16">
         <v>4</v>
@@ -4343,11 +3649,11 @@
       <c r="L53" s="16"/>
       <c r="M53" s="16">
         <f>SUM($L$3:L53)</f>
-        <v>112.5</v>
+        <v>131</v>
       </c>
       <c r="N53" s="16">
         <f t="shared" si="1"/>
-        <v>303.5</v>
+        <v>285</v>
       </c>
     </row>
     <row r="54" spans="2:14" x14ac:dyDescent="0.25">
@@ -4358,11 +3664,11 @@
       <c r="D54" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E54" s="23"/>
+      <c r="E54" s="25"/>
       <c r="F54" s="1">
         <v>48</v>
       </c>
-      <c r="G54" s="23"/>
+      <c r="G54" s="25"/>
       <c r="H54" s="1"/>
       <c r="I54" s="16">
         <v>6</v>
@@ -4378,11 +3684,11 @@
       <c r="L54" s="16"/>
       <c r="M54" s="16">
         <f>SUM($L$3:L54)</f>
-        <v>112.5</v>
+        <v>131</v>
       </c>
       <c r="N54" s="16">
         <f t="shared" si="1"/>
-        <v>303.5</v>
+        <v>285</v>
       </c>
     </row>
     <row r="55" spans="2:14" x14ac:dyDescent="0.25">
@@ -4393,11 +3699,11 @@
       <c r="D55" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E55" s="23"/>
+      <c r="E55" s="25"/>
       <c r="F55" s="1">
         <v>49</v>
       </c>
-      <c r="G55" s="23"/>
+      <c r="G55" s="25"/>
       <c r="H55" s="1"/>
       <c r="I55" s="16">
         <v>0</v>
@@ -4413,11 +3719,11 @@
       <c r="L55" s="16"/>
       <c r="M55" s="16">
         <f>SUM($L$3:L55)</f>
-        <v>112.5</v>
+        <v>131</v>
       </c>
       <c r="N55" s="16">
         <f t="shared" si="1"/>
-        <v>303.5</v>
+        <v>285</v>
       </c>
     </row>
     <row r="56" spans="2:14" x14ac:dyDescent="0.25">
@@ -4428,11 +3734,11 @@
       <c r="D56" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E56" s="23"/>
+      <c r="E56" s="25"/>
       <c r="F56" s="1">
         <v>50</v>
       </c>
-      <c r="G56" s="23"/>
+      <c r="G56" s="25"/>
       <c r="H56" s="1"/>
       <c r="I56" s="16">
         <v>6</v>
@@ -4448,11 +3754,11 @@
       <c r="L56" s="16"/>
       <c r="M56" s="16">
         <f>SUM($L$3:L56)</f>
-        <v>112.5</v>
+        <v>131</v>
       </c>
       <c r="N56" s="16">
         <f t="shared" si="1"/>
-        <v>303.5</v>
+        <v>285</v>
       </c>
     </row>
     <row r="57" spans="2:14" x14ac:dyDescent="0.25">
@@ -4463,11 +3769,11 @@
       <c r="D57" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E57" s="23"/>
+      <c r="E57" s="25"/>
       <c r="F57" s="1">
         <v>51</v>
       </c>
-      <c r="G57" s="24"/>
+      <c r="G57" s="26"/>
       <c r="H57" s="1"/>
       <c r="I57" s="16">
         <v>2</v>
@@ -4483,11 +3789,11 @@
       <c r="L57" s="16"/>
       <c r="M57" s="16">
         <f>SUM($L$3:L57)</f>
-        <v>112.5</v>
+        <v>131</v>
       </c>
       <c r="N57" s="16">
         <f t="shared" si="1"/>
-        <v>303.5</v>
+        <v>285</v>
       </c>
     </row>
     <row r="58" spans="2:14" x14ac:dyDescent="0.25">
@@ -4498,7 +3804,7 @@
       <c r="D58" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E58" s="24"/>
+      <c r="E58" s="26"/>
       <c r="F58" s="1">
         <v>52</v>
       </c>
@@ -4518,11 +3824,11 @@
       <c r="L58" s="16"/>
       <c r="M58" s="16">
         <f>SUM($L$3:L58)</f>
-        <v>112.5</v>
+        <v>131</v>
       </c>
       <c r="N58" s="16">
         <f t="shared" si="1"/>
-        <v>303.5</v>
+        <v>285</v>
       </c>
     </row>
     <row r="59" spans="2:14" x14ac:dyDescent="0.25">
@@ -4533,13 +3839,13 @@
       <c r="D59" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E59" s="22">
+      <c r="E59" s="24">
         <v>9</v>
       </c>
       <c r="F59" s="1">
         <v>53</v>
       </c>
-      <c r="G59" s="22" t="s">
+      <c r="G59" s="24" t="s">
         <v>13</v>
       </c>
       <c r="H59" s="1"/>
@@ -4557,11 +3863,11 @@
       <c r="L59" s="16"/>
       <c r="M59" s="16">
         <f>SUM($L$3:L59)</f>
-        <v>112.5</v>
+        <v>131</v>
       </c>
       <c r="N59" s="16">
         <f t="shared" si="1"/>
-        <v>303.5</v>
+        <v>285</v>
       </c>
     </row>
     <row r="60" spans="2:14" x14ac:dyDescent="0.25">
@@ -4572,11 +3878,11 @@
       <c r="D60" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E60" s="23"/>
+      <c r="E60" s="25"/>
       <c r="F60" s="1">
         <v>54</v>
       </c>
-      <c r="G60" s="23"/>
+      <c r="G60" s="25"/>
       <c r="H60" s="1"/>
       <c r="I60" s="16">
         <v>4</v>
@@ -4592,11 +3898,11 @@
       <c r="L60" s="16"/>
       <c r="M60" s="16">
         <f>SUM($L$3:L60)</f>
-        <v>112.5</v>
+        <v>131</v>
       </c>
       <c r="N60" s="16">
         <f t="shared" si="1"/>
-        <v>303.5</v>
+        <v>285</v>
       </c>
     </row>
     <row r="61" spans="2:14" x14ac:dyDescent="0.25">
@@ -4607,11 +3913,11 @@
       <c r="D61" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E61" s="23"/>
+      <c r="E61" s="25"/>
       <c r="F61" s="1">
         <v>55</v>
       </c>
-      <c r="G61" s="23"/>
+      <c r="G61" s="25"/>
       <c r="H61" s="1"/>
       <c r="I61" s="16">
         <v>6</v>
@@ -4627,11 +3933,11 @@
       <c r="L61" s="16"/>
       <c r="M61" s="16">
         <f>SUM($L$3:L61)</f>
-        <v>112.5</v>
+        <v>131</v>
       </c>
       <c r="N61" s="16">
         <f t="shared" si="1"/>
-        <v>303.5</v>
+        <v>285</v>
       </c>
     </row>
     <row r="62" spans="2:14" x14ac:dyDescent="0.25">
@@ -4642,11 +3948,11 @@
       <c r="D62" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E62" s="23"/>
+      <c r="E62" s="25"/>
       <c r="F62" s="1">
         <v>56</v>
       </c>
-      <c r="G62" s="23"/>
+      <c r="G62" s="25"/>
       <c r="H62" s="1"/>
       <c r="I62" s="16">
         <v>0</v>
@@ -4662,11 +3968,11 @@
       <c r="L62" s="16"/>
       <c r="M62" s="16">
         <f>SUM($L$3:L62)</f>
-        <v>112.5</v>
+        <v>131</v>
       </c>
       <c r="N62" s="16">
         <f t="shared" si="1"/>
-        <v>303.5</v>
+        <v>285</v>
       </c>
     </row>
     <row r="63" spans="2:14" x14ac:dyDescent="0.25">
@@ -4677,11 +3983,11 @@
       <c r="D63" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E63" s="23"/>
+      <c r="E63" s="25"/>
       <c r="F63" s="1">
         <v>57</v>
       </c>
-      <c r="G63" s="23"/>
+      <c r="G63" s="25"/>
       <c r="H63" s="1"/>
       <c r="I63" s="16">
         <v>6</v>
@@ -4697,11 +4003,11 @@
       <c r="L63" s="16"/>
       <c r="M63" s="16">
         <f>SUM($L$3:L63)</f>
-        <v>112.5</v>
+        <v>131</v>
       </c>
       <c r="N63" s="16">
         <f t="shared" si="1"/>
-        <v>303.5</v>
+        <v>285</v>
       </c>
     </row>
     <row r="64" spans="2:14" x14ac:dyDescent="0.25">
@@ -4712,11 +4018,11 @@
       <c r="D64" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E64" s="23"/>
+      <c r="E64" s="25"/>
       <c r="F64" s="1">
         <v>58</v>
       </c>
-      <c r="G64" s="24"/>
+      <c r="G64" s="26"/>
       <c r="H64" s="1"/>
       <c r="I64" s="16">
         <v>2</v>
@@ -4732,11 +4038,11 @@
       <c r="L64" s="16"/>
       <c r="M64" s="16">
         <f>SUM($L$3:L64)</f>
-        <v>112.5</v>
+        <v>131</v>
       </c>
       <c r="N64" s="16">
         <f t="shared" si="1"/>
-        <v>303.5</v>
+        <v>285</v>
       </c>
     </row>
     <row r="65" spans="2:14" x14ac:dyDescent="0.25">
@@ -4747,7 +4053,7 @@
       <c r="D65" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E65" s="24"/>
+      <c r="E65" s="26"/>
       <c r="F65" s="1">
         <v>59</v>
       </c>
@@ -4767,11 +4073,11 @@
       <c r="L65" s="16"/>
       <c r="M65" s="16">
         <f>SUM($L$3:L65)</f>
-        <v>112.5</v>
+        <v>131</v>
       </c>
       <c r="N65" s="16">
         <f t="shared" si="1"/>
-        <v>303.5</v>
+        <v>285</v>
       </c>
     </row>
     <row r="66" spans="2:14" x14ac:dyDescent="0.25">
@@ -4782,13 +4088,13 @@
       <c r="D66" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E66" s="22">
+      <c r="E66" s="24">
         <v>10</v>
       </c>
       <c r="F66" s="1">
         <v>60</v>
       </c>
-      <c r="G66" s="22" t="s">
+      <c r="G66" s="24" t="s">
         <v>13</v>
       </c>
       <c r="H66" s="1"/>
@@ -4806,11 +4112,11 @@
       <c r="L66" s="16"/>
       <c r="M66" s="16">
         <f>SUM($L$3:L66)</f>
-        <v>112.5</v>
+        <v>131</v>
       </c>
       <c r="N66" s="16">
         <f t="shared" si="1"/>
-        <v>303.5</v>
+        <v>285</v>
       </c>
     </row>
     <row r="67" spans="2:14" x14ac:dyDescent="0.25">
@@ -4821,11 +4127,11 @@
       <c r="D67" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E67" s="23"/>
+      <c r="E67" s="25"/>
       <c r="F67" s="1">
         <v>61</v>
       </c>
-      <c r="G67" s="23"/>
+      <c r="G67" s="25"/>
       <c r="H67" s="1"/>
       <c r="I67" s="16">
         <v>4</v>
@@ -4841,11 +4147,11 @@
       <c r="L67" s="16"/>
       <c r="M67" s="16">
         <f>SUM($L$3:L67)</f>
-        <v>112.5</v>
+        <v>131</v>
       </c>
       <c r="N67" s="16">
         <f t="shared" si="1"/>
-        <v>303.5</v>
+        <v>285</v>
       </c>
     </row>
     <row r="68" spans="2:14" x14ac:dyDescent="0.25">
@@ -4856,11 +4162,11 @@
       <c r="D68" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E68" s="23"/>
+      <c r="E68" s="25"/>
       <c r="F68" s="1">
         <v>62</v>
       </c>
-      <c r="G68" s="23"/>
+      <c r="G68" s="25"/>
       <c r="H68" s="1"/>
       <c r="I68" s="16">
         <v>6</v>
@@ -4876,11 +4182,11 @@
       <c r="L68" s="16"/>
       <c r="M68" s="16">
         <f>SUM($L$3:L68)</f>
-        <v>112.5</v>
+        <v>131</v>
       </c>
       <c r="N68" s="16">
         <f t="shared" ref="N68:N126" si="3">SUM($I$128-M68)</f>
-        <v>303.5</v>
+        <v>285</v>
       </c>
     </row>
     <row r="69" spans="2:14" x14ac:dyDescent="0.25">
@@ -4891,11 +4197,11 @@
       <c r="D69" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E69" s="23"/>
+      <c r="E69" s="25"/>
       <c r="F69" s="1">
         <v>63</v>
       </c>
-      <c r="G69" s="23"/>
+      <c r="G69" s="25"/>
       <c r="H69" s="1"/>
       <c r="I69" s="16">
         <v>0</v>
@@ -4911,11 +4217,11 @@
       <c r="L69" s="16"/>
       <c r="M69" s="16">
         <f>SUM($L$3:L69)</f>
-        <v>112.5</v>
+        <v>131</v>
       </c>
       <c r="N69" s="16">
         <f t="shared" si="3"/>
-        <v>303.5</v>
+        <v>285</v>
       </c>
     </row>
     <row r="70" spans="2:14" x14ac:dyDescent="0.25">
@@ -4926,11 +4232,11 @@
       <c r="D70" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E70" s="23"/>
+      <c r="E70" s="25"/>
       <c r="F70" s="1">
         <v>64</v>
       </c>
-      <c r="G70" s="23"/>
+      <c r="G70" s="25"/>
       <c r="H70" s="1"/>
       <c r="I70" s="16">
         <v>6</v>
@@ -4946,11 +4252,11 @@
       <c r="L70" s="16"/>
       <c r="M70" s="16">
         <f>SUM($L$3:L70)</f>
-        <v>112.5</v>
+        <v>131</v>
       </c>
       <c r="N70" s="16">
         <f t="shared" si="3"/>
-        <v>303.5</v>
+        <v>285</v>
       </c>
     </row>
     <row r="71" spans="2:14" x14ac:dyDescent="0.25">
@@ -4961,11 +4267,11 @@
       <c r="D71" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E71" s="23"/>
+      <c r="E71" s="25"/>
       <c r="F71" s="1">
         <v>65</v>
       </c>
-      <c r="G71" s="24"/>
+      <c r="G71" s="26"/>
       <c r="H71" s="1"/>
       <c r="I71" s="16">
         <v>2</v>
@@ -4981,11 +4287,11 @@
       <c r="L71" s="16"/>
       <c r="M71" s="16">
         <f>SUM($L$3:L71)</f>
-        <v>112.5</v>
+        <v>131</v>
       </c>
       <c r="N71" s="16">
         <f t="shared" si="3"/>
-        <v>303.5</v>
+        <v>285</v>
       </c>
     </row>
     <row r="72" spans="2:14" x14ac:dyDescent="0.25">
@@ -4996,7 +4302,7 @@
       <c r="D72" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E72" s="24"/>
+      <c r="E72" s="26"/>
       <c r="F72" s="1">
         <v>66</v>
       </c>
@@ -5016,11 +4322,11 @@
       <c r="L72" s="16"/>
       <c r="M72" s="16">
         <f>SUM($L$3:L72)</f>
-        <v>112.5</v>
+        <v>131</v>
       </c>
       <c r="N72" s="16">
         <f t="shared" si="3"/>
-        <v>303.5</v>
+        <v>285</v>
       </c>
     </row>
     <row r="73" spans="2:14" x14ac:dyDescent="0.25">
@@ -5031,13 +4337,13 @@
       <c r="D73" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E73" s="22">
+      <c r="E73" s="24">
         <v>11</v>
       </c>
       <c r="F73" s="1">
         <v>67</v>
       </c>
-      <c r="G73" s="22" t="s">
+      <c r="G73" s="24" t="s">
         <v>14</v>
       </c>
       <c r="H73" s="1"/>
@@ -5055,11 +4361,11 @@
       <c r="L73" s="16"/>
       <c r="M73" s="16">
         <f>SUM($L$3:L73)</f>
-        <v>112.5</v>
+        <v>131</v>
       </c>
       <c r="N73" s="16">
         <f t="shared" si="3"/>
-        <v>303.5</v>
+        <v>285</v>
       </c>
     </row>
     <row r="74" spans="2:14" x14ac:dyDescent="0.25">
@@ -5070,11 +4376,11 @@
       <c r="D74" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E74" s="23"/>
+      <c r="E74" s="25"/>
       <c r="F74" s="1">
         <v>68</v>
       </c>
-      <c r="G74" s="23"/>
+      <c r="G74" s="25"/>
       <c r="H74" s="1"/>
       <c r="I74" s="16">
         <v>4</v>
@@ -5090,11 +4396,11 @@
       <c r="L74" s="16"/>
       <c r="M74" s="16">
         <f>SUM($L$3:L74)</f>
-        <v>112.5</v>
+        <v>131</v>
       </c>
       <c r="N74" s="16">
         <f t="shared" si="3"/>
-        <v>303.5</v>
+        <v>285</v>
       </c>
     </row>
     <row r="75" spans="2:14" x14ac:dyDescent="0.25">
@@ -5105,11 +4411,11 @@
       <c r="D75" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E75" s="23"/>
+      <c r="E75" s="25"/>
       <c r="F75" s="1">
         <v>69</v>
       </c>
-      <c r="G75" s="23"/>
+      <c r="G75" s="25"/>
       <c r="H75" s="1"/>
       <c r="I75" s="16">
         <v>6</v>
@@ -5125,11 +4431,11 @@
       <c r="L75" s="16"/>
       <c r="M75" s="16">
         <f>SUM($L$3:L75)</f>
-        <v>112.5</v>
+        <v>131</v>
       </c>
       <c r="N75" s="16">
         <f t="shared" si="3"/>
-        <v>303.5</v>
+        <v>285</v>
       </c>
     </row>
     <row r="76" spans="2:14" x14ac:dyDescent="0.25">
@@ -5142,11 +4448,11 @@
       <c r="D76" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E76" s="23"/>
+      <c r="E76" s="25"/>
       <c r="F76" s="1">
         <v>70</v>
       </c>
-      <c r="G76" s="23"/>
+      <c r="G76" s="25"/>
       <c r="H76" s="1"/>
       <c r="I76" s="16">
         <v>0</v>
@@ -5162,11 +4468,11 @@
       <c r="L76" s="16"/>
       <c r="M76" s="16">
         <f>SUM($L$3:L76)</f>
-        <v>112.5</v>
+        <v>131</v>
       </c>
       <c r="N76" s="16">
         <f t="shared" si="3"/>
-        <v>303.5</v>
+        <v>285</v>
       </c>
     </row>
     <row r="77" spans="2:14" x14ac:dyDescent="0.25">
@@ -5177,11 +4483,11 @@
       <c r="D77" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E77" s="23"/>
+      <c r="E77" s="25"/>
       <c r="F77" s="1">
         <v>71</v>
       </c>
-      <c r="G77" s="23"/>
+      <c r="G77" s="25"/>
       <c r="H77" s="1"/>
       <c r="I77" s="16">
         <v>6</v>
@@ -5197,11 +4503,11 @@
       <c r="L77" s="16"/>
       <c r="M77" s="16">
         <f>SUM($L$3:L77)</f>
-        <v>112.5</v>
+        <v>131</v>
       </c>
       <c r="N77" s="16">
         <f t="shared" si="3"/>
-        <v>303.5</v>
+        <v>285</v>
       </c>
     </row>
     <row r="78" spans="2:14" x14ac:dyDescent="0.25">
@@ -5212,11 +4518,11 @@
       <c r="D78" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E78" s="23"/>
+      <c r="E78" s="25"/>
       <c r="F78" s="1">
         <v>72</v>
       </c>
-      <c r="G78" s="24"/>
+      <c r="G78" s="26"/>
       <c r="H78" s="1"/>
       <c r="I78" s="16">
         <v>2</v>
@@ -5232,11 +4538,11 @@
       <c r="L78" s="16"/>
       <c r="M78" s="16">
         <f>SUM($L$3:L78)</f>
-        <v>112.5</v>
+        <v>131</v>
       </c>
       <c r="N78" s="16">
         <f t="shared" si="3"/>
-        <v>303.5</v>
+        <v>285</v>
       </c>
     </row>
     <row r="79" spans="2:14" x14ac:dyDescent="0.25">
@@ -5247,7 +4553,7 @@
       <c r="D79" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E79" s="24"/>
+      <c r="E79" s="26"/>
       <c r="F79" s="1">
         <v>73</v>
       </c>
@@ -5267,11 +4573,11 @@
       <c r="L79" s="16"/>
       <c r="M79" s="16">
         <f>SUM($L$3:L79)</f>
-        <v>112.5</v>
+        <v>131</v>
       </c>
       <c r="N79" s="16">
         <f t="shared" si="3"/>
-        <v>303.5</v>
+        <v>285</v>
       </c>
     </row>
     <row r="80" spans="2:14" x14ac:dyDescent="0.25">
@@ -5282,13 +4588,13 @@
       <c r="D80" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E80" s="22">
+      <c r="E80" s="24">
         <v>12</v>
       </c>
       <c r="F80" s="1">
         <v>74</v>
       </c>
-      <c r="G80" s="22" t="s">
+      <c r="G80" s="24" t="s">
         <v>14</v>
       </c>
       <c r="H80" s="1"/>
@@ -5306,11 +4612,11 @@
       <c r="L80" s="16"/>
       <c r="M80" s="16">
         <f>SUM($L$3:L80)</f>
-        <v>112.5</v>
+        <v>131</v>
       </c>
       <c r="N80" s="16">
         <f t="shared" si="3"/>
-        <v>303.5</v>
+        <v>285</v>
       </c>
     </row>
     <row r="81" spans="2:14" x14ac:dyDescent="0.25">
@@ -5321,11 +4627,11 @@
       <c r="D81" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E81" s="23"/>
+      <c r="E81" s="25"/>
       <c r="F81" s="1">
         <v>75</v>
       </c>
-      <c r="G81" s="23"/>
+      <c r="G81" s="25"/>
       <c r="H81" s="1"/>
       <c r="I81" s="16">
         <v>4</v>
@@ -5341,11 +4647,11 @@
       <c r="L81" s="16"/>
       <c r="M81" s="16">
         <f>SUM($L$3:L81)</f>
-        <v>112.5</v>
+        <v>131</v>
       </c>
       <c r="N81" s="16">
         <f t="shared" si="3"/>
-        <v>303.5</v>
+        <v>285</v>
       </c>
     </row>
     <row r="82" spans="2:14" x14ac:dyDescent="0.25">
@@ -5356,11 +4662,11 @@
       <c r="D82" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E82" s="23"/>
+      <c r="E82" s="25"/>
       <c r="F82" s="1">
         <v>76</v>
       </c>
-      <c r="G82" s="23"/>
+      <c r="G82" s="25"/>
       <c r="H82" s="1"/>
       <c r="I82" s="16">
         <v>6</v>
@@ -5376,11 +4682,11 @@
       <c r="L82" s="16"/>
       <c r="M82" s="16">
         <f>SUM($L$3:L82)</f>
-        <v>112.5</v>
+        <v>131</v>
       </c>
       <c r="N82" s="16">
         <f t="shared" si="3"/>
-        <v>303.5</v>
+        <v>285</v>
       </c>
     </row>
     <row r="83" spans="2:14" x14ac:dyDescent="0.25">
@@ -5391,11 +4697,11 @@
       <c r="D83" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E83" s="23"/>
+      <c r="E83" s="25"/>
       <c r="F83" s="1">
         <v>77</v>
       </c>
-      <c r="G83" s="23"/>
+      <c r="G83" s="25"/>
       <c r="H83" s="1"/>
       <c r="I83" s="16">
         <v>0</v>
@@ -5411,11 +4717,11 @@
       <c r="L83" s="16"/>
       <c r="M83" s="16">
         <f>SUM($L$3:L83)</f>
-        <v>112.5</v>
+        <v>131</v>
       </c>
       <c r="N83" s="16">
         <f t="shared" si="3"/>
-        <v>303.5</v>
+        <v>285</v>
       </c>
     </row>
     <row r="84" spans="2:14" x14ac:dyDescent="0.25">
@@ -5426,11 +4732,11 @@
       <c r="D84" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E84" s="23"/>
+      <c r="E84" s="25"/>
       <c r="F84" s="1">
         <v>78</v>
       </c>
-      <c r="G84" s="23"/>
+      <c r="G84" s="25"/>
       <c r="H84" s="1"/>
       <c r="I84" s="16">
         <v>6</v>
@@ -5446,11 +4752,11 @@
       <c r="L84" s="16"/>
       <c r="M84" s="16">
         <f>SUM($L$3:L84)</f>
-        <v>112.5</v>
+        <v>131</v>
       </c>
       <c r="N84" s="16">
         <f t="shared" si="3"/>
-        <v>303.5</v>
+        <v>285</v>
       </c>
     </row>
     <row r="85" spans="2:14" x14ac:dyDescent="0.25">
@@ -5461,11 +4767,11 @@
       <c r="D85" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E85" s="23"/>
+      <c r="E85" s="25"/>
       <c r="F85" s="1">
         <v>79</v>
       </c>
-      <c r="G85" s="24"/>
+      <c r="G85" s="26"/>
       <c r="H85" s="1"/>
       <c r="I85" s="16">
         <v>2</v>
@@ -5481,11 +4787,11 @@
       <c r="L85" s="16"/>
       <c r="M85" s="16">
         <f>SUM($L$3:L85)</f>
-        <v>112.5</v>
+        <v>131</v>
       </c>
       <c r="N85" s="16">
         <f t="shared" si="3"/>
-        <v>303.5</v>
+        <v>285</v>
       </c>
     </row>
     <row r="86" spans="2:14" x14ac:dyDescent="0.25">
@@ -5496,7 +4802,7 @@
       <c r="D86" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E86" s="24"/>
+      <c r="E86" s="26"/>
       <c r="F86" s="1">
         <v>80</v>
       </c>
@@ -5516,11 +4822,11 @@
       <c r="L86" s="16"/>
       <c r="M86" s="16">
         <f>SUM($L$3:L86)</f>
-        <v>112.5</v>
+        <v>131</v>
       </c>
       <c r="N86" s="16">
         <f t="shared" si="3"/>
-        <v>303.5</v>
+        <v>285</v>
       </c>
     </row>
     <row r="87" spans="2:14" x14ac:dyDescent="0.25">
@@ -5531,7 +4837,7 @@
       <c r="D87" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E87" s="22">
+      <c r="E87" s="24">
         <v>13</v>
       </c>
       <c r="F87" s="1">
@@ -5555,11 +4861,11 @@
       <c r="L87" s="16"/>
       <c r="M87" s="16">
         <f>SUM($L$3:L87)</f>
-        <v>112.5</v>
+        <v>131</v>
       </c>
       <c r="N87" s="16">
         <f t="shared" si="3"/>
-        <v>303.5</v>
+        <v>285</v>
       </c>
     </row>
     <row r="88" spans="2:14" x14ac:dyDescent="0.25">
@@ -5570,7 +4876,7 @@
       <c r="D88" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E88" s="23"/>
+      <c r="E88" s="25"/>
       <c r="F88" s="1">
         <v>82</v>
       </c>
@@ -5590,11 +4896,11 @@
       <c r="L88" s="16"/>
       <c r="M88" s="16">
         <f>SUM($L$3:L88)</f>
-        <v>112.5</v>
+        <v>131</v>
       </c>
       <c r="N88" s="16">
         <f t="shared" si="3"/>
-        <v>303.5</v>
+        <v>285</v>
       </c>
     </row>
     <row r="89" spans="2:14" x14ac:dyDescent="0.25">
@@ -5605,7 +4911,7 @@
       <c r="D89" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E89" s="23"/>
+      <c r="E89" s="25"/>
       <c r="F89" s="1">
         <v>83</v>
       </c>
@@ -5625,11 +4931,11 @@
       <c r="L89" s="16"/>
       <c r="M89" s="16">
         <f>SUM($L$3:L89)</f>
-        <v>112.5</v>
+        <v>131</v>
       </c>
       <c r="N89" s="16">
         <f t="shared" si="3"/>
-        <v>303.5</v>
+        <v>285</v>
       </c>
     </row>
     <row r="90" spans="2:14" x14ac:dyDescent="0.25">
@@ -5640,7 +4946,7 @@
       <c r="D90" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E90" s="23"/>
+      <c r="E90" s="25"/>
       <c r="F90" s="1">
         <v>84</v>
       </c>
@@ -5660,11 +4966,11 @@
       <c r="L90" s="16"/>
       <c r="M90" s="16">
         <f>SUM($L$3:L90)</f>
-        <v>112.5</v>
+        <v>131</v>
       </c>
       <c r="N90" s="16">
         <f t="shared" si="3"/>
-        <v>303.5</v>
+        <v>285</v>
       </c>
     </row>
     <row r="91" spans="2:14" x14ac:dyDescent="0.25">
@@ -5675,7 +4981,7 @@
       <c r="D91" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E91" s="23"/>
+      <c r="E91" s="25"/>
       <c r="F91" s="1">
         <v>85</v>
       </c>
@@ -5695,11 +5001,11 @@
       <c r="L91" s="16"/>
       <c r="M91" s="16">
         <f>SUM($L$3:L91)</f>
-        <v>112.5</v>
+        <v>131</v>
       </c>
       <c r="N91" s="16">
         <f t="shared" si="3"/>
-        <v>303.5</v>
+        <v>285</v>
       </c>
     </row>
     <row r="92" spans="2:14" x14ac:dyDescent="0.25">
@@ -5710,7 +5016,7 @@
       <c r="D92" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E92" s="23"/>
+      <c r="E92" s="25"/>
       <c r="F92" s="1">
         <v>86</v>
       </c>
@@ -5730,11 +5036,11 @@
       <c r="L92" s="16"/>
       <c r="M92" s="16">
         <f>SUM($L$3:L92)</f>
-        <v>112.5</v>
+        <v>131</v>
       </c>
       <c r="N92" s="16">
         <f t="shared" si="3"/>
-        <v>303.5</v>
+        <v>285</v>
       </c>
     </row>
     <row r="93" spans="2:14" x14ac:dyDescent="0.25">
@@ -5745,7 +5051,7 @@
       <c r="D93" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E93" s="24"/>
+      <c r="E93" s="26"/>
       <c r="F93" s="1">
         <v>87</v>
       </c>
@@ -5765,11 +5071,11 @@
       <c r="L93" s="16"/>
       <c r="M93" s="16">
         <f>SUM($L$3:L93)</f>
-        <v>112.5</v>
+        <v>131</v>
       </c>
       <c r="N93" s="16">
         <f t="shared" si="3"/>
-        <v>303.5</v>
+        <v>285</v>
       </c>
     </row>
     <row r="94" spans="2:14" x14ac:dyDescent="0.25">
@@ -5780,7 +5086,7 @@
       <c r="D94" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E94" s="22">
+      <c r="E94" s="24">
         <v>14</v>
       </c>
       <c r="F94" s="1">
@@ -5804,11 +5110,11 @@
       <c r="L94" s="16"/>
       <c r="M94" s="16">
         <f>SUM($L$3:L94)</f>
-        <v>112.5</v>
+        <v>131</v>
       </c>
       <c r="N94" s="16">
         <f t="shared" si="3"/>
-        <v>303.5</v>
+        <v>285</v>
       </c>
     </row>
     <row r="95" spans="2:14" x14ac:dyDescent="0.25">
@@ -5819,7 +5125,7 @@
       <c r="D95" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E95" s="23"/>
+      <c r="E95" s="25"/>
       <c r="F95" s="1">
         <v>89</v>
       </c>
@@ -5839,11 +5145,11 @@
       <c r="L95" s="16"/>
       <c r="M95" s="16">
         <f>SUM($L$3:L95)</f>
-        <v>112.5</v>
+        <v>131</v>
       </c>
       <c r="N95" s="16">
         <f t="shared" si="3"/>
-        <v>303.5</v>
+        <v>285</v>
       </c>
     </row>
     <row r="96" spans="2:14" x14ac:dyDescent="0.25">
@@ -5854,7 +5160,7 @@
       <c r="D96" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E96" s="23"/>
+      <c r="E96" s="25"/>
       <c r="F96" s="1">
         <v>90</v>
       </c>
@@ -5874,11 +5180,11 @@
       <c r="L96" s="16"/>
       <c r="M96" s="16">
         <f>SUM($L$3:L96)</f>
-        <v>112.5</v>
+        <v>131</v>
       </c>
       <c r="N96" s="16">
         <f t="shared" si="3"/>
-        <v>303.5</v>
+        <v>285</v>
       </c>
     </row>
     <row r="97" spans="2:14" x14ac:dyDescent="0.25">
@@ -5889,7 +5195,7 @@
       <c r="D97" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E97" s="23"/>
+      <c r="E97" s="25"/>
       <c r="F97" s="1">
         <v>91</v>
       </c>
@@ -5909,11 +5215,11 @@
       <c r="L97" s="16"/>
       <c r="M97" s="16">
         <f>SUM($L$3:L97)</f>
-        <v>112.5</v>
+        <v>131</v>
       </c>
       <c r="N97" s="16">
         <f t="shared" si="3"/>
-        <v>303.5</v>
+        <v>285</v>
       </c>
     </row>
     <row r="98" spans="2:14" x14ac:dyDescent="0.25">
@@ -5924,7 +5230,7 @@
       <c r="D98" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E98" s="23"/>
+      <c r="E98" s="25"/>
       <c r="F98" s="1">
         <v>92</v>
       </c>
@@ -5944,11 +5250,11 @@
       <c r="L98" s="16"/>
       <c r="M98" s="16">
         <f>SUM($L$3:L98)</f>
-        <v>112.5</v>
+        <v>131</v>
       </c>
       <c r="N98" s="16">
         <f t="shared" si="3"/>
-        <v>303.5</v>
+        <v>285</v>
       </c>
     </row>
     <row r="99" spans="2:14" x14ac:dyDescent="0.25">
@@ -5959,7 +5265,7 @@
       <c r="D99" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E99" s="23"/>
+      <c r="E99" s="25"/>
       <c r="F99" s="1">
         <v>93</v>
       </c>
@@ -5979,11 +5285,11 @@
       <c r="L99" s="16"/>
       <c r="M99" s="16">
         <f>SUM($L$3:L99)</f>
-        <v>112.5</v>
+        <v>131</v>
       </c>
       <c r="N99" s="16">
         <f t="shared" si="3"/>
-        <v>303.5</v>
+        <v>285</v>
       </c>
     </row>
     <row r="100" spans="2:14" x14ac:dyDescent="0.25">
@@ -5994,7 +5300,7 @@
       <c r="D100" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E100" s="24"/>
+      <c r="E100" s="26"/>
       <c r="F100" s="1">
         <v>94</v>
       </c>
@@ -6014,11 +5320,11 @@
       <c r="L100" s="16"/>
       <c r="M100" s="16">
         <f>SUM($L$3:L100)</f>
-        <v>112.5</v>
+        <v>131</v>
       </c>
       <c r="N100" s="16">
         <f t="shared" si="3"/>
-        <v>303.5</v>
+        <v>285</v>
       </c>
     </row>
     <row r="101" spans="2:14" x14ac:dyDescent="0.25">
@@ -6029,13 +5335,13 @@
       <c r="D101" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E101" s="22">
+      <c r="E101" s="24">
         <v>15</v>
       </c>
       <c r="F101" s="1">
         <v>95</v>
       </c>
-      <c r="G101" s="22" t="s">
+      <c r="G101" s="24" t="s">
         <v>23</v>
       </c>
       <c r="H101" s="1"/>
@@ -6053,11 +5359,11 @@
       <c r="L101" s="16"/>
       <c r="M101" s="16">
         <f>SUM($L$3:L101)</f>
-        <v>112.5</v>
+        <v>131</v>
       </c>
       <c r="N101" s="16">
         <f t="shared" si="3"/>
-        <v>303.5</v>
+        <v>285</v>
       </c>
     </row>
     <row r="102" spans="2:14" x14ac:dyDescent="0.25">
@@ -6068,11 +5374,11 @@
       <c r="D102" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E102" s="23"/>
+      <c r="E102" s="25"/>
       <c r="F102" s="1">
         <v>96</v>
       </c>
-      <c r="G102" s="23"/>
+      <c r="G102" s="25"/>
       <c r="H102" s="1"/>
       <c r="I102" s="16">
         <v>4</v>
@@ -6088,11 +5394,11 @@
       <c r="L102" s="16"/>
       <c r="M102" s="16">
         <f>SUM($L$3:L102)</f>
-        <v>112.5</v>
+        <v>131</v>
       </c>
       <c r="N102" s="16">
         <f t="shared" si="3"/>
-        <v>303.5</v>
+        <v>285</v>
       </c>
     </row>
     <row r="103" spans="2:14" x14ac:dyDescent="0.25">
@@ -6103,11 +5409,11 @@
       <c r="D103" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E103" s="23"/>
+      <c r="E103" s="25"/>
       <c r="F103" s="1">
         <v>97</v>
       </c>
-      <c r="G103" s="23"/>
+      <c r="G103" s="25"/>
       <c r="H103" s="1"/>
       <c r="I103" s="16">
         <v>6</v>
@@ -6123,11 +5429,11 @@
       <c r="L103" s="16"/>
       <c r="M103" s="16">
         <f>SUM($L$3:L103)</f>
-        <v>112.5</v>
+        <v>131</v>
       </c>
       <c r="N103" s="16">
         <f t="shared" si="3"/>
-        <v>303.5</v>
+        <v>285</v>
       </c>
     </row>
     <row r="104" spans="2:14" x14ac:dyDescent="0.25">
@@ -6138,11 +5444,11 @@
       <c r="D104" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E104" s="23"/>
+      <c r="E104" s="25"/>
       <c r="F104" s="1">
         <v>98</v>
       </c>
-      <c r="G104" s="23"/>
+      <c r="G104" s="25"/>
       <c r="H104" s="1"/>
       <c r="I104" s="16">
         <v>0</v>
@@ -6158,11 +5464,11 @@
       <c r="L104" s="16"/>
       <c r="M104" s="16">
         <f>SUM($L$3:L104)</f>
-        <v>112.5</v>
+        <v>131</v>
       </c>
       <c r="N104" s="16">
         <f t="shared" si="3"/>
-        <v>303.5</v>
+        <v>285</v>
       </c>
     </row>
     <row r="105" spans="2:14" x14ac:dyDescent="0.25">
@@ -6173,11 +5479,11 @@
       <c r="D105" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E105" s="23"/>
+      <c r="E105" s="25"/>
       <c r="F105" s="1">
         <v>99</v>
       </c>
-      <c r="G105" s="23"/>
+      <c r="G105" s="25"/>
       <c r="H105" s="1"/>
       <c r="I105" s="16">
         <v>6</v>
@@ -6193,11 +5499,11 @@
       <c r="L105" s="16"/>
       <c r="M105" s="16">
         <f>SUM($L$3:L105)</f>
-        <v>112.5</v>
+        <v>131</v>
       </c>
       <c r="N105" s="16">
         <f t="shared" si="3"/>
-        <v>303.5</v>
+        <v>285</v>
       </c>
     </row>
     <row r="106" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -6210,11 +5516,11 @@
       <c r="D106" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E106" s="23"/>
+      <c r="E106" s="25"/>
       <c r="F106" s="1">
         <v>100</v>
       </c>
-      <c r="G106" s="24"/>
+      <c r="G106" s="26"/>
       <c r="H106" s="1"/>
       <c r="I106" s="16">
         <v>4</v>
@@ -6230,11 +5536,11 @@
       <c r="L106" s="16"/>
       <c r="M106" s="16">
         <f>SUM($L$3:L106)</f>
-        <v>112.5</v>
+        <v>131</v>
       </c>
       <c r="N106" s="16">
         <f t="shared" si="3"/>
-        <v>303.5</v>
+        <v>285</v>
       </c>
     </row>
     <row r="107" spans="2:14" x14ac:dyDescent="0.25">
@@ -6245,7 +5551,7 @@
       <c r="D107" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E107" s="24"/>
+      <c r="E107" s="26"/>
       <c r="F107" s="1">
         <v>101</v>
       </c>
@@ -6265,11 +5571,11 @@
       <c r="L107" s="16"/>
       <c r="M107" s="16">
         <f>SUM($L$3:L107)</f>
-        <v>112.5</v>
+        <v>131</v>
       </c>
       <c r="N107" s="16">
         <f t="shared" si="3"/>
-        <v>303.5</v>
+        <v>285</v>
       </c>
     </row>
     <row r="108" spans="2:14" x14ac:dyDescent="0.25">
@@ -6280,7 +5586,7 @@
       <c r="D108" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E108" s="22">
+      <c r="E108" s="24">
         <v>16</v>
       </c>
       <c r="F108" s="1">
@@ -6304,11 +5610,11 @@
       <c r="L108" s="16"/>
       <c r="M108" s="16">
         <f>SUM($L$3:L108)</f>
-        <v>112.5</v>
+        <v>131</v>
       </c>
       <c r="N108" s="16">
         <f t="shared" si="3"/>
-        <v>303.5</v>
+        <v>285</v>
       </c>
     </row>
     <row r="109" spans="2:14" x14ac:dyDescent="0.25">
@@ -6319,7 +5625,7 @@
       <c r="D109" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E109" s="23"/>
+      <c r="E109" s="25"/>
       <c r="F109" s="1">
         <v>103</v>
       </c>
@@ -6339,11 +5645,11 @@
       <c r="L109" s="16"/>
       <c r="M109" s="16">
         <f>SUM($L$3:L109)</f>
-        <v>112.5</v>
+        <v>131</v>
       </c>
       <c r="N109" s="16">
         <f t="shared" si="3"/>
-        <v>303.5</v>
+        <v>285</v>
       </c>
     </row>
     <row r="110" spans="2:14" x14ac:dyDescent="0.25">
@@ -6354,7 +5660,7 @@
       <c r="D110" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E110" s="23"/>
+      <c r="E110" s="25"/>
       <c r="F110" s="1">
         <v>104</v>
       </c>
@@ -6374,11 +5680,11 @@
       <c r="L110" s="16"/>
       <c r="M110" s="16">
         <f>SUM($L$3:L110)</f>
-        <v>112.5</v>
+        <v>131</v>
       </c>
       <c r="N110" s="16">
         <f t="shared" si="3"/>
-        <v>303.5</v>
+        <v>285</v>
       </c>
     </row>
     <row r="111" spans="2:14" x14ac:dyDescent="0.25">
@@ -6389,7 +5695,7 @@
       <c r="D111" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E111" s="23"/>
+      <c r="E111" s="25"/>
       <c r="F111" s="1">
         <v>105</v>
       </c>
@@ -6409,11 +5715,11 @@
       <c r="L111" s="16"/>
       <c r="M111" s="16">
         <f>SUM($L$3:L111)</f>
-        <v>112.5</v>
+        <v>131</v>
       </c>
       <c r="N111" s="16">
         <f t="shared" si="3"/>
-        <v>303.5</v>
+        <v>285</v>
       </c>
     </row>
     <row r="112" spans="2:14" x14ac:dyDescent="0.25">
@@ -6424,7 +5730,7 @@
       <c r="D112" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E112" s="23"/>
+      <c r="E112" s="25"/>
       <c r="F112" s="1">
         <v>106</v>
       </c>
@@ -6446,11 +5752,11 @@
       <c r="L112" s="16"/>
       <c r="M112" s="16">
         <f>SUM($L$3:L112)</f>
-        <v>112.5</v>
+        <v>131</v>
       </c>
       <c r="N112" s="16">
         <f t="shared" si="3"/>
-        <v>303.5</v>
+        <v>285</v>
       </c>
     </row>
     <row r="113" spans="2:14" x14ac:dyDescent="0.25">
@@ -6461,7 +5767,7 @@
       <c r="D113" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E113" s="23"/>
+      <c r="E113" s="25"/>
       <c r="F113" s="1">
         <v>107</v>
       </c>
@@ -6483,11 +5789,11 @@
       <c r="L113" s="16"/>
       <c r="M113" s="16">
         <f>SUM($L$3:L113)</f>
-        <v>112.5</v>
+        <v>131</v>
       </c>
       <c r="N113" s="16">
         <f t="shared" si="3"/>
-        <v>303.5</v>
+        <v>285</v>
       </c>
     </row>
     <row r="114" spans="2:14" x14ac:dyDescent="0.25">
@@ -6498,7 +5804,7 @@
       <c r="D114" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E114" s="24"/>
+      <c r="E114" s="26"/>
       <c r="F114" s="1">
         <v>108</v>
       </c>
@@ -6518,11 +5824,11 @@
       <c r="L114" s="16"/>
       <c r="M114" s="16">
         <f>SUM($L$3:L114)</f>
-        <v>112.5</v>
+        <v>131</v>
       </c>
       <c r="N114" s="16">
         <f t="shared" si="3"/>
-        <v>303.5</v>
+        <v>285</v>
       </c>
     </row>
     <row r="115" spans="2:14" x14ac:dyDescent="0.25">
@@ -6533,13 +5839,13 @@
       <c r="D115" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E115" s="22">
+      <c r="E115" s="24">
         <v>17</v>
       </c>
       <c r="F115" s="1">
         <v>109</v>
       </c>
-      <c r="G115" s="22" t="s">
+      <c r="G115" s="24" t="s">
         <v>21</v>
       </c>
       <c r="H115" s="1"/>
@@ -6557,11 +5863,11 @@
       <c r="L115" s="16"/>
       <c r="M115" s="16">
         <f>SUM($L$3:L115)</f>
-        <v>112.5</v>
+        <v>131</v>
       </c>
       <c r="N115" s="16">
         <f t="shared" si="3"/>
-        <v>303.5</v>
+        <v>285</v>
       </c>
     </row>
     <row r="116" spans="2:14" x14ac:dyDescent="0.25">
@@ -6572,11 +5878,11 @@
       <c r="D116" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E116" s="23"/>
+      <c r="E116" s="25"/>
       <c r="F116" s="1">
         <v>110</v>
       </c>
-      <c r="G116" s="23"/>
+      <c r="G116" s="25"/>
       <c r="H116" s="1"/>
       <c r="I116" s="16">
         <v>6</v>
@@ -6592,11 +5898,11 @@
       <c r="L116" s="16"/>
       <c r="M116" s="16">
         <f>SUM($L$3:L116)</f>
-        <v>112.5</v>
+        <v>131</v>
       </c>
       <c r="N116" s="16">
         <f t="shared" si="3"/>
-        <v>303.5</v>
+        <v>285</v>
       </c>
     </row>
     <row r="117" spans="2:14" x14ac:dyDescent="0.25">
@@ -6607,11 +5913,11 @@
       <c r="D117" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E117" s="23"/>
+      <c r="E117" s="25"/>
       <c r="F117" s="1">
         <v>111</v>
       </c>
-      <c r="G117" s="23"/>
+      <c r="G117" s="25"/>
       <c r="H117" s="1"/>
       <c r="I117" s="16">
         <v>6</v>
@@ -6627,11 +5933,11 @@
       <c r="L117" s="16"/>
       <c r="M117" s="16">
         <f>SUM($L$3:L117)</f>
-        <v>112.5</v>
+        <v>131</v>
       </c>
       <c r="N117" s="16">
         <f t="shared" si="3"/>
-        <v>303.5</v>
+        <v>285</v>
       </c>
     </row>
     <row r="118" spans="2:14" x14ac:dyDescent="0.25">
@@ -6642,11 +5948,11 @@
       <c r="D118" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E118" s="23"/>
+      <c r="E118" s="25"/>
       <c r="F118" s="1">
         <v>112</v>
       </c>
-      <c r="G118" s="23"/>
+      <c r="G118" s="25"/>
       <c r="H118" s="1"/>
       <c r="I118" s="16">
         <v>6</v>
@@ -6662,11 +5968,11 @@
       <c r="L118" s="16"/>
       <c r="M118" s="16">
         <f>SUM($L$3:L118)</f>
-        <v>112.5</v>
+        <v>131</v>
       </c>
       <c r="N118" s="16">
         <f t="shared" si="3"/>
-        <v>303.5</v>
+        <v>285</v>
       </c>
     </row>
     <row r="119" spans="2:14" x14ac:dyDescent="0.25">
@@ -6677,11 +5983,11 @@
       <c r="D119" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E119" s="23"/>
+      <c r="E119" s="25"/>
       <c r="F119" s="1">
         <v>113</v>
       </c>
-      <c r="G119" s="23"/>
+      <c r="G119" s="25"/>
       <c r="H119" s="1"/>
       <c r="I119" s="16">
         <v>6</v>
@@ -6697,11 +6003,11 @@
       <c r="L119" s="16"/>
       <c r="M119" s="16">
         <f>SUM($L$3:L119)</f>
-        <v>112.5</v>
+        <v>131</v>
       </c>
       <c r="N119" s="16">
         <f t="shared" si="3"/>
-        <v>303.5</v>
+        <v>285</v>
       </c>
     </row>
     <row r="120" spans="2:14" x14ac:dyDescent="0.25">
@@ -6712,11 +6018,11 @@
       <c r="D120" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E120" s="23"/>
+      <c r="E120" s="25"/>
       <c r="F120" s="1">
         <v>114</v>
       </c>
-      <c r="G120" s="24"/>
+      <c r="G120" s="26"/>
       <c r="H120" s="1"/>
       <c r="I120" s="16">
         <v>4</v>
@@ -6732,11 +6038,11 @@
       <c r="L120" s="16"/>
       <c r="M120" s="16">
         <f>SUM($L$3:L120)</f>
-        <v>112.5</v>
+        <v>131</v>
       </c>
       <c r="N120" s="16">
         <f t="shared" si="3"/>
-        <v>303.5</v>
+        <v>285</v>
       </c>
     </row>
     <row r="121" spans="2:14" x14ac:dyDescent="0.25">
@@ -6747,7 +6053,7 @@
       <c r="D121" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E121" s="24"/>
+      <c r="E121" s="26"/>
       <c r="F121" s="1">
         <v>115</v>
       </c>
@@ -6767,11 +6073,11 @@
       <c r="L121" s="16"/>
       <c r="M121" s="16">
         <f>SUM($L$3:L121)</f>
-        <v>112.5</v>
+        <v>131</v>
       </c>
       <c r="N121" s="16">
         <f t="shared" si="3"/>
-        <v>303.5</v>
+        <v>285</v>
       </c>
     </row>
     <row r="122" spans="2:14" x14ac:dyDescent="0.25">
@@ -6782,13 +6088,13 @@
       <c r="D122" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E122" s="22">
+      <c r="E122" s="24">
         <v>18</v>
       </c>
       <c r="F122" s="1">
         <v>116</v>
       </c>
-      <c r="G122" s="22" t="s">
+      <c r="G122" s="24" t="s">
         <v>21</v>
       </c>
       <c r="H122" s="29" t="s">
@@ -6806,11 +6112,11 @@
       <c r="L122" s="16"/>
       <c r="M122" s="16">
         <f>SUM($L$3:L122)</f>
-        <v>112.5</v>
+        <v>131</v>
       </c>
       <c r="N122" s="16">
         <f t="shared" si="3"/>
-        <v>303.5</v>
+        <v>285</v>
       </c>
     </row>
     <row r="123" spans="2:14" x14ac:dyDescent="0.25">
@@ -6821,11 +6127,11 @@
       <c r="D123" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E123" s="23"/>
+      <c r="E123" s="25"/>
       <c r="F123" s="1">
         <v>117</v>
       </c>
-      <c r="G123" s="23"/>
+      <c r="G123" s="25"/>
       <c r="H123" s="30"/>
       <c r="I123" s="16"/>
       <c r="J123" s="16">
@@ -6839,11 +6145,11 @@
       <c r="L123" s="16"/>
       <c r="M123" s="16">
         <f>SUM($L$3:L123)</f>
-        <v>112.5</v>
+        <v>131</v>
       </c>
       <c r="N123" s="16">
         <f t="shared" si="3"/>
-        <v>303.5</v>
+        <v>285</v>
       </c>
     </row>
     <row r="124" spans="2:14" x14ac:dyDescent="0.25">
@@ -6854,11 +6160,11 @@
       <c r="D124" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E124" s="23"/>
+      <c r="E124" s="25"/>
       <c r="F124" s="1">
         <v>118</v>
       </c>
-      <c r="G124" s="23"/>
+      <c r="G124" s="25"/>
       <c r="H124" s="30"/>
       <c r="I124" s="16"/>
       <c r="J124" s="16">
@@ -6872,11 +6178,11 @@
       <c r="L124" s="16"/>
       <c r="M124" s="16">
         <f>SUM($L$3:L124)</f>
-        <v>112.5</v>
+        <v>131</v>
       </c>
       <c r="N124" s="16">
         <f t="shared" si="3"/>
-        <v>303.5</v>
+        <v>285</v>
       </c>
     </row>
     <row r="125" spans="2:14" x14ac:dyDescent="0.25">
@@ -6887,11 +6193,11 @@
       <c r="D125" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E125" s="23"/>
+      <c r="E125" s="25"/>
       <c r="F125" s="1">
         <v>119</v>
       </c>
-      <c r="G125" s="23"/>
+      <c r="G125" s="25"/>
       <c r="H125" s="30"/>
       <c r="I125" s="16"/>
       <c r="J125" s="16">
@@ -6905,11 +6211,11 @@
       <c r="L125" s="16"/>
       <c r="M125" s="16">
         <f>SUM($L$3:L125)</f>
-        <v>112.5</v>
+        <v>131</v>
       </c>
       <c r="N125" s="16">
         <f t="shared" si="3"/>
-        <v>303.5</v>
+        <v>285</v>
       </c>
     </row>
     <row r="126" spans="2:14" x14ac:dyDescent="0.25">
@@ -6920,11 +6226,11 @@
       <c r="D126" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E126" s="24"/>
+      <c r="E126" s="26"/>
       <c r="F126" s="1">
         <v>120</v>
       </c>
-      <c r="G126" s="24"/>
+      <c r="G126" s="26"/>
       <c r="H126" s="31"/>
       <c r="I126" s="16"/>
       <c r="J126" s="16">
@@ -6938,11 +6244,11 @@
       <c r="L126" s="16"/>
       <c r="M126" s="16">
         <f>SUM($L$3:L126)</f>
-        <v>112.5</v>
+        <v>131</v>
       </c>
       <c r="N126" s="16">
         <f t="shared" si="3"/>
-        <v>303.5</v>
+        <v>285</v>
       </c>
     </row>
     <row r="128" spans="2:14" x14ac:dyDescent="0.25">
@@ -6953,11 +6259,7 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="B45:B75"/>
-    <mergeCell ref="G45:G50"/>
-    <mergeCell ref="G52:G57"/>
-    <mergeCell ref="G59:G64"/>
-    <mergeCell ref="G66:G71"/>
+    <mergeCell ref="G94:G99"/>
     <mergeCell ref="B3:B16"/>
     <mergeCell ref="G17:G22"/>
     <mergeCell ref="G24:G29"/>
@@ -6965,6 +6267,12 @@
     <mergeCell ref="G3:G6"/>
     <mergeCell ref="B17:B44"/>
     <mergeCell ref="G31:G36"/>
+    <mergeCell ref="B45:B75"/>
+    <mergeCell ref="G45:G50"/>
+    <mergeCell ref="G52:G57"/>
+    <mergeCell ref="G59:G64"/>
+    <mergeCell ref="G66:G71"/>
+    <mergeCell ref="E80:E86"/>
     <mergeCell ref="B106:B126"/>
     <mergeCell ref="H122:H126"/>
     <mergeCell ref="G122:G126"/>
@@ -6980,7 +6288,6 @@
     <mergeCell ref="E115:E121"/>
     <mergeCell ref="E122:E126"/>
     <mergeCell ref="G87:G92"/>
-    <mergeCell ref="G94:G99"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="E3:E9"/>
@@ -6997,7 +6304,6 @@
     <mergeCell ref="E59:E65"/>
     <mergeCell ref="E66:E72"/>
     <mergeCell ref="E73:E79"/>
-    <mergeCell ref="E80:E86"/>
   </mergeCells>
   <conditionalFormatting sqref="I7:I126">
     <cfRule type="colorScale" priority="2">

--- a/docs/project_management/project_plan.xlsx
+++ b/docs/project_management/project_plan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="8595" windowHeight="3405"/>
+    <workbookView xWindow="360" yWindow="165" windowWidth="8595" windowHeight="3345"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="40">
   <si>
     <t>Mon</t>
   </si>
@@ -117,6 +117,24 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>Progress Report Due</t>
+  </si>
+  <si>
+    <t>Experiment</t>
+  </si>
+  <si>
+    <t>Task breakdown, Research</t>
+  </si>
+  <si>
+    <t>Evaluate</t>
+  </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Evaluate / Write-up</t>
   </si>
 </sst>
 </file>
@@ -299,12 +317,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -314,11 +326,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -329,22 +356,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1282,11 +1300,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="61992960"/>
-        <c:axId val="61994880"/>
+        <c:axId val="87534976"/>
+        <c:axId val="134633344"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="61992960"/>
+        <c:axId val="87534976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1314,7 +1332,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61994880"/>
+        <c:crossAx val="134633344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1323,7 +1341,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="61994880"/>
+        <c:axId val="134633344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1353,7 +1371,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="61992960"/>
+        <c:crossAx val="87534976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1374,7 +1392,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="129" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="124" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1385,7 +1403,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9310872" cy="6084186"/>
+    <xdr:ext cx="9302238" cy="6083710"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
@@ -1697,8 +1715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:O128"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R16" sqref="R16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V6" sqref="V6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1710,7 +1728,7 @@
     <col min="5" max="5" width="6.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.140625" customWidth="1"/>
     <col min="7" max="7" width="24.28515625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="18.85546875" customWidth="1"/>
+    <col min="8" max="8" width="45.28515625" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="9.42578125" style="17" customWidth="1"/>
     <col min="10" max="10" width="7.85546875" style="17" customWidth="1"/>
     <col min="11" max="11" width="6.28515625" style="17" hidden="1" customWidth="1"/>
@@ -1748,17 +1766,17 @@
       <c r="I2" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="22" t="s">
+      <c r="J2" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="K2" s="23"/>
+      <c r="K2" s="36"/>
       <c r="L2" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="M2" s="22" t="s">
+      <c r="M2" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="N2" s="23"/>
+      <c r="N2" s="36"/>
     </row>
     <row r="3" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="28" t="s">
@@ -1770,11 +1788,11 @@
       <c r="D3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="24">
+      <c r="E3" s="22">
         <v>1</v>
       </c>
       <c r="F3" s="1"/>
-      <c r="G3" s="35"/>
+      <c r="G3" s="29"/>
       <c r="H3" s="1"/>
       <c r="I3" s="16"/>
       <c r="J3" s="16">
@@ -1803,9 +1821,9 @@
       <c r="D4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="25"/>
+      <c r="E4" s="23"/>
       <c r="F4" s="1"/>
-      <c r="G4" s="36"/>
+      <c r="G4" s="30"/>
       <c r="H4" s="1"/>
       <c r="I4" s="16"/>
       <c r="J4" s="16">
@@ -1834,9 +1852,9 @@
       <c r="D5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="25"/>
+      <c r="E5" s="23"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="36"/>
+      <c r="G5" s="30"/>
       <c r="H5" s="1"/>
       <c r="I5" s="16"/>
       <c r="J5" s="16">
@@ -1865,9 +1883,9 @@
       <c r="D6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="25"/>
+      <c r="E6" s="23"/>
       <c r="F6" s="1"/>
-      <c r="G6" s="37"/>
+      <c r="G6" s="31"/>
       <c r="H6" s="1"/>
       <c r="I6" s="16"/>
       <c r="J6" s="16">
@@ -1896,11 +1914,11 @@
       <c r="D7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="25"/>
+      <c r="E7" s="23"/>
       <c r="F7" s="1">
         <v>1</v>
       </c>
-      <c r="G7" s="24" t="s">
+      <c r="G7" s="22" t="s">
         <v>10</v>
       </c>
       <c r="H7" s="1"/>
@@ -1935,11 +1953,11 @@
       <c r="D8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="25"/>
+      <c r="E8" s="23"/>
       <c r="F8" s="1">
         <v>2</v>
       </c>
-      <c r="G8" s="26"/>
+      <c r="G8" s="24"/>
       <c r="H8" s="1"/>
       <c r="I8" s="16">
         <v>6</v>
@@ -1972,7 +1990,7 @@
       <c r="D9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="26"/>
+      <c r="E9" s="24"/>
       <c r="F9" s="1">
         <v>3</v>
       </c>
@@ -2009,13 +2027,13 @@
       <c r="D10" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="22">
         <v>2</v>
       </c>
       <c r="F10" s="1">
         <v>4</v>
       </c>
-      <c r="G10" s="24" t="s">
+      <c r="G10" s="22" t="s">
         <v>11</v>
       </c>
       <c r="H10" s="1"/>
@@ -2050,11 +2068,11 @@
       <c r="D11" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E11" s="25"/>
+      <c r="E11" s="23"/>
       <c r="F11" s="1">
         <v>5</v>
       </c>
-      <c r="G11" s="25"/>
+      <c r="G11" s="23"/>
       <c r="H11" s="1"/>
       <c r="I11" s="16">
         <v>4</v>
@@ -2087,11 +2105,11 @@
       <c r="D12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="25"/>
+      <c r="E12" s="23"/>
       <c r="F12" s="1">
         <v>6</v>
       </c>
-      <c r="G12" s="25"/>
+      <c r="G12" s="23"/>
       <c r="H12" s="1"/>
       <c r="I12" s="16">
         <v>6</v>
@@ -2124,11 +2142,11 @@
       <c r="D13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="25"/>
+      <c r="E13" s="23"/>
       <c r="F13" s="1">
         <v>7</v>
       </c>
-      <c r="G13" s="25"/>
+      <c r="G13" s="23"/>
       <c r="H13" s="1"/>
       <c r="I13" s="16">
         <v>0</v>
@@ -2161,11 +2179,11 @@
       <c r="D14" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="25"/>
+      <c r="E14" s="23"/>
       <c r="F14" s="1">
         <v>8</v>
       </c>
-      <c r="G14" s="25"/>
+      <c r="G14" s="23"/>
       <c r="H14" s="1"/>
       <c r="I14" s="16">
         <v>6</v>
@@ -2198,11 +2216,11 @@
       <c r="D15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="25"/>
+      <c r="E15" s="23"/>
       <c r="F15" s="1">
         <v>9</v>
       </c>
-      <c r="G15" s="26"/>
+      <c r="G15" s="24"/>
       <c r="H15" s="1"/>
       <c r="I15" s="16">
         <v>2</v>
@@ -2235,7 +2253,7 @@
       <c r="D16" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="26"/>
+      <c r="E16" s="24"/>
       <c r="F16" s="1">
         <v>10</v>
       </c>
@@ -2265,7 +2283,7 @@
       </c>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="25" t="s">
         <v>9</v>
       </c>
       <c r="C17" s="7">
@@ -2274,13 +2292,13 @@
       <c r="D17" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E17" s="24">
+      <c r="E17" s="22">
         <v>3</v>
       </c>
       <c r="F17" s="1">
         <v>11</v>
       </c>
-      <c r="G17" s="24" t="s">
+      <c r="G17" s="22" t="s">
         <v>11</v>
       </c>
       <c r="H17" s="1"/>
@@ -2308,18 +2326,18 @@
       </c>
     </row>
     <row r="18" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B18" s="33"/>
+      <c r="B18" s="26"/>
       <c r="C18" s="7">
         <v>2</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E18" s="25"/>
+      <c r="E18" s="23"/>
       <c r="F18" s="1">
         <v>12</v>
       </c>
-      <c r="G18" s="25"/>
+      <c r="G18" s="23"/>
       <c r="H18" s="1"/>
       <c r="I18" s="16">
         <v>4</v>
@@ -2345,18 +2363,18 @@
       </c>
     </row>
     <row r="19" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B19" s="33"/>
+      <c r="B19" s="26"/>
       <c r="C19" s="7">
         <v>3</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E19" s="25"/>
+      <c r="E19" s="23"/>
       <c r="F19" s="1">
         <v>13</v>
       </c>
-      <c r="G19" s="25"/>
+      <c r="G19" s="23"/>
       <c r="H19" s="1"/>
       <c r="I19" s="16">
         <v>6</v>
@@ -2382,18 +2400,18 @@
       </c>
     </row>
     <row r="20" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B20" s="33"/>
+      <c r="B20" s="26"/>
       <c r="C20" s="7">
         <v>4</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="25"/>
+      <c r="E20" s="23"/>
       <c r="F20" s="1">
         <v>14</v>
       </c>
-      <c r="G20" s="25"/>
+      <c r="G20" s="23"/>
       <c r="H20" s="1"/>
       <c r="I20" s="16">
         <v>0</v>
@@ -2420,18 +2438,18 @@
       <c r="O20" s="14"/>
     </row>
     <row r="21" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B21" s="33"/>
+      <c r="B21" s="26"/>
       <c r="C21" s="7">
         <v>5</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="25"/>
+      <c r="E21" s="23"/>
       <c r="F21" s="1">
         <v>15</v>
       </c>
-      <c r="G21" s="25"/>
+      <c r="G21" s="23"/>
       <c r="H21" s="1"/>
       <c r="I21" s="16">
         <v>6</v>
@@ -2458,18 +2476,18 @@
       <c r="O21" s="14"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B22" s="33"/>
+      <c r="B22" s="26"/>
       <c r="C22" s="7">
         <v>6</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E22" s="25"/>
+      <c r="E22" s="23"/>
       <c r="F22" s="1">
         <v>16</v>
       </c>
-      <c r="G22" s="26"/>
+      <c r="G22" s="24"/>
       <c r="H22" s="1"/>
       <c r="I22" s="16">
         <v>2</v>
@@ -2496,14 +2514,14 @@
       <c r="O22" s="14"/>
     </row>
     <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B23" s="33"/>
+      <c r="B23" s="26"/>
       <c r="C23" s="7">
         <v>7</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E23" s="26"/>
+      <c r="E23" s="24"/>
       <c r="F23" s="1">
         <v>17</v>
       </c>
@@ -2534,20 +2552,20 @@
       <c r="O23" s="14"/>
     </row>
     <row r="24" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B24" s="33"/>
+      <c r="B24" s="26"/>
       <c r="C24" s="7">
         <v>8</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E24" s="24">
+      <c r="E24" s="22">
         <v>4</v>
       </c>
       <c r="F24" s="1">
         <v>18</v>
       </c>
-      <c r="G24" s="24" t="s">
+      <c r="G24" s="22" t="s">
         <v>19</v>
       </c>
       <c r="H24" s="1"/>
@@ -2576,18 +2594,18 @@
       <c r="O24" s="14"/>
     </row>
     <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B25" s="33"/>
+      <c r="B25" s="26"/>
       <c r="C25" s="7">
         <v>9</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E25" s="25"/>
+      <c r="E25" s="23"/>
       <c r="F25" s="1">
         <v>19</v>
       </c>
-      <c r="G25" s="25"/>
+      <c r="G25" s="23"/>
       <c r="H25" s="1"/>
       <c r="I25" s="16">
         <v>4</v>
@@ -2614,18 +2632,18 @@
       <c r="O25" s="14"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B26" s="33"/>
+      <c r="B26" s="26"/>
       <c r="C26" s="7">
         <v>10</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E26" s="25"/>
+      <c r="E26" s="23"/>
       <c r="F26" s="1">
         <v>20</v>
       </c>
-      <c r="G26" s="25"/>
+      <c r="G26" s="23"/>
       <c r="H26" s="1"/>
       <c r="I26" s="16">
         <v>6</v>
@@ -2652,18 +2670,18 @@
       <c r="O26" s="14"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B27" s="33"/>
+      <c r="B27" s="26"/>
       <c r="C27" s="7">
         <v>11</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E27" s="25"/>
+      <c r="E27" s="23"/>
       <c r="F27" s="1">
         <v>21</v>
       </c>
-      <c r="G27" s="25"/>
+      <c r="G27" s="23"/>
       <c r="H27" s="1"/>
       <c r="I27" s="16">
         <v>0</v>
@@ -2690,18 +2708,18 @@
       <c r="O27" s="14"/>
     </row>
     <row r="28" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B28" s="33"/>
+      <c r="B28" s="26"/>
       <c r="C28" s="7">
         <v>12</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E28" s="25"/>
+      <c r="E28" s="23"/>
       <c r="F28" s="1">
         <v>22</v>
       </c>
-      <c r="G28" s="25"/>
+      <c r="G28" s="23"/>
       <c r="H28" s="1"/>
       <c r="I28" s="16">
         <v>6</v>
@@ -2728,18 +2746,18 @@
       <c r="O28" s="14"/>
     </row>
     <row r="29" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B29" s="33"/>
+      <c r="B29" s="26"/>
       <c r="C29" s="7">
         <v>13</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E29" s="25"/>
+      <c r="E29" s="23"/>
       <c r="F29" s="1">
         <v>23</v>
       </c>
-      <c r="G29" s="26"/>
+      <c r="G29" s="24"/>
       <c r="H29" s="1"/>
       <c r="I29" s="16">
         <v>2</v>
@@ -2766,14 +2784,14 @@
       <c r="O29" s="14"/>
     </row>
     <row r="30" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B30" s="33"/>
+      <c r="B30" s="26"/>
       <c r="C30" s="7">
         <v>14</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E30" s="26"/>
+      <c r="E30" s="24"/>
       <c r="F30" s="1">
         <v>24</v>
       </c>
@@ -2804,20 +2822,20 @@
       <c r="O30" s="14"/>
     </row>
     <row r="31" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B31" s="33"/>
+      <c r="B31" s="26"/>
       <c r="C31" s="7">
         <v>15</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E31" s="24">
+      <c r="E31" s="22">
         <v>5</v>
       </c>
       <c r="F31" s="1">
         <v>25</v>
       </c>
-      <c r="G31" s="24" t="s">
+      <c r="G31" s="22" t="s">
         <v>20</v>
       </c>
       <c r="H31" s="1"/>
@@ -2846,18 +2864,18 @@
       <c r="O31" s="14"/>
     </row>
     <row r="32" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B32" s="33"/>
+      <c r="B32" s="26"/>
       <c r="C32" s="7">
         <v>16</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E32" s="25"/>
+      <c r="E32" s="23"/>
       <c r="F32" s="1">
         <v>26</v>
       </c>
-      <c r="G32" s="25"/>
+      <c r="G32" s="23"/>
       <c r="H32" s="1"/>
       <c r="I32" s="16">
         <v>4</v>
@@ -2884,18 +2902,18 @@
       <c r="O32" s="14"/>
     </row>
     <row r="33" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B33" s="33"/>
+      <c r="B33" s="26"/>
       <c r="C33" s="7">
         <v>17</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E33" s="25"/>
+      <c r="E33" s="23"/>
       <c r="F33" s="1">
         <v>27</v>
       </c>
-      <c r="G33" s="25"/>
+      <c r="G33" s="23"/>
       <c r="H33" s="1"/>
       <c r="I33" s="16">
         <v>6</v>
@@ -2922,18 +2940,18 @@
       <c r="O33" s="14"/>
     </row>
     <row r="34" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B34" s="33"/>
+      <c r="B34" s="26"/>
       <c r="C34" s="7">
         <v>18</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E34" s="25"/>
+      <c r="E34" s="23"/>
       <c r="F34" s="1">
         <v>28</v>
       </c>
-      <c r="G34" s="25"/>
+      <c r="G34" s="23"/>
       <c r="H34" s="1"/>
       <c r="I34" s="16">
         <v>0</v>
@@ -2960,18 +2978,18 @@
       <c r="O34" s="14"/>
     </row>
     <row r="35" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B35" s="33"/>
+      <c r="B35" s="26"/>
       <c r="C35" s="7">
         <v>19</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E35" s="25"/>
+      <c r="E35" s="23"/>
       <c r="F35" s="1">
         <v>29</v>
       </c>
-      <c r="G35" s="25"/>
+      <c r="G35" s="23"/>
       <c r="H35" s="1" t="s">
         <v>31</v>
       </c>
@@ -2999,18 +3017,18 @@
       </c>
     </row>
     <row r="36" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B36" s="33"/>
+      <c r="B36" s="26"/>
       <c r="C36" s="7">
         <v>20</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E36" s="25"/>
+      <c r="E36" s="23"/>
       <c r="F36" s="1">
         <v>30</v>
       </c>
-      <c r="G36" s="26"/>
+      <c r="G36" s="24"/>
       <c r="H36" s="1"/>
       <c r="I36" s="16">
         <v>2</v>
@@ -3036,14 +3054,14 @@
       </c>
     </row>
     <row r="37" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B37" s="33"/>
+      <c r="B37" s="26"/>
       <c r="C37" s="7">
         <v>21</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E37" s="26"/>
+      <c r="E37" s="24"/>
       <c r="F37" s="1">
         <v>31</v>
       </c>
@@ -3073,20 +3091,20 @@
       </c>
     </row>
     <row r="38" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B38" s="33"/>
+      <c r="B38" s="26"/>
       <c r="C38" s="7">
         <v>22</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E38" s="24">
+      <c r="E38" s="22">
         <v>6</v>
       </c>
       <c r="F38" s="1">
         <v>32</v>
       </c>
-      <c r="G38" s="24" t="s">
+      <c r="G38" s="22" t="s">
         <v>26</v>
       </c>
       <c r="H38" s="1"/>
@@ -3114,18 +3132,18 @@
       </c>
     </row>
     <row r="39" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B39" s="33"/>
+      <c r="B39" s="26"/>
       <c r="C39" s="7">
         <v>23</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E39" s="25"/>
+      <c r="E39" s="23"/>
       <c r="F39" s="1">
         <v>33</v>
       </c>
-      <c r="G39" s="25"/>
+      <c r="G39" s="23"/>
       <c r="H39" s="1"/>
       <c r="I39" s="16">
         <v>2</v>
@@ -3151,18 +3169,18 @@
       </c>
     </row>
     <row r="40" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B40" s="33"/>
+      <c r="B40" s="26"/>
       <c r="C40" s="7">
         <v>24</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E40" s="25"/>
+      <c r="E40" s="23"/>
       <c r="F40" s="1">
         <v>34</v>
       </c>
-      <c r="G40" s="25"/>
+      <c r="G40" s="23"/>
       <c r="H40" s="1"/>
       <c r="I40" s="16">
         <v>6</v>
@@ -3188,18 +3206,18 @@
       </c>
     </row>
     <row r="41" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B41" s="33"/>
+      <c r="B41" s="26"/>
       <c r="C41" s="7">
         <v>25</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E41" s="25"/>
+      <c r="E41" s="23"/>
       <c r="F41" s="1">
         <v>35</v>
       </c>
-      <c r="G41" s="26"/>
+      <c r="G41" s="24"/>
       <c r="H41" s="1"/>
       <c r="I41" s="16">
         <v>0</v>
@@ -3225,19 +3243,21 @@
       </c>
     </row>
     <row r="42" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B42" s="33"/>
+      <c r="B42" s="26"/>
       <c r="C42" s="7">
         <v>26</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E42" s="25"/>
+      <c r="E42" s="23"/>
       <c r="F42" s="1">
         <v>36</v>
       </c>
       <c r="G42" s="5"/>
-      <c r="H42" s="1"/>
+      <c r="H42" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="I42" s="16">
         <v>6</v>
       </c>
@@ -3262,14 +3282,14 @@
       </c>
     </row>
     <row r="43" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B43" s="33"/>
+      <c r="B43" s="26"/>
       <c r="C43" s="7">
         <v>27</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E43" s="25"/>
+      <c r="E43" s="23"/>
       <c r="F43" s="1">
         <v>37</v>
       </c>
@@ -3286,7 +3306,9 @@
         <f t="shared" si="0"/>
         <v>286</v>
       </c>
-      <c r="L43" s="16"/>
+      <c r="L43" s="16">
+        <v>0</v>
+      </c>
       <c r="M43" s="16">
         <f>SUM($L$3:L43)</f>
         <v>131</v>
@@ -3297,14 +3319,14 @@
       </c>
     </row>
     <row r="44" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B44" s="34"/>
+      <c r="B44" s="27"/>
       <c r="C44" s="7">
         <v>28</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E44" s="26"/>
+      <c r="E44" s="24"/>
       <c r="F44" s="1">
         <v>38</v>
       </c>
@@ -3321,7 +3343,9 @@
         <f t="shared" si="0"/>
         <v>286</v>
       </c>
-      <c r="L44" s="16"/>
+      <c r="L44" s="16">
+        <v>0</v>
+      </c>
       <c r="M44" s="16">
         <f>SUM($L$3:L44)</f>
         <v>131</v>
@@ -3332,7 +3356,7 @@
       </c>
     </row>
     <row r="45" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B45" s="32" t="s">
+      <c r="B45" s="25" t="s">
         <v>8</v>
       </c>
       <c r="C45" s="7">
@@ -3341,16 +3365,18 @@
       <c r="D45" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E45" s="24">
+      <c r="E45" s="22">
         <v>7</v>
       </c>
       <c r="F45" s="1">
         <v>39</v>
       </c>
-      <c r="G45" s="24" t="s">
+      <c r="G45" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="H45" s="1"/>
+      <c r="H45" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="I45" s="16">
         <v>6</v>
       </c>
@@ -3362,30 +3388,34 @@
         <f t="shared" si="0"/>
         <v>280</v>
       </c>
-      <c r="L45" s="16"/>
+      <c r="L45" s="16">
+        <v>2</v>
+      </c>
       <c r="M45" s="16">
         <f>SUM($L$3:L45)</f>
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="N45" s="16">
         <f t="shared" si="1"/>
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="46" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B46" s="33"/>
+      <c r="B46" s="26"/>
       <c r="C46" s="7">
         <v>2</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E46" s="25"/>
+      <c r="E46" s="23"/>
       <c r="F46" s="1">
         <v>40</v>
       </c>
-      <c r="G46" s="25"/>
-      <c r="H46" s="1"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="I46" s="16">
         <v>4</v>
       </c>
@@ -3397,30 +3427,34 @@
         <f t="shared" si="0"/>
         <v>276</v>
       </c>
-      <c r="L46" s="16"/>
+      <c r="L46" s="16">
+        <v>6</v>
+      </c>
       <c r="M46" s="16">
         <f>SUM($L$3:L46)</f>
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="N46" s="16">
         <f t="shared" si="1"/>
-        <v>285</v>
+        <v>277</v>
       </c>
     </row>
     <row r="47" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B47" s="33"/>
+      <c r="B47" s="26"/>
       <c r="C47" s="7">
         <v>3</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E47" s="25"/>
+      <c r="E47" s="23"/>
       <c r="F47" s="1">
         <v>41</v>
       </c>
-      <c r="G47" s="25"/>
-      <c r="H47" s="1"/>
+      <c r="G47" s="23"/>
+      <c r="H47" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="I47" s="16">
         <v>6</v>
       </c>
@@ -3432,29 +3466,31 @@
         <f t="shared" si="0"/>
         <v>270</v>
       </c>
-      <c r="L47" s="16"/>
+      <c r="L47" s="16">
+        <v>4</v>
+      </c>
       <c r="M47" s="16">
         <f>SUM($L$3:L47)</f>
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="N47" s="16">
         <f t="shared" si="1"/>
-        <v>285</v>
+        <v>273</v>
       </c>
     </row>
     <row r="48" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B48" s="33"/>
+      <c r="B48" s="26"/>
       <c r="C48" s="7">
         <v>4</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E48" s="25"/>
+      <c r="E48" s="23"/>
       <c r="F48" s="1">
         <v>42</v>
       </c>
-      <c r="G48" s="25"/>
+      <c r="G48" s="23"/>
       <c r="H48" s="1"/>
       <c r="I48" s="16">
         <v>0</v>
@@ -3467,30 +3503,34 @@
         <f t="shared" si="0"/>
         <v>270</v>
       </c>
-      <c r="L48" s="16"/>
+      <c r="L48" s="16">
+        <v>2.5</v>
+      </c>
       <c r="M48" s="16">
         <f>SUM($L$3:L48)</f>
-        <v>131</v>
+        <v>145.5</v>
       </c>
       <c r="N48" s="16">
         <f t="shared" si="1"/>
-        <v>285</v>
+        <v>270.5</v>
       </c>
     </row>
     <row r="49" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B49" s="33"/>
+      <c r="B49" s="26"/>
       <c r="C49" s="7">
         <v>5</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E49" s="25"/>
+      <c r="E49" s="23"/>
       <c r="F49" s="1">
         <v>43</v>
       </c>
-      <c r="G49" s="25"/>
-      <c r="H49" s="1"/>
+      <c r="G49" s="23"/>
+      <c r="H49" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="I49" s="16">
         <v>6</v>
       </c>
@@ -3502,30 +3542,34 @@
         <f t="shared" si="0"/>
         <v>264</v>
       </c>
-      <c r="L49" s="16"/>
+      <c r="L49" s="16">
+        <v>3</v>
+      </c>
       <c r="M49" s="16">
         <f>SUM($L$3:L49)</f>
-        <v>131</v>
+        <v>148.5</v>
       </c>
       <c r="N49" s="16">
         <f t="shared" si="1"/>
-        <v>285</v>
+        <v>267.5</v>
       </c>
     </row>
     <row r="50" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B50" s="33"/>
+      <c r="B50" s="26"/>
       <c r="C50" s="7">
         <v>6</v>
       </c>
       <c r="D50" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E50" s="25"/>
+      <c r="E50" s="23"/>
       <c r="F50" s="1">
         <v>44</v>
       </c>
-      <c r="G50" s="26"/>
-      <c r="H50" s="1"/>
+      <c r="G50" s="24"/>
+      <c r="H50" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="I50" s="16">
         <v>2</v>
       </c>
@@ -3537,25 +3581,27 @@
         <f t="shared" si="0"/>
         <v>262</v>
       </c>
-      <c r="L50" s="16"/>
+      <c r="L50" s="16">
+        <v>3</v>
+      </c>
       <c r="M50" s="16">
         <f>SUM($L$3:L50)</f>
-        <v>131</v>
+        <v>151.5</v>
       </c>
       <c r="N50" s="16">
         <f t="shared" si="1"/>
-        <v>285</v>
+        <v>264.5</v>
       </c>
     </row>
     <row r="51" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B51" s="33"/>
+      <c r="B51" s="26"/>
       <c r="C51" s="7">
         <v>7</v>
       </c>
       <c r="D51" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E51" s="26"/>
+      <c r="E51" s="24"/>
       <c r="F51" s="1">
         <v>45</v>
       </c>
@@ -3572,34 +3618,38 @@
         <f t="shared" si="0"/>
         <v>262</v>
       </c>
-      <c r="L51" s="16"/>
+      <c r="L51" s="16">
+        <v>0</v>
+      </c>
       <c r="M51" s="16">
         <f>SUM($L$3:L51)</f>
-        <v>131</v>
+        <v>151.5</v>
       </c>
       <c r="N51" s="16">
         <f t="shared" si="1"/>
-        <v>285</v>
+        <v>264.5</v>
       </c>
     </row>
     <row r="52" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B52" s="33"/>
+      <c r="B52" s="26"/>
       <c r="C52" s="7">
         <v>8</v>
       </c>
       <c r="D52" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E52" s="24">
+      <c r="E52" s="22">
         <v>8</v>
       </c>
       <c r="F52" s="1">
         <v>46</v>
       </c>
-      <c r="G52" s="24" t="s">
+      <c r="G52" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="H52" s="1"/>
+      <c r="H52" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="I52" s="16">
         <v>6</v>
       </c>
@@ -3611,30 +3661,34 @@
         <f t="shared" si="0"/>
         <v>256</v>
       </c>
-      <c r="L52" s="16"/>
+      <c r="L52" s="16">
+        <v>6</v>
+      </c>
       <c r="M52" s="16">
         <f>SUM($L$3:L52)</f>
-        <v>131</v>
+        <v>157.5</v>
       </c>
       <c r="N52" s="16">
         <f t="shared" si="1"/>
-        <v>285</v>
+        <v>258.5</v>
       </c>
     </row>
     <row r="53" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B53" s="33"/>
+      <c r="B53" s="26"/>
       <c r="C53" s="7">
         <v>9</v>
       </c>
       <c r="D53" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E53" s="25"/>
+      <c r="E53" s="23"/>
       <c r="F53" s="1">
         <v>47</v>
       </c>
-      <c r="G53" s="25"/>
-      <c r="H53" s="1"/>
+      <c r="G53" s="23"/>
+      <c r="H53" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="I53" s="16">
         <v>4</v>
       </c>
@@ -3646,30 +3700,34 @@
         <f t="shared" si="0"/>
         <v>252</v>
       </c>
-      <c r="L53" s="16"/>
+      <c r="L53" s="16">
+        <v>4</v>
+      </c>
       <c r="M53" s="16">
         <f>SUM($L$3:L53)</f>
-        <v>131</v>
+        <v>161.5</v>
       </c>
       <c r="N53" s="16">
         <f t="shared" si="1"/>
-        <v>285</v>
+        <v>254.5</v>
       </c>
     </row>
     <row r="54" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B54" s="33"/>
+      <c r="B54" s="26"/>
       <c r="C54" s="7">
         <v>10</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E54" s="25"/>
+      <c r="E54" s="23"/>
       <c r="F54" s="1">
         <v>48</v>
       </c>
-      <c r="G54" s="25"/>
-      <c r="H54" s="1"/>
+      <c r="G54" s="23"/>
+      <c r="H54" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="I54" s="16">
         <v>6</v>
       </c>
@@ -3681,29 +3739,31 @@
         <f t="shared" si="0"/>
         <v>246</v>
       </c>
-      <c r="L54" s="16"/>
+      <c r="L54" s="16">
+        <v>6</v>
+      </c>
       <c r="M54" s="16">
         <f>SUM($L$3:L54)</f>
-        <v>131</v>
+        <v>167.5</v>
       </c>
       <c r="N54" s="16">
         <f t="shared" si="1"/>
-        <v>285</v>
+        <v>248.5</v>
       </c>
     </row>
     <row r="55" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B55" s="33"/>
+      <c r="B55" s="26"/>
       <c r="C55" s="7">
         <v>11</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E55" s="25"/>
+      <c r="E55" s="23"/>
       <c r="F55" s="1">
         <v>49</v>
       </c>
-      <c r="G55" s="25"/>
+      <c r="G55" s="23"/>
       <c r="H55" s="1"/>
       <c r="I55" s="16">
         <v>0</v>
@@ -3716,30 +3776,34 @@
         <f t="shared" si="0"/>
         <v>246</v>
       </c>
-      <c r="L55" s="16"/>
+      <c r="L55" s="16">
+        <v>2</v>
+      </c>
       <c r="M55" s="16">
         <f>SUM($L$3:L55)</f>
-        <v>131</v>
+        <v>169.5</v>
       </c>
       <c r="N55" s="16">
         <f t="shared" si="1"/>
-        <v>285</v>
+        <v>246.5</v>
       </c>
     </row>
     <row r="56" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B56" s="33"/>
+      <c r="B56" s="26"/>
       <c r="C56" s="7">
         <v>12</v>
       </c>
       <c r="D56" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E56" s="25"/>
+      <c r="E56" s="23"/>
       <c r="F56" s="1">
         <v>50</v>
       </c>
-      <c r="G56" s="25"/>
-      <c r="H56" s="1"/>
+      <c r="G56" s="23"/>
+      <c r="H56" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="I56" s="16">
         <v>6</v>
       </c>
@@ -3751,30 +3815,34 @@
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
-      <c r="L56" s="16"/>
+      <c r="L56" s="16">
+        <v>6</v>
+      </c>
       <c r="M56" s="16">
         <f>SUM($L$3:L56)</f>
-        <v>131</v>
+        <v>175.5</v>
       </c>
       <c r="N56" s="16">
         <f t="shared" si="1"/>
-        <v>285</v>
+        <v>240.5</v>
       </c>
     </row>
     <row r="57" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B57" s="33"/>
+      <c r="B57" s="26"/>
       <c r="C57" s="7">
         <v>13</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E57" s="25"/>
+      <c r="E57" s="23"/>
       <c r="F57" s="1">
         <v>51</v>
       </c>
-      <c r="G57" s="26"/>
-      <c r="H57" s="1"/>
+      <c r="G57" s="24"/>
+      <c r="H57" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="I57" s="16">
         <v>2</v>
       </c>
@@ -3786,25 +3854,27 @@
         <f t="shared" si="0"/>
         <v>238</v>
       </c>
-      <c r="L57" s="16"/>
+      <c r="L57" s="16">
+        <v>2</v>
+      </c>
       <c r="M57" s="16">
         <f>SUM($L$3:L57)</f>
-        <v>131</v>
+        <v>177.5</v>
       </c>
       <c r="N57" s="16">
         <f t="shared" si="1"/>
-        <v>285</v>
+        <v>238.5</v>
       </c>
     </row>
     <row r="58" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B58" s="33"/>
+      <c r="B58" s="26"/>
       <c r="C58" s="7">
         <v>14</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E58" s="26"/>
+      <c r="E58" s="24"/>
       <c r="F58" s="1">
         <v>52</v>
       </c>
@@ -3821,31 +3891,33 @@
         <f t="shared" si="0"/>
         <v>238</v>
       </c>
-      <c r="L58" s="16"/>
+      <c r="L58" s="16">
+        <v>0</v>
+      </c>
       <c r="M58" s="16">
         <f>SUM($L$3:L58)</f>
-        <v>131</v>
+        <v>177.5</v>
       </c>
       <c r="N58" s="16">
         <f t="shared" si="1"/>
-        <v>285</v>
+        <v>238.5</v>
       </c>
     </row>
     <row r="59" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B59" s="33"/>
+      <c r="B59" s="26"/>
       <c r="C59" s="7">
         <v>15</v>
       </c>
       <c r="D59" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E59" s="24">
+      <c r="E59" s="22">
         <v>9</v>
       </c>
       <c r="F59" s="1">
         <v>53</v>
       </c>
-      <c r="G59" s="24" t="s">
+      <c r="G59" s="22" t="s">
         <v>13</v>
       </c>
       <c r="H59" s="1"/>
@@ -3860,29 +3932,31 @@
         <f t="shared" si="0"/>
         <v>232</v>
       </c>
-      <c r="L59" s="16"/>
+      <c r="L59" s="16">
+        <v>2</v>
+      </c>
       <c r="M59" s="16">
         <f>SUM($L$3:L59)</f>
-        <v>131</v>
+        <v>179.5</v>
       </c>
       <c r="N59" s="16">
         <f t="shared" si="1"/>
-        <v>285</v>
+        <v>236.5</v>
       </c>
     </row>
     <row r="60" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B60" s="33"/>
+      <c r="B60" s="26"/>
       <c r="C60" s="7">
         <v>16</v>
       </c>
       <c r="D60" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E60" s="25"/>
+      <c r="E60" s="23"/>
       <c r="F60" s="1">
         <v>54</v>
       </c>
-      <c r="G60" s="25"/>
+      <c r="G60" s="23"/>
       <c r="H60" s="1"/>
       <c r="I60" s="16">
         <v>4</v>
@@ -3895,29 +3969,31 @@
         <f t="shared" si="0"/>
         <v>228</v>
       </c>
-      <c r="L60" s="16"/>
+      <c r="L60" s="16">
+        <v>6</v>
+      </c>
       <c r="M60" s="16">
         <f>SUM($L$3:L60)</f>
-        <v>131</v>
+        <v>185.5</v>
       </c>
       <c r="N60" s="16">
         <f t="shared" si="1"/>
-        <v>285</v>
+        <v>230.5</v>
       </c>
     </row>
     <row r="61" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B61" s="33"/>
+      <c r="B61" s="26"/>
       <c r="C61" s="7">
         <v>17</v>
       </c>
       <c r="D61" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E61" s="25"/>
+      <c r="E61" s="23"/>
       <c r="F61" s="1">
         <v>55</v>
       </c>
-      <c r="G61" s="25"/>
+      <c r="G61" s="23"/>
       <c r="H61" s="1"/>
       <c r="I61" s="16">
         <v>6</v>
@@ -3930,29 +4006,31 @@
         <f t="shared" si="0"/>
         <v>222</v>
       </c>
-      <c r="L61" s="16"/>
+      <c r="L61" s="16">
+        <v>6</v>
+      </c>
       <c r="M61" s="16">
         <f>SUM($L$3:L61)</f>
-        <v>131</v>
+        <v>191.5</v>
       </c>
       <c r="N61" s="16">
         <f t="shared" si="1"/>
-        <v>285</v>
+        <v>224.5</v>
       </c>
     </row>
     <row r="62" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B62" s="33"/>
+      <c r="B62" s="26"/>
       <c r="C62" s="7">
         <v>18</v>
       </c>
       <c r="D62" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E62" s="25"/>
+      <c r="E62" s="23"/>
       <c r="F62" s="1">
         <v>56</v>
       </c>
-      <c r="G62" s="25"/>
+      <c r="G62" s="23"/>
       <c r="H62" s="1"/>
       <c r="I62" s="16">
         <v>0</v>
@@ -3965,29 +4043,31 @@
         <f t="shared" si="0"/>
         <v>222</v>
       </c>
-      <c r="L62" s="16"/>
+      <c r="L62" s="16">
+        <v>4</v>
+      </c>
       <c r="M62" s="16">
         <f>SUM($L$3:L62)</f>
-        <v>131</v>
+        <v>195.5</v>
       </c>
       <c r="N62" s="16">
         <f t="shared" si="1"/>
-        <v>285</v>
+        <v>220.5</v>
       </c>
     </row>
     <row r="63" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B63" s="33"/>
+      <c r="B63" s="26"/>
       <c r="C63" s="7">
         <v>19</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E63" s="25"/>
+      <c r="E63" s="23"/>
       <c r="F63" s="1">
         <v>57</v>
       </c>
-      <c r="G63" s="25"/>
+      <c r="G63" s="23"/>
       <c r="H63" s="1"/>
       <c r="I63" s="16">
         <v>6</v>
@@ -4000,29 +4080,31 @@
         <f t="shared" si="0"/>
         <v>216</v>
       </c>
-      <c r="L63" s="16"/>
+      <c r="L63" s="16">
+        <v>6</v>
+      </c>
       <c r="M63" s="16">
         <f>SUM($L$3:L63)</f>
-        <v>131</v>
+        <v>201.5</v>
       </c>
       <c r="N63" s="16">
         <f t="shared" si="1"/>
-        <v>285</v>
+        <v>214.5</v>
       </c>
     </row>
     <row r="64" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B64" s="33"/>
+      <c r="B64" s="26"/>
       <c r="C64" s="7">
         <v>20</v>
       </c>
       <c r="D64" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E64" s="25"/>
+      <c r="E64" s="23"/>
       <c r="F64" s="1">
         <v>58</v>
       </c>
-      <c r="G64" s="26"/>
+      <c r="G64" s="24"/>
       <c r="H64" s="1"/>
       <c r="I64" s="16">
         <v>2</v>
@@ -4035,25 +4117,27 @@
         <f t="shared" si="0"/>
         <v>214</v>
       </c>
-      <c r="L64" s="16"/>
+      <c r="L64" s="16">
+        <v>2</v>
+      </c>
       <c r="M64" s="16">
         <f>SUM($L$3:L64)</f>
-        <v>131</v>
+        <v>203.5</v>
       </c>
       <c r="N64" s="16">
         <f t="shared" si="1"/>
-        <v>285</v>
+        <v>212.5</v>
       </c>
     </row>
     <row r="65" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B65" s="33"/>
+      <c r="B65" s="26"/>
       <c r="C65" s="7">
         <v>21</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E65" s="26"/>
+      <c r="E65" s="24"/>
       <c r="F65" s="1">
         <v>59</v>
       </c>
@@ -4070,31 +4154,33 @@
         <f t="shared" si="0"/>
         <v>214</v>
       </c>
-      <c r="L65" s="16"/>
+      <c r="L65" s="16">
+        <v>0</v>
+      </c>
       <c r="M65" s="16">
         <f>SUM($L$3:L65)</f>
-        <v>131</v>
+        <v>203.5</v>
       </c>
       <c r="N65" s="16">
         <f t="shared" si="1"/>
-        <v>285</v>
+        <v>212.5</v>
       </c>
     </row>
     <row r="66" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B66" s="33"/>
+      <c r="B66" s="26"/>
       <c r="C66" s="7">
         <v>22</v>
       </c>
       <c r="D66" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E66" s="24">
+      <c r="E66" s="22">
         <v>10</v>
       </c>
       <c r="F66" s="1">
         <v>60</v>
       </c>
-      <c r="G66" s="24" t="s">
+      <c r="G66" s="22" t="s">
         <v>13</v>
       </c>
       <c r="H66" s="1"/>
@@ -4109,29 +4195,31 @@
         <f t="shared" si="0"/>
         <v>208</v>
       </c>
-      <c r="L66" s="16"/>
+      <c r="L66" s="16">
+        <v>4</v>
+      </c>
       <c r="M66" s="16">
         <f>SUM($L$3:L66)</f>
-        <v>131</v>
+        <v>207.5</v>
       </c>
       <c r="N66" s="16">
         <f t="shared" si="1"/>
-        <v>285</v>
+        <v>208.5</v>
       </c>
     </row>
     <row r="67" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B67" s="33"/>
+      <c r="B67" s="26"/>
       <c r="C67" s="7">
         <v>23</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E67" s="25"/>
+      <c r="E67" s="23"/>
       <c r="F67" s="1">
         <v>61</v>
       </c>
-      <c r="G67" s="25"/>
+      <c r="G67" s="23"/>
       <c r="H67" s="1"/>
       <c r="I67" s="16">
         <v>4</v>
@@ -4144,29 +4232,31 @@
         <f t="shared" si="0"/>
         <v>204</v>
       </c>
-      <c r="L67" s="16"/>
+      <c r="L67" s="16">
+        <v>4</v>
+      </c>
       <c r="M67" s="16">
         <f>SUM($L$3:L67)</f>
-        <v>131</v>
+        <v>211.5</v>
       </c>
       <c r="N67" s="16">
         <f t="shared" si="1"/>
-        <v>285</v>
+        <v>204.5</v>
       </c>
     </row>
     <row r="68" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B68" s="33"/>
+      <c r="B68" s="26"/>
       <c r="C68" s="7">
         <v>24</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E68" s="25"/>
+      <c r="E68" s="23"/>
       <c r="F68" s="1">
         <v>62</v>
       </c>
-      <c r="G68" s="25"/>
+      <c r="G68" s="23"/>
       <c r="H68" s="1"/>
       <c r="I68" s="16">
         <v>6</v>
@@ -4179,29 +4269,31 @@
         <f t="shared" ref="K68:K126" si="2">SUM($I$128-J68)</f>
         <v>198</v>
       </c>
-      <c r="L68" s="16"/>
+      <c r="L68" s="16">
+        <v>6</v>
+      </c>
       <c r="M68" s="16">
         <f>SUM($L$3:L68)</f>
-        <v>131</v>
+        <v>217.5</v>
       </c>
       <c r="N68" s="16">
         <f t="shared" ref="N68:N126" si="3">SUM($I$128-M68)</f>
-        <v>285</v>
+        <v>198.5</v>
       </c>
     </row>
     <row r="69" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B69" s="33"/>
+      <c r="B69" s="26"/>
       <c r="C69" s="7">
         <v>25</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E69" s="25"/>
+      <c r="E69" s="23"/>
       <c r="F69" s="1">
         <v>63</v>
       </c>
-      <c r="G69" s="25"/>
+      <c r="G69" s="23"/>
       <c r="H69" s="1"/>
       <c r="I69" s="16">
         <v>0</v>
@@ -4214,29 +4306,31 @@
         <f t="shared" si="2"/>
         <v>198</v>
       </c>
-      <c r="L69" s="16"/>
+      <c r="L69" s="16">
+        <v>1.5</v>
+      </c>
       <c r="M69" s="16">
         <f>SUM($L$3:L69)</f>
-        <v>131</v>
+        <v>219</v>
       </c>
       <c r="N69" s="16">
         <f t="shared" si="3"/>
-        <v>285</v>
+        <v>197</v>
       </c>
     </row>
     <row r="70" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B70" s="33"/>
+      <c r="B70" s="26"/>
       <c r="C70" s="7">
         <v>26</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E70" s="25"/>
+      <c r="E70" s="23"/>
       <c r="F70" s="1">
         <v>64</v>
       </c>
-      <c r="G70" s="25"/>
+      <c r="G70" s="23"/>
       <c r="H70" s="1"/>
       <c r="I70" s="16">
         <v>6</v>
@@ -4249,29 +4343,31 @@
         <f t="shared" si="2"/>
         <v>192</v>
       </c>
-      <c r="L70" s="16"/>
+      <c r="L70" s="16">
+        <v>6</v>
+      </c>
       <c r="M70" s="16">
         <f>SUM($L$3:L70)</f>
-        <v>131</v>
+        <v>225</v>
       </c>
       <c r="N70" s="16">
         <f t="shared" si="3"/>
-        <v>285</v>
+        <v>191</v>
       </c>
     </row>
     <row r="71" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B71" s="33"/>
+      <c r="B71" s="26"/>
       <c r="C71" s="7">
         <v>27</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E71" s="25"/>
+      <c r="E71" s="23"/>
       <c r="F71" s="1">
         <v>65</v>
       </c>
-      <c r="G71" s="26"/>
+      <c r="G71" s="24"/>
       <c r="H71" s="1"/>
       <c r="I71" s="16">
         <v>2</v>
@@ -4284,25 +4380,27 @@
         <f t="shared" si="2"/>
         <v>190</v>
       </c>
-      <c r="L71" s="16"/>
+      <c r="L71" s="16">
+        <v>1</v>
+      </c>
       <c r="M71" s="16">
         <f>SUM($L$3:L71)</f>
-        <v>131</v>
+        <v>226</v>
       </c>
       <c r="N71" s="16">
         <f t="shared" si="3"/>
-        <v>285</v>
+        <v>190</v>
       </c>
     </row>
     <row r="72" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B72" s="33"/>
+      <c r="B72" s="26"/>
       <c r="C72" s="7">
         <v>28</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E72" s="26"/>
+      <c r="E72" s="24"/>
       <c r="F72" s="1">
         <v>66</v>
       </c>
@@ -4319,31 +4417,33 @@
         <f t="shared" si="2"/>
         <v>190</v>
       </c>
-      <c r="L72" s="16"/>
+      <c r="L72" s="16">
+        <v>1</v>
+      </c>
       <c r="M72" s="16">
         <f>SUM($L$3:L72)</f>
-        <v>131</v>
+        <v>227</v>
       </c>
       <c r="N72" s="16">
         <f t="shared" si="3"/>
-        <v>285</v>
+        <v>189</v>
       </c>
     </row>
     <row r="73" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B73" s="33"/>
+      <c r="B73" s="26"/>
       <c r="C73" s="7">
         <v>29</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E73" s="24">
+      <c r="E73" s="22">
         <v>11</v>
       </c>
       <c r="F73" s="1">
         <v>67</v>
       </c>
-      <c r="G73" s="24" t="s">
+      <c r="G73" s="22" t="s">
         <v>14</v>
       </c>
       <c r="H73" s="1"/>
@@ -4358,29 +4458,31 @@
         <f t="shared" si="2"/>
         <v>184</v>
       </c>
-      <c r="L73" s="16"/>
+      <c r="L73" s="16">
+        <v>5</v>
+      </c>
       <c r="M73" s="16">
         <f>SUM($L$3:L73)</f>
-        <v>131</v>
+        <v>232</v>
       </c>
       <c r="N73" s="16">
         <f t="shared" si="3"/>
-        <v>285</v>
+        <v>184</v>
       </c>
     </row>
     <row r="74" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B74" s="33"/>
+      <c r="B74" s="26"/>
       <c r="C74" s="7">
         <v>30</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E74" s="25"/>
+      <c r="E74" s="23"/>
       <c r="F74" s="1">
         <v>68</v>
       </c>
-      <c r="G74" s="25"/>
+      <c r="G74" s="23"/>
       <c r="H74" s="1"/>
       <c r="I74" s="16">
         <v>4</v>
@@ -4393,29 +4495,31 @@
         <f t="shared" si="2"/>
         <v>180</v>
       </c>
-      <c r="L74" s="16"/>
+      <c r="L74" s="16">
+        <v>3</v>
+      </c>
       <c r="M74" s="16">
         <f>SUM($L$3:L74)</f>
-        <v>131</v>
+        <v>235</v>
       </c>
       <c r="N74" s="16">
         <f t="shared" si="3"/>
-        <v>285</v>
+        <v>181</v>
       </c>
     </row>
     <row r="75" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B75" s="34"/>
+      <c r="B75" s="27"/>
       <c r="C75" s="8">
         <v>31</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E75" s="25"/>
+      <c r="E75" s="23"/>
       <c r="F75" s="1">
         <v>69</v>
       </c>
-      <c r="G75" s="25"/>
+      <c r="G75" s="23"/>
       <c r="H75" s="1"/>
       <c r="I75" s="16">
         <v>6</v>
@@ -4428,18 +4532,20 @@
         <f t="shared" si="2"/>
         <v>174</v>
       </c>
-      <c r="L75" s="16"/>
+      <c r="L75" s="16">
+        <v>6</v>
+      </c>
       <c r="M75" s="16">
         <f>SUM($L$3:L75)</f>
-        <v>131</v>
+        <v>241</v>
       </c>
       <c r="N75" s="16">
         <f t="shared" si="3"/>
-        <v>285</v>
+        <v>175</v>
       </c>
     </row>
     <row r="76" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B76" s="32" t="s">
+      <c r="B76" s="25" t="s">
         <v>7</v>
       </c>
       <c r="C76" s="8">
@@ -4448,11 +4554,11 @@
       <c r="D76" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E76" s="25"/>
+      <c r="E76" s="23"/>
       <c r="F76" s="1">
         <v>70</v>
       </c>
-      <c r="G76" s="25"/>
+      <c r="G76" s="23"/>
       <c r="H76" s="1"/>
       <c r="I76" s="16">
         <v>0</v>
@@ -4465,29 +4571,31 @@
         <f t="shared" si="2"/>
         <v>174</v>
       </c>
-      <c r="L76" s="16"/>
+      <c r="L76" s="16">
+        <v>2</v>
+      </c>
       <c r="M76" s="16">
         <f>SUM($L$3:L76)</f>
-        <v>131</v>
+        <v>243</v>
       </c>
       <c r="N76" s="16">
         <f t="shared" si="3"/>
-        <v>285</v>
+        <v>173</v>
       </c>
     </row>
     <row r="77" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B77" s="33"/>
+      <c r="B77" s="26"/>
       <c r="C77" s="8">
         <v>2</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E77" s="25"/>
+      <c r="E77" s="23"/>
       <c r="F77" s="1">
         <v>71</v>
       </c>
-      <c r="G77" s="25"/>
+      <c r="G77" s="23"/>
       <c r="H77" s="1"/>
       <c r="I77" s="16">
         <v>6</v>
@@ -4500,29 +4608,31 @@
         <f t="shared" si="2"/>
         <v>168</v>
       </c>
-      <c r="L77" s="16"/>
+      <c r="L77" s="16">
+        <v>6</v>
+      </c>
       <c r="M77" s="16">
         <f>SUM($L$3:L77)</f>
-        <v>131</v>
+        <v>249</v>
       </c>
       <c r="N77" s="16">
         <f t="shared" si="3"/>
-        <v>285</v>
+        <v>167</v>
       </c>
     </row>
     <row r="78" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B78" s="33"/>
+      <c r="B78" s="26"/>
       <c r="C78" s="8">
         <v>3</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E78" s="25"/>
+      <c r="E78" s="23"/>
       <c r="F78" s="1">
         <v>72</v>
       </c>
-      <c r="G78" s="26"/>
+      <c r="G78" s="24"/>
       <c r="H78" s="1"/>
       <c r="I78" s="16">
         <v>2</v>
@@ -4535,25 +4645,27 @@
         <f t="shared" si="2"/>
         <v>166</v>
       </c>
-      <c r="L78" s="16"/>
+      <c r="L78" s="16">
+        <v>2.5</v>
+      </c>
       <c r="M78" s="16">
         <f>SUM($L$3:L78)</f>
-        <v>131</v>
+        <v>251.5</v>
       </c>
       <c r="N78" s="16">
         <f t="shared" si="3"/>
-        <v>285</v>
+        <v>164.5</v>
       </c>
     </row>
     <row r="79" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B79" s="33"/>
+      <c r="B79" s="26"/>
       <c r="C79" s="8">
         <v>4</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E79" s="26"/>
+      <c r="E79" s="24"/>
       <c r="F79" s="1">
         <v>73</v>
       </c>
@@ -4570,31 +4682,33 @@
         <f t="shared" si="2"/>
         <v>166</v>
       </c>
-      <c r="L79" s="16"/>
+      <c r="L79" s="16">
+        <v>2</v>
+      </c>
       <c r="M79" s="16">
         <f>SUM($L$3:L79)</f>
-        <v>131</v>
+        <v>253.5</v>
       </c>
       <c r="N79" s="16">
         <f t="shared" si="3"/>
-        <v>285</v>
+        <v>162.5</v>
       </c>
     </row>
     <row r="80" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B80" s="33"/>
+      <c r="B80" s="26"/>
       <c r="C80" s="8">
         <v>5</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E80" s="24">
+      <c r="E80" s="22">
         <v>12</v>
       </c>
       <c r="F80" s="1">
         <v>74</v>
       </c>
-      <c r="G80" s="24" t="s">
+      <c r="G80" s="22" t="s">
         <v>14</v>
       </c>
       <c r="H80" s="1"/>
@@ -4609,29 +4723,31 @@
         <f t="shared" si="2"/>
         <v>160</v>
       </c>
-      <c r="L80" s="16"/>
+      <c r="L80" s="16">
+        <v>4</v>
+      </c>
       <c r="M80" s="16">
         <f>SUM($L$3:L80)</f>
-        <v>131</v>
+        <v>257.5</v>
       </c>
       <c r="N80" s="16">
         <f t="shared" si="3"/>
-        <v>285</v>
+        <v>158.5</v>
       </c>
     </row>
     <row r="81" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B81" s="33"/>
+      <c r="B81" s="26"/>
       <c r="C81" s="8">
         <v>6</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E81" s="25"/>
+      <c r="E81" s="23"/>
       <c r="F81" s="1">
         <v>75</v>
       </c>
-      <c r="G81" s="25"/>
+      <c r="G81" s="23"/>
       <c r="H81" s="1"/>
       <c r="I81" s="16">
         <v>4</v>
@@ -4644,29 +4760,31 @@
         <f t="shared" si="2"/>
         <v>156</v>
       </c>
-      <c r="L81" s="16"/>
+      <c r="L81" s="16">
+        <v>2</v>
+      </c>
       <c r="M81" s="16">
         <f>SUM($L$3:L81)</f>
-        <v>131</v>
+        <v>259.5</v>
       </c>
       <c r="N81" s="16">
         <f t="shared" si="3"/>
-        <v>285</v>
+        <v>156.5</v>
       </c>
     </row>
     <row r="82" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B82" s="33"/>
+      <c r="B82" s="26"/>
       <c r="C82" s="8">
         <v>7</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E82" s="25"/>
+      <c r="E82" s="23"/>
       <c r="F82" s="1">
         <v>76</v>
       </c>
-      <c r="G82" s="25"/>
+      <c r="G82" s="23"/>
       <c r="H82" s="1"/>
       <c r="I82" s="16">
         <v>6</v>
@@ -4679,29 +4797,31 @@
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="L82" s="16"/>
+      <c r="L82" s="16">
+        <v>6</v>
+      </c>
       <c r="M82" s="16">
         <f>SUM($L$3:L82)</f>
-        <v>131</v>
+        <v>265.5</v>
       </c>
       <c r="N82" s="16">
         <f t="shared" si="3"/>
-        <v>285</v>
+        <v>150.5</v>
       </c>
     </row>
     <row r="83" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B83" s="33"/>
+      <c r="B83" s="26"/>
       <c r="C83" s="8">
         <v>8</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E83" s="25"/>
+      <c r="E83" s="23"/>
       <c r="F83" s="1">
         <v>77</v>
       </c>
-      <c r="G83" s="25"/>
+      <c r="G83" s="23"/>
       <c r="H83" s="1"/>
       <c r="I83" s="16">
         <v>0</v>
@@ -4714,29 +4834,31 @@
         <f t="shared" si="2"/>
         <v>150</v>
       </c>
-      <c r="L83" s="16"/>
+      <c r="L83" s="16">
+        <v>2.5</v>
+      </c>
       <c r="M83" s="16">
         <f>SUM($L$3:L83)</f>
-        <v>131</v>
+        <v>268</v>
       </c>
       <c r="N83" s="16">
         <f t="shared" si="3"/>
-        <v>285</v>
+        <v>148</v>
       </c>
     </row>
     <row r="84" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B84" s="33"/>
+      <c r="B84" s="26"/>
       <c r="C84" s="8">
         <v>9</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E84" s="25"/>
+      <c r="E84" s="23"/>
       <c r="F84" s="1">
         <v>78</v>
       </c>
-      <c r="G84" s="25"/>
+      <c r="G84" s="23"/>
       <c r="H84" s="1"/>
       <c r="I84" s="16">
         <v>6</v>
@@ -4749,29 +4871,31 @@
         <f t="shared" si="2"/>
         <v>144</v>
       </c>
-      <c r="L84" s="16"/>
+      <c r="L84" s="16">
+        <v>4</v>
+      </c>
       <c r="M84" s="16">
         <f>SUM($L$3:L84)</f>
-        <v>131</v>
+        <v>272</v>
       </c>
       <c r="N84" s="16">
         <f t="shared" si="3"/>
-        <v>285</v>
+        <v>144</v>
       </c>
     </row>
     <row r="85" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B85" s="33"/>
+      <c r="B85" s="26"/>
       <c r="C85" s="8">
         <v>10</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E85" s="25"/>
+      <c r="E85" s="23"/>
       <c r="F85" s="1">
         <v>79</v>
       </c>
-      <c r="G85" s="26"/>
+      <c r="G85" s="24"/>
       <c r="H85" s="1"/>
       <c r="I85" s="16">
         <v>2</v>
@@ -4784,25 +4908,27 @@
         <f t="shared" si="2"/>
         <v>142</v>
       </c>
-      <c r="L85" s="16"/>
+      <c r="L85" s="16">
+        <v>3</v>
+      </c>
       <c r="M85" s="16">
         <f>SUM($L$3:L85)</f>
-        <v>131</v>
+        <v>275</v>
       </c>
       <c r="N85" s="16">
         <f t="shared" si="3"/>
-        <v>285</v>
+        <v>141</v>
       </c>
     </row>
     <row r="86" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B86" s="33"/>
+      <c r="B86" s="26"/>
       <c r="C86" s="8">
         <v>11</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E86" s="26"/>
+      <c r="E86" s="24"/>
       <c r="F86" s="1">
         <v>80</v>
       </c>
@@ -4819,31 +4945,33 @@
         <f t="shared" si="2"/>
         <v>142</v>
       </c>
-      <c r="L86" s="16"/>
+      <c r="L86" s="16">
+        <v>0</v>
+      </c>
       <c r="M86" s="16">
         <f>SUM($L$3:L86)</f>
-        <v>131</v>
+        <v>275</v>
       </c>
       <c r="N86" s="16">
         <f t="shared" si="3"/>
-        <v>285</v>
+        <v>141</v>
       </c>
     </row>
     <row r="87" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B87" s="33"/>
+      <c r="B87" s="26"/>
       <c r="C87" s="8">
         <v>12</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E87" s="24">
+      <c r="E87" s="22">
         <v>13</v>
       </c>
       <c r="F87" s="1">
         <v>81</v>
       </c>
-      <c r="G87" s="29" t="s">
+      <c r="G87" s="32" t="s">
         <v>15</v>
       </c>
       <c r="H87" s="1"/>
@@ -4858,29 +4986,31 @@
         <f t="shared" si="2"/>
         <v>136</v>
       </c>
-      <c r="L87" s="16"/>
+      <c r="L87" s="16">
+        <v>2</v>
+      </c>
       <c r="M87" s="16">
         <f>SUM($L$3:L87)</f>
-        <v>131</v>
+        <v>277</v>
       </c>
       <c r="N87" s="16">
         <f t="shared" si="3"/>
-        <v>285</v>
+        <v>139</v>
       </c>
     </row>
     <row r="88" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B88" s="33"/>
+      <c r="B88" s="26"/>
       <c r="C88" s="8">
         <v>13</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E88" s="25"/>
+      <c r="E88" s="23"/>
       <c r="F88" s="1">
         <v>82</v>
       </c>
-      <c r="G88" s="30"/>
+      <c r="G88" s="33"/>
       <c r="H88" s="1"/>
       <c r="I88" s="16">
         <v>4</v>
@@ -4893,29 +5023,31 @@
         <f t="shared" si="2"/>
         <v>132</v>
       </c>
-      <c r="L88" s="16"/>
+      <c r="L88" s="16">
+        <v>2</v>
+      </c>
       <c r="M88" s="16">
         <f>SUM($L$3:L88)</f>
-        <v>131</v>
+        <v>279</v>
       </c>
       <c r="N88" s="16">
         <f t="shared" si="3"/>
-        <v>285</v>
+        <v>137</v>
       </c>
     </row>
     <row r="89" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B89" s="33"/>
+      <c r="B89" s="26"/>
       <c r="C89" s="8">
         <v>14</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E89" s="25"/>
+      <c r="E89" s="23"/>
       <c r="F89" s="1">
         <v>83</v>
       </c>
-      <c r="G89" s="30"/>
+      <c r="G89" s="33"/>
       <c r="H89" s="1"/>
       <c r="I89" s="16">
         <v>6</v>
@@ -4928,29 +5060,31 @@
         <f t="shared" si="2"/>
         <v>126</v>
       </c>
-      <c r="L89" s="16"/>
+      <c r="L89" s="16">
+        <v>6</v>
+      </c>
       <c r="M89" s="16">
         <f>SUM($L$3:L89)</f>
-        <v>131</v>
+        <v>285</v>
       </c>
       <c r="N89" s="16">
         <f t="shared" si="3"/>
-        <v>285</v>
+        <v>131</v>
       </c>
     </row>
     <row r="90" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B90" s="33"/>
+      <c r="B90" s="26"/>
       <c r="C90" s="8">
         <v>15</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E90" s="25"/>
+      <c r="E90" s="23"/>
       <c r="F90" s="1">
         <v>84</v>
       </c>
-      <c r="G90" s="30"/>
+      <c r="G90" s="33"/>
       <c r="H90" s="1"/>
       <c r="I90" s="16">
         <v>0</v>
@@ -4963,29 +5097,31 @@
         <f t="shared" si="2"/>
         <v>126</v>
       </c>
-      <c r="L90" s="16"/>
+      <c r="L90" s="16">
+        <v>1.5</v>
+      </c>
       <c r="M90" s="16">
         <f>SUM($L$3:L90)</f>
-        <v>131</v>
+        <v>286.5</v>
       </c>
       <c r="N90" s="16">
         <f t="shared" si="3"/>
-        <v>285</v>
+        <v>129.5</v>
       </c>
     </row>
     <row r="91" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B91" s="33"/>
+      <c r="B91" s="26"/>
       <c r="C91" s="8">
         <v>16</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E91" s="25"/>
+      <c r="E91" s="23"/>
       <c r="F91" s="1">
         <v>85</v>
       </c>
-      <c r="G91" s="30"/>
+      <c r="G91" s="33"/>
       <c r="H91" s="1"/>
       <c r="I91" s="16">
         <v>6</v>
@@ -4998,29 +5134,31 @@
         <f t="shared" si="2"/>
         <v>120</v>
       </c>
-      <c r="L91" s="16"/>
+      <c r="L91" s="16">
+        <v>4</v>
+      </c>
       <c r="M91" s="16">
         <f>SUM($L$3:L91)</f>
-        <v>131</v>
+        <v>290.5</v>
       </c>
       <c r="N91" s="16">
         <f t="shared" si="3"/>
-        <v>285</v>
+        <v>125.5</v>
       </c>
     </row>
     <row r="92" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B92" s="33"/>
+      <c r="B92" s="26"/>
       <c r="C92" s="8">
         <v>17</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E92" s="25"/>
+      <c r="E92" s="23"/>
       <c r="F92" s="1">
         <v>86</v>
       </c>
-      <c r="G92" s="31"/>
+      <c r="G92" s="34"/>
       <c r="H92" s="1"/>
       <c r="I92" s="16">
         <v>2</v>
@@ -5033,25 +5171,27 @@
         <f t="shared" si="2"/>
         <v>118</v>
       </c>
-      <c r="L92" s="16"/>
+      <c r="L92" s="16">
+        <v>2</v>
+      </c>
       <c r="M92" s="16">
         <f>SUM($L$3:L92)</f>
-        <v>131</v>
+        <v>292.5</v>
       </c>
       <c r="N92" s="16">
         <f t="shared" si="3"/>
-        <v>285</v>
+        <v>123.5</v>
       </c>
     </row>
     <row r="93" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B93" s="33"/>
+      <c r="B93" s="26"/>
       <c r="C93" s="8">
         <v>18</v>
       </c>
       <c r="D93" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E93" s="26"/>
+      <c r="E93" s="24"/>
       <c r="F93" s="1">
         <v>87</v>
       </c>
@@ -5068,31 +5208,33 @@
         <f t="shared" si="2"/>
         <v>118</v>
       </c>
-      <c r="L93" s="16"/>
+      <c r="L93" s="16">
+        <v>2</v>
+      </c>
       <c r="M93" s="16">
         <f>SUM($L$3:L93)</f>
-        <v>131</v>
+        <v>294.5</v>
       </c>
       <c r="N93" s="16">
         <f t="shared" si="3"/>
-        <v>285</v>
+        <v>121.5</v>
       </c>
     </row>
     <row r="94" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B94" s="33"/>
+      <c r="B94" s="26"/>
       <c r="C94" s="8">
         <v>19</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E94" s="24">
+      <c r="E94" s="22">
         <v>14</v>
       </c>
       <c r="F94" s="1">
         <v>88</v>
       </c>
-      <c r="G94" s="29" t="s">
+      <c r="G94" s="32" t="s">
         <v>15</v>
       </c>
       <c r="H94" s="1"/>
@@ -5107,29 +5249,31 @@
         <f t="shared" si="2"/>
         <v>112</v>
       </c>
-      <c r="L94" s="16"/>
+      <c r="L94" s="16">
+        <v>6</v>
+      </c>
       <c r="M94" s="16">
         <f>SUM($L$3:L94)</f>
-        <v>131</v>
+        <v>300.5</v>
       </c>
       <c r="N94" s="16">
         <f t="shared" si="3"/>
-        <v>285</v>
+        <v>115.5</v>
       </c>
     </row>
     <row r="95" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B95" s="33"/>
+      <c r="B95" s="26"/>
       <c r="C95" s="8">
         <v>20</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E95" s="25"/>
+      <c r="E95" s="23"/>
       <c r="F95" s="1">
         <v>89</v>
       </c>
-      <c r="G95" s="30"/>
+      <c r="G95" s="33"/>
       <c r="H95" s="1"/>
       <c r="I95" s="16">
         <v>4</v>
@@ -5142,29 +5286,31 @@
         <f t="shared" si="2"/>
         <v>108</v>
       </c>
-      <c r="L95" s="16"/>
+      <c r="L95" s="16">
+        <v>3.5</v>
+      </c>
       <c r="M95" s="16">
         <f>SUM($L$3:L95)</f>
-        <v>131</v>
+        <v>304</v>
       </c>
       <c r="N95" s="16">
         <f t="shared" si="3"/>
-        <v>285</v>
+        <v>112</v>
       </c>
     </row>
     <row r="96" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B96" s="33"/>
+      <c r="B96" s="26"/>
       <c r="C96" s="8">
         <v>21</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E96" s="25"/>
+      <c r="E96" s="23"/>
       <c r="F96" s="1">
         <v>90</v>
       </c>
-      <c r="G96" s="30"/>
+      <c r="G96" s="33"/>
       <c r="H96" s="1"/>
       <c r="I96" s="16">
         <v>6</v>
@@ -5177,29 +5323,31 @@
         <f t="shared" si="2"/>
         <v>102</v>
       </c>
-      <c r="L96" s="16"/>
+      <c r="L96" s="16">
+        <v>6</v>
+      </c>
       <c r="M96" s="16">
         <f>SUM($L$3:L96)</f>
-        <v>131</v>
+        <v>310</v>
       </c>
       <c r="N96" s="16">
         <f t="shared" si="3"/>
-        <v>285</v>
+        <v>106</v>
       </c>
     </row>
     <row r="97" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B97" s="33"/>
+      <c r="B97" s="26"/>
       <c r="C97" s="8">
         <v>22</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E97" s="25"/>
+      <c r="E97" s="23"/>
       <c r="F97" s="1">
         <v>91</v>
       </c>
-      <c r="G97" s="30"/>
+      <c r="G97" s="33"/>
       <c r="H97" s="1"/>
       <c r="I97" s="16">
         <v>0</v>
@@ -5212,29 +5360,31 @@
         <f t="shared" si="2"/>
         <v>102</v>
       </c>
-      <c r="L97" s="16"/>
+      <c r="L97" s="16">
+        <v>0</v>
+      </c>
       <c r="M97" s="16">
         <f>SUM($L$3:L97)</f>
-        <v>131</v>
+        <v>310</v>
       </c>
       <c r="N97" s="16">
         <f t="shared" si="3"/>
-        <v>285</v>
+        <v>106</v>
       </c>
     </row>
     <row r="98" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B98" s="33"/>
+      <c r="B98" s="26"/>
       <c r="C98" s="8">
         <v>23</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E98" s="25"/>
+      <c r="E98" s="23"/>
       <c r="F98" s="1">
         <v>92</v>
       </c>
-      <c r="G98" s="30"/>
+      <c r="G98" s="33"/>
       <c r="H98" s="1"/>
       <c r="I98" s="16">
         <v>6</v>
@@ -5247,29 +5397,31 @@
         <f t="shared" si="2"/>
         <v>96</v>
       </c>
-      <c r="L98" s="16"/>
+      <c r="L98" s="16">
+        <v>6</v>
+      </c>
       <c r="M98" s="16">
         <f>SUM($L$3:L98)</f>
-        <v>131</v>
+        <v>316</v>
       </c>
       <c r="N98" s="16">
         <f t="shared" si="3"/>
-        <v>285</v>
+        <v>100</v>
       </c>
     </row>
     <row r="99" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B99" s="33"/>
+      <c r="B99" s="26"/>
       <c r="C99" s="8">
         <v>24</v>
       </c>
       <c r="D99" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E99" s="25"/>
+      <c r="E99" s="23"/>
       <c r="F99" s="1">
         <v>93</v>
       </c>
-      <c r="G99" s="31"/>
+      <c r="G99" s="34"/>
       <c r="H99" s="1"/>
       <c r="I99" s="16">
         <v>2</v>
@@ -5282,25 +5434,27 @@
         <f t="shared" si="2"/>
         <v>94</v>
       </c>
-      <c r="L99" s="16"/>
+      <c r="L99" s="16">
+        <v>3</v>
+      </c>
       <c r="M99" s="16">
         <f>SUM($L$3:L99)</f>
-        <v>131</v>
+        <v>319</v>
       </c>
       <c r="N99" s="16">
         <f t="shared" si="3"/>
-        <v>285</v>
+        <v>97</v>
       </c>
     </row>
     <row r="100" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B100" s="33"/>
+      <c r="B100" s="26"/>
       <c r="C100" s="8">
         <v>25</v>
       </c>
       <c r="D100" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E100" s="26"/>
+      <c r="E100" s="24"/>
       <c r="F100" s="1">
         <v>94</v>
       </c>
@@ -5317,31 +5471,33 @@
         <f t="shared" si="2"/>
         <v>94</v>
       </c>
-      <c r="L100" s="16"/>
+      <c r="L100" s="16">
+        <v>1</v>
+      </c>
       <c r="M100" s="16">
         <f>SUM($L$3:L100)</f>
-        <v>131</v>
+        <v>320</v>
       </c>
       <c r="N100" s="16">
         <f t="shared" si="3"/>
-        <v>285</v>
+        <v>96</v>
       </c>
     </row>
     <row r="101" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B101" s="33"/>
+      <c r="B101" s="26"/>
       <c r="C101" s="8">
         <v>26</v>
       </c>
       <c r="D101" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E101" s="24">
+      <c r="E101" s="22">
         <v>15</v>
       </c>
       <c r="F101" s="1">
         <v>95</v>
       </c>
-      <c r="G101" s="24" t="s">
+      <c r="G101" s="22" t="s">
         <v>23</v>
       </c>
       <c r="H101" s="1"/>
@@ -5356,29 +5512,31 @@
         <f t="shared" si="2"/>
         <v>88</v>
       </c>
-      <c r="L101" s="16"/>
+      <c r="L101" s="16">
+        <v>4</v>
+      </c>
       <c r="M101" s="16">
         <f>SUM($L$3:L101)</f>
-        <v>131</v>
+        <v>324</v>
       </c>
       <c r="N101" s="16">
         <f t="shared" si="3"/>
-        <v>285</v>
+        <v>92</v>
       </c>
     </row>
     <row r="102" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B102" s="33"/>
+      <c r="B102" s="26"/>
       <c r="C102" s="8">
         <v>27</v>
       </c>
       <c r="D102" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E102" s="25"/>
+      <c r="E102" s="23"/>
       <c r="F102" s="1">
         <v>96</v>
       </c>
-      <c r="G102" s="25"/>
+      <c r="G102" s="23"/>
       <c r="H102" s="1"/>
       <c r="I102" s="16">
         <v>4</v>
@@ -5391,29 +5549,31 @@
         <f t="shared" si="2"/>
         <v>84</v>
       </c>
-      <c r="L102" s="16"/>
+      <c r="L102" s="16">
+        <v>4</v>
+      </c>
       <c r="M102" s="16">
         <f>SUM($L$3:L102)</f>
-        <v>131</v>
+        <v>328</v>
       </c>
       <c r="N102" s="16">
         <f t="shared" si="3"/>
-        <v>285</v>
+        <v>88</v>
       </c>
     </row>
     <row r="103" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B103" s="33"/>
+      <c r="B103" s="26"/>
       <c r="C103" s="8">
         <v>28</v>
       </c>
       <c r="D103" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E103" s="25"/>
+      <c r="E103" s="23"/>
       <c r="F103" s="1">
         <v>97</v>
       </c>
-      <c r="G103" s="25"/>
+      <c r="G103" s="23"/>
       <c r="H103" s="1"/>
       <c r="I103" s="16">
         <v>6</v>
@@ -5426,29 +5586,31 @@
         <f t="shared" si="2"/>
         <v>78</v>
       </c>
-      <c r="L103" s="16"/>
+      <c r="L103" s="16">
+        <v>6</v>
+      </c>
       <c r="M103" s="16">
         <f>SUM($L$3:L103)</f>
-        <v>131</v>
+        <v>334</v>
       </c>
       <c r="N103" s="16">
         <f t="shared" si="3"/>
-        <v>285</v>
+        <v>82</v>
       </c>
     </row>
     <row r="104" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B104" s="33"/>
+      <c r="B104" s="26"/>
       <c r="C104" s="8">
         <v>29</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E104" s="25"/>
+      <c r="E104" s="23"/>
       <c r="F104" s="1">
         <v>98</v>
       </c>
-      <c r="G104" s="25"/>
+      <c r="G104" s="23"/>
       <c r="H104" s="1"/>
       <c r="I104" s="16">
         <v>0</v>
@@ -5461,29 +5623,31 @@
         <f t="shared" si="2"/>
         <v>78</v>
       </c>
-      <c r="L104" s="16"/>
+      <c r="L104" s="16">
+        <v>0</v>
+      </c>
       <c r="M104" s="16">
         <f>SUM($L$3:L104)</f>
-        <v>131</v>
+        <v>334</v>
       </c>
       <c r="N104" s="16">
         <f t="shared" si="3"/>
-        <v>285</v>
+        <v>82</v>
       </c>
     </row>
     <row r="105" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B105" s="34"/>
+      <c r="B105" s="27"/>
       <c r="C105" s="8">
         <v>30</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E105" s="25"/>
+      <c r="E105" s="23"/>
       <c r="F105" s="1">
         <v>99</v>
       </c>
-      <c r="G105" s="25"/>
+      <c r="G105" s="23"/>
       <c r="H105" s="1"/>
       <c r="I105" s="16">
         <v>6</v>
@@ -5496,14 +5660,16 @@
         <f t="shared" si="2"/>
         <v>72</v>
       </c>
-      <c r="L105" s="16"/>
+      <c r="L105" s="16">
+        <v>2</v>
+      </c>
       <c r="M105" s="16">
         <f>SUM($L$3:L105)</f>
-        <v>131</v>
+        <v>336</v>
       </c>
       <c r="N105" s="16">
         <f t="shared" si="3"/>
-        <v>285</v>
+        <v>80</v>
       </c>
     </row>
     <row r="106" spans="2:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -5516,11 +5682,11 @@
       <c r="D106" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E106" s="25"/>
+      <c r="E106" s="23"/>
       <c r="F106" s="1">
         <v>100</v>
       </c>
-      <c r="G106" s="26"/>
+      <c r="G106" s="24"/>
       <c r="H106" s="1"/>
       <c r="I106" s="16">
         <v>4</v>
@@ -5533,14 +5699,16 @@
         <f t="shared" si="2"/>
         <v>68</v>
       </c>
-      <c r="L106" s="16"/>
+      <c r="L106" s="16">
+        <v>6</v>
+      </c>
       <c r="M106" s="16">
         <f>SUM($L$3:L106)</f>
-        <v>131</v>
+        <v>342</v>
       </c>
       <c r="N106" s="16">
         <f t="shared" si="3"/>
-        <v>285</v>
+        <v>74</v>
       </c>
     </row>
     <row r="107" spans="2:14" x14ac:dyDescent="0.25">
@@ -5551,7 +5719,7 @@
       <c r="D107" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E107" s="26"/>
+      <c r="E107" s="24"/>
       <c r="F107" s="1">
         <v>101</v>
       </c>
@@ -5568,14 +5736,16 @@
         <f t="shared" si="2"/>
         <v>68</v>
       </c>
-      <c r="L107" s="16"/>
+      <c r="L107" s="16">
+        <v>3</v>
+      </c>
       <c r="M107" s="16">
         <f>SUM($L$3:L107)</f>
-        <v>131</v>
+        <v>345</v>
       </c>
       <c r="N107" s="16">
         <f t="shared" si="3"/>
-        <v>285</v>
+        <v>71</v>
       </c>
     </row>
     <row r="108" spans="2:14" x14ac:dyDescent="0.25">
@@ -5586,13 +5756,13 @@
       <c r="D108" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E108" s="24">
+      <c r="E108" s="22">
         <v>16</v>
       </c>
       <c r="F108" s="1">
         <v>102</v>
       </c>
-      <c r="G108" s="27" t="s">
+      <c r="G108" s="37" t="s">
         <v>27</v>
       </c>
       <c r="H108" s="1"/>
@@ -5607,14 +5777,16 @@
         <f t="shared" si="2"/>
         <v>62</v>
       </c>
-      <c r="L108" s="16"/>
+      <c r="L108" s="16">
+        <v>6</v>
+      </c>
       <c r="M108" s="16">
         <f>SUM($L$3:L108)</f>
-        <v>131</v>
+        <v>351</v>
       </c>
       <c r="N108" s="16">
         <f t="shared" si="3"/>
-        <v>285</v>
+        <v>65</v>
       </c>
     </row>
     <row r="109" spans="2:14" x14ac:dyDescent="0.25">
@@ -5625,11 +5797,11 @@
       <c r="D109" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E109" s="25"/>
+      <c r="E109" s="23"/>
       <c r="F109" s="1">
         <v>103</v>
       </c>
-      <c r="G109" s="27"/>
+      <c r="G109" s="37"/>
       <c r="H109" s="1"/>
       <c r="I109" s="16">
         <v>6</v>
@@ -5642,14 +5814,16 @@
         <f t="shared" si="2"/>
         <v>56</v>
       </c>
-      <c r="L109" s="16"/>
+      <c r="L109" s="16">
+        <v>6</v>
+      </c>
       <c r="M109" s="16">
         <f>SUM($L$3:L109)</f>
-        <v>131</v>
+        <v>357</v>
       </c>
       <c r="N109" s="16">
         <f t="shared" si="3"/>
-        <v>285</v>
+        <v>59</v>
       </c>
     </row>
     <row r="110" spans="2:14" x14ac:dyDescent="0.25">
@@ -5660,11 +5834,11 @@
       <c r="D110" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E110" s="25"/>
+      <c r="E110" s="23"/>
       <c r="F110" s="1">
         <v>104</v>
       </c>
-      <c r="G110" s="27"/>
+      <c r="G110" s="37"/>
       <c r="H110" s="1"/>
       <c r="I110" s="16">
         <v>6</v>
@@ -5677,14 +5851,16 @@
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="L110" s="16"/>
+      <c r="L110" s="16">
+        <v>6</v>
+      </c>
       <c r="M110" s="16">
         <f>SUM($L$3:L110)</f>
-        <v>131</v>
+        <v>363</v>
       </c>
       <c r="N110" s="16">
         <f t="shared" si="3"/>
-        <v>285</v>
+        <v>53</v>
       </c>
     </row>
     <row r="111" spans="2:14" x14ac:dyDescent="0.25">
@@ -5695,11 +5871,11 @@
       <c r="D111" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E111" s="25"/>
+      <c r="E111" s="23"/>
       <c r="F111" s="1">
         <v>105</v>
       </c>
-      <c r="G111" s="27"/>
+      <c r="G111" s="37"/>
       <c r="H111" s="1"/>
       <c r="I111" s="16">
         <v>6</v>
@@ -5712,14 +5888,16 @@
         <f t="shared" si="2"/>
         <v>44</v>
       </c>
-      <c r="L111" s="16"/>
+      <c r="L111" s="16">
+        <v>6</v>
+      </c>
       <c r="M111" s="16">
         <f>SUM($L$3:L111)</f>
-        <v>131</v>
+        <v>369</v>
       </c>
       <c r="N111" s="16">
         <f t="shared" si="3"/>
-        <v>285</v>
+        <v>47</v>
       </c>
     </row>
     <row r="112" spans="2:14" x14ac:dyDescent="0.25">
@@ -5730,11 +5908,11 @@
       <c r="D112" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E112" s="25"/>
+      <c r="E112" s="23"/>
       <c r="F112" s="1">
         <v>106</v>
       </c>
-      <c r="G112" s="27"/>
+      <c r="G112" s="37"/>
       <c r="H112" s="1" t="s">
         <v>18</v>
       </c>
@@ -5752,11 +5930,11 @@
       <c r="L112" s="16"/>
       <c r="M112" s="16">
         <f>SUM($L$3:L112)</f>
-        <v>131</v>
+        <v>369</v>
       </c>
       <c r="N112" s="16">
         <f t="shared" si="3"/>
-        <v>285</v>
+        <v>47</v>
       </c>
     </row>
     <row r="113" spans="2:14" x14ac:dyDescent="0.25">
@@ -5767,7 +5945,7 @@
       <c r="D113" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E113" s="25"/>
+      <c r="E113" s="23"/>
       <c r="F113" s="1">
         <v>107</v>
       </c>
@@ -5789,11 +5967,11 @@
       <c r="L113" s="16"/>
       <c r="M113" s="16">
         <f>SUM($L$3:L113)</f>
-        <v>131</v>
+        <v>369</v>
       </c>
       <c r="N113" s="16">
         <f t="shared" si="3"/>
-        <v>285</v>
+        <v>47</v>
       </c>
     </row>
     <row r="114" spans="2:14" x14ac:dyDescent="0.25">
@@ -5804,7 +5982,7 @@
       <c r="D114" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E114" s="26"/>
+      <c r="E114" s="24"/>
       <c r="F114" s="1">
         <v>108</v>
       </c>
@@ -5824,11 +6002,11 @@
       <c r="L114" s="16"/>
       <c r="M114" s="16">
         <f>SUM($L$3:L114)</f>
-        <v>131</v>
+        <v>369</v>
       </c>
       <c r="N114" s="16">
         <f t="shared" si="3"/>
-        <v>285</v>
+        <v>47</v>
       </c>
     </row>
     <row r="115" spans="2:14" x14ac:dyDescent="0.25">
@@ -5839,13 +6017,13 @@
       <c r="D115" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E115" s="24">
+      <c r="E115" s="22">
         <v>17</v>
       </c>
       <c r="F115" s="1">
         <v>109</v>
       </c>
-      <c r="G115" s="24" t="s">
+      <c r="G115" s="22" t="s">
         <v>21</v>
       </c>
       <c r="H115" s="1"/>
@@ -5863,11 +6041,11 @@
       <c r="L115" s="16"/>
       <c r="M115" s="16">
         <f>SUM($L$3:L115)</f>
-        <v>131</v>
+        <v>369</v>
       </c>
       <c r="N115" s="16">
         <f t="shared" si="3"/>
-        <v>285</v>
+        <v>47</v>
       </c>
     </row>
     <row r="116" spans="2:14" x14ac:dyDescent="0.25">
@@ -5878,11 +6056,11 @@
       <c r="D116" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E116" s="25"/>
+      <c r="E116" s="23"/>
       <c r="F116" s="1">
         <v>110</v>
       </c>
-      <c r="G116" s="25"/>
+      <c r="G116" s="23"/>
       <c r="H116" s="1"/>
       <c r="I116" s="16">
         <v>6</v>
@@ -5898,11 +6076,11 @@
       <c r="L116" s="16"/>
       <c r="M116" s="16">
         <f>SUM($L$3:L116)</f>
-        <v>131</v>
+        <v>369</v>
       </c>
       <c r="N116" s="16">
         <f t="shared" si="3"/>
-        <v>285</v>
+        <v>47</v>
       </c>
     </row>
     <row r="117" spans="2:14" x14ac:dyDescent="0.25">
@@ -5913,11 +6091,11 @@
       <c r="D117" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E117" s="25"/>
+      <c r="E117" s="23"/>
       <c r="F117" s="1">
         <v>111</v>
       </c>
-      <c r="G117" s="25"/>
+      <c r="G117" s="23"/>
       <c r="H117" s="1"/>
       <c r="I117" s="16">
         <v>6</v>
@@ -5933,11 +6111,11 @@
       <c r="L117" s="16"/>
       <c r="M117" s="16">
         <f>SUM($L$3:L117)</f>
-        <v>131</v>
+        <v>369</v>
       </c>
       <c r="N117" s="16">
         <f t="shared" si="3"/>
-        <v>285</v>
+        <v>47</v>
       </c>
     </row>
     <row r="118" spans="2:14" x14ac:dyDescent="0.25">
@@ -5948,11 +6126,11 @@
       <c r="D118" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E118" s="25"/>
+      <c r="E118" s="23"/>
       <c r="F118" s="1">
         <v>112</v>
       </c>
-      <c r="G118" s="25"/>
+      <c r="G118" s="23"/>
       <c r="H118" s="1"/>
       <c r="I118" s="16">
         <v>6</v>
@@ -5968,11 +6146,11 @@
       <c r="L118" s="16"/>
       <c r="M118" s="16">
         <f>SUM($L$3:L118)</f>
-        <v>131</v>
+        <v>369</v>
       </c>
       <c r="N118" s="16">
         <f t="shared" si="3"/>
-        <v>285</v>
+        <v>47</v>
       </c>
     </row>
     <row r="119" spans="2:14" x14ac:dyDescent="0.25">
@@ -5983,11 +6161,11 @@
       <c r="D119" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E119" s="25"/>
+      <c r="E119" s="23"/>
       <c r="F119" s="1">
         <v>113</v>
       </c>
-      <c r="G119" s="25"/>
+      <c r="G119" s="23"/>
       <c r="H119" s="1"/>
       <c r="I119" s="16">
         <v>6</v>
@@ -6003,11 +6181,11 @@
       <c r="L119" s="16"/>
       <c r="M119" s="16">
         <f>SUM($L$3:L119)</f>
-        <v>131</v>
+        <v>369</v>
       </c>
       <c r="N119" s="16">
         <f t="shared" si="3"/>
-        <v>285</v>
+        <v>47</v>
       </c>
     </row>
     <row r="120" spans="2:14" x14ac:dyDescent="0.25">
@@ -6018,11 +6196,11 @@
       <c r="D120" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E120" s="25"/>
+      <c r="E120" s="23"/>
       <c r="F120" s="1">
         <v>114</v>
       </c>
-      <c r="G120" s="26"/>
+      <c r="G120" s="24"/>
       <c r="H120" s="1"/>
       <c r="I120" s="16">
         <v>4</v>
@@ -6038,11 +6216,11 @@
       <c r="L120" s="16"/>
       <c r="M120" s="16">
         <f>SUM($L$3:L120)</f>
-        <v>131</v>
+        <v>369</v>
       </c>
       <c r="N120" s="16">
         <f t="shared" si="3"/>
-        <v>285</v>
+        <v>47</v>
       </c>
     </row>
     <row r="121" spans="2:14" x14ac:dyDescent="0.25">
@@ -6053,7 +6231,7 @@
       <c r="D121" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E121" s="26"/>
+      <c r="E121" s="24"/>
       <c r="F121" s="1">
         <v>115</v>
       </c>
@@ -6073,11 +6251,11 @@
       <c r="L121" s="16"/>
       <c r="M121" s="16">
         <f>SUM($L$3:L121)</f>
-        <v>131</v>
+        <v>369</v>
       </c>
       <c r="N121" s="16">
         <f t="shared" si="3"/>
-        <v>285</v>
+        <v>47</v>
       </c>
     </row>
     <row r="122" spans="2:14" x14ac:dyDescent="0.25">
@@ -6088,16 +6266,16 @@
       <c r="D122" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E122" s="24">
+      <c r="E122" s="22">
         <v>18</v>
       </c>
       <c r="F122" s="1">
         <v>116</v>
       </c>
-      <c r="G122" s="24" t="s">
+      <c r="G122" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="H122" s="29" t="s">
+      <c r="H122" s="32" t="s">
         <v>22</v>
       </c>
       <c r="I122" s="16"/>
@@ -6112,11 +6290,11 @@
       <c r="L122" s="16"/>
       <c r="M122" s="16">
         <f>SUM($L$3:L122)</f>
-        <v>131</v>
+        <v>369</v>
       </c>
       <c r="N122" s="16">
         <f t="shared" si="3"/>
-        <v>285</v>
+        <v>47</v>
       </c>
     </row>
     <row r="123" spans="2:14" x14ac:dyDescent="0.25">
@@ -6127,12 +6305,12 @@
       <c r="D123" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E123" s="25"/>
+      <c r="E123" s="23"/>
       <c r="F123" s="1">
         <v>117</v>
       </c>
-      <c r="G123" s="25"/>
-      <c r="H123" s="30"/>
+      <c r="G123" s="23"/>
+      <c r="H123" s="33"/>
       <c r="I123" s="16"/>
       <c r="J123" s="16">
         <f>SUM($I$3:I123)</f>
@@ -6145,11 +6323,11 @@
       <c r="L123" s="16"/>
       <c r="M123" s="16">
         <f>SUM($L$3:L123)</f>
-        <v>131</v>
+        <v>369</v>
       </c>
       <c r="N123" s="16">
         <f t="shared" si="3"/>
-        <v>285</v>
+        <v>47</v>
       </c>
     </row>
     <row r="124" spans="2:14" x14ac:dyDescent="0.25">
@@ -6160,12 +6338,12 @@
       <c r="D124" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E124" s="25"/>
+      <c r="E124" s="23"/>
       <c r="F124" s="1">
         <v>118</v>
       </c>
-      <c r="G124" s="25"/>
-      <c r="H124" s="30"/>
+      <c r="G124" s="23"/>
+      <c r="H124" s="33"/>
       <c r="I124" s="16"/>
       <c r="J124" s="16">
         <f>SUM($I$3:I124)</f>
@@ -6178,11 +6356,11 @@
       <c r="L124" s="16"/>
       <c r="M124" s="16">
         <f>SUM($L$3:L124)</f>
-        <v>131</v>
+        <v>369</v>
       </c>
       <c r="N124" s="16">
         <f t="shared" si="3"/>
-        <v>285</v>
+        <v>47</v>
       </c>
     </row>
     <row r="125" spans="2:14" x14ac:dyDescent="0.25">
@@ -6193,12 +6371,12 @@
       <c r="D125" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E125" s="25"/>
+      <c r="E125" s="23"/>
       <c r="F125" s="1">
         <v>119</v>
       </c>
-      <c r="G125" s="25"/>
-      <c r="H125" s="30"/>
+      <c r="G125" s="23"/>
+      <c r="H125" s="33"/>
       <c r="I125" s="16"/>
       <c r="J125" s="16">
         <f>SUM($I$3:I125)</f>
@@ -6211,11 +6389,11 @@
       <c r="L125" s="16"/>
       <c r="M125" s="16">
         <f>SUM($L$3:L125)</f>
-        <v>131</v>
+        <v>369</v>
       </c>
       <c r="N125" s="16">
         <f t="shared" si="3"/>
-        <v>285</v>
+        <v>47</v>
       </c>
     </row>
     <row r="126" spans="2:14" x14ac:dyDescent="0.25">
@@ -6226,12 +6404,12 @@
       <c r="D126" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E126" s="26"/>
+      <c r="E126" s="24"/>
       <c r="F126" s="1">
         <v>120</v>
       </c>
-      <c r="G126" s="26"/>
-      <c r="H126" s="31"/>
+      <c r="G126" s="24"/>
+      <c r="H126" s="34"/>
       <c r="I126" s="16"/>
       <c r="J126" s="16">
         <f>SUM($I$3:I126)</f>
@@ -6244,11 +6422,11 @@
       <c r="L126" s="16"/>
       <c r="M126" s="16">
         <f>SUM($L$3:L126)</f>
-        <v>131</v>
+        <v>369</v>
       </c>
       <c r="N126" s="16">
         <f t="shared" si="3"/>
-        <v>285</v>
+        <v>47</v>
       </c>
     </row>
     <row r="128" spans="2:14" x14ac:dyDescent="0.25">
@@ -6259,35 +6437,6 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="G94:G99"/>
-    <mergeCell ref="B3:B16"/>
-    <mergeCell ref="G17:G22"/>
-    <mergeCell ref="G24:G29"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="G3:G6"/>
-    <mergeCell ref="B17:B44"/>
-    <mergeCell ref="G31:G36"/>
-    <mergeCell ref="B45:B75"/>
-    <mergeCell ref="G45:G50"/>
-    <mergeCell ref="G52:G57"/>
-    <mergeCell ref="G59:G64"/>
-    <mergeCell ref="G66:G71"/>
-    <mergeCell ref="E80:E86"/>
-    <mergeCell ref="B106:B126"/>
-    <mergeCell ref="H122:H126"/>
-    <mergeCell ref="G122:G126"/>
-    <mergeCell ref="G115:G120"/>
-    <mergeCell ref="G101:G106"/>
-    <mergeCell ref="B76:B105"/>
-    <mergeCell ref="G73:G78"/>
-    <mergeCell ref="G80:G85"/>
-    <mergeCell ref="E87:E93"/>
-    <mergeCell ref="E94:E100"/>
-    <mergeCell ref="E101:E107"/>
-    <mergeCell ref="E108:E114"/>
-    <mergeCell ref="E115:E121"/>
-    <mergeCell ref="E122:E126"/>
-    <mergeCell ref="G87:G92"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="E3:E9"/>
@@ -6304,6 +6453,35 @@
     <mergeCell ref="E59:E65"/>
     <mergeCell ref="E66:E72"/>
     <mergeCell ref="E73:E79"/>
+    <mergeCell ref="B106:B126"/>
+    <mergeCell ref="H122:H126"/>
+    <mergeCell ref="G122:G126"/>
+    <mergeCell ref="G115:G120"/>
+    <mergeCell ref="G101:G106"/>
+    <mergeCell ref="B76:B105"/>
+    <mergeCell ref="G73:G78"/>
+    <mergeCell ref="G80:G85"/>
+    <mergeCell ref="E87:E93"/>
+    <mergeCell ref="E94:E100"/>
+    <mergeCell ref="E101:E107"/>
+    <mergeCell ref="E108:E114"/>
+    <mergeCell ref="E115:E121"/>
+    <mergeCell ref="E122:E126"/>
+    <mergeCell ref="G87:G92"/>
+    <mergeCell ref="G94:G99"/>
+    <mergeCell ref="B3:B16"/>
+    <mergeCell ref="G17:G22"/>
+    <mergeCell ref="G24:G29"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="G3:G6"/>
+    <mergeCell ref="B17:B44"/>
+    <mergeCell ref="G31:G36"/>
+    <mergeCell ref="E80:E86"/>
+    <mergeCell ref="B45:B75"/>
+    <mergeCell ref="G45:G50"/>
+    <mergeCell ref="G52:G57"/>
+    <mergeCell ref="G59:G64"/>
+    <mergeCell ref="G66:G71"/>
   </mergeCells>
   <conditionalFormatting sqref="I7:I126">
     <cfRule type="colorScale" priority="2">
